--- a/horizon-reports/horizon_rapor_latest.xlsx
+++ b/horizon-reports/horizon_rapor_latest.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Tüm Açık Çağrılar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Yeni Açılan Çağrılar'!$A$1:$E$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tüm Misyon Çağrıları'!$A$1:$E$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Yeni Açılan Çağrılar'!$A$1:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tüm Misyon Çağrıları'!$A$1:$E$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tüm Açık Çağrılar'!$A$1:$E$700</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,54 +486,54 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Government in transition – how governments change the way they work and prepare the civil service for the future</t>
+          <t>Technical innovation to protect ecosystems and to scale up their restoration</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-03</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-03</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>46154</v>
+        <v>46497</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46288</v>
+        <v>46652</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Fostering cooperation and integration between SSH and STEM research and innovation in the EU</t>
+          <t>Technical innovation to protect ecosystems and to scale up their restoration</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-10</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-03</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>46154</v>
+        <v>46497</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46288</v>
+        <v>46652</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Creative alliances: Fostering global partnerships in cultural policies and CCI innovation</t>
+          <t>Government in transition – how governments change the way they work and prepare the civil service for the future</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-05</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-03</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
@@ -543,18 +543,18 @@
         <v>46288</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>“Artistic intelligence” : harnessing the power of the arts to address complex challenges, enhance soft skills and boost innovation and competitiveness</t>
+          <t>Fostering cooperation and integration between SSH and STEM research and innovation in the EU</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-01</t>
+          <t>HORIZON-CL2-2026-01-TRANSFO-10</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
@@ -564,18 +564,18 @@
         <v>46288</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4500000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Contribution of basic skills to productivity, innovation, competitiveness and economic growth</t>
+          <t>Creative alliances: Fostering global partnerships in cultural policies and CCI innovation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-05</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-05</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
@@ -591,12 +591,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Towards a fair and transparent market for cultural and creative content in the era of generative AI</t>
+          <t>“Artistic intelligence” : harnessing the power of the arts to address complex challenges, enhance soft skills and boost innovation and competitiveness</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-04</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-01</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
@@ -606,18 +606,18 @@
         <v>46288</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Strengthen Europe's social model and sustainable competitiveness through productivity</t>
+          <t>Contribution of basic skills to productivity, innovation, competitiveness and economic growth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-02</t>
+          <t>HORIZON-CL2-2026-01-TRANSFO-05</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
@@ -633,12 +633,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Electoral integrity in the digital context</t>
+          <t>Towards a fair and transparent market for cultural and creative content in the era of generative AI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-08</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-04</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
@@ -648,18 +648,18 @@
         <v>46288</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Government in transition – how governments change the way they work and prepare the civil service for the future</t>
+          <t>Open topic: Strengthen Europe's social model and sustainable competitiveness through productivity</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-03</t>
+          <t>HORIZON-CL2-2026-01-TRANSFO-02</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
@@ -669,18 +669,18 @@
         <v>46288</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Creative alliances: Fostering global partnerships in cultural policies and CCI innovation</t>
+          <t>Electoral integrity in the digital context</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-05</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-08</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
@@ -690,46 +690,46 @@
         <v>46288</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>“Artistic intelligence” : harnessing the power of the arts to address complex challenges, enhance soft skills and boost innovation and competitiveness</t>
+          <t>Collection, Generation and Validation of Datasets  suitable for training AI Models for 6G Networks and for AIaaS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-01</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-B-01</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>46154</v>
+        <v>46051</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>46288</v>
+        <v>46141</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>4500000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>Contribution of basic skills to productivity, innovation, competitiveness and economic growth</t>
+          <t>SNS Operations and Output optimisation</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-05</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-CSA-01</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>46154</v>
+        <v>46051</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>46288</v>
+        <v>46141</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>3000000</v>
@@ -738,383 +738,173 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Towards a fair and transparent market for cultural and creative content in the era of generative AI</t>
+          <t>EU-India International Collaboration</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-04</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-CSA-03</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>46154</v>
+        <v>46051</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>46288</v>
+        <v>46141</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Strengthen Europe's social model and sustainable competitiveness through productivity</t>
+          <t>6G Devices</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-02</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-CSA-02</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>46154</v>
+        <v>46051</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>46288</v>
+        <v>46141</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Electoral integrity in the digital context</t>
+          <t>SNS experimental infrastructure</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-08</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-C-01</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>46154</v>
+        <v>46051</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>46288</v>
+        <v>46141</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>3500000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Fostering cooperation and integration between SSH and STEM research and innovation in the EU</t>
+          <t>Advanced Local Digital Twins using AI for Early Warning and Preparedness (IA)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-10</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-09</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>46154</v>
+        <v>46037</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>46288</v>
+        <v>46127</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>3500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Researching the technical, social &amp; economic factors impacting the energy performance of Smart Buildings (Built4People Partnership)</t>
+          <t>Developing and demonstrating core technologies for Virtual Worlds and Web 4.0 (IA) (Virtual worlds Partnership)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-01</t>
+          <t>HORIZON-CL4-2026-04-HUMAN-01</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>46147</v>
+        <v>46037</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>46280</v>
+        <v>46127</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>5250000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Advanced data platforms to integrate whole life carbon in building information tools, assessments, and certification (Built4People Partnership)</t>
+          <t>Apply AI: Robotics for Manufacturing: Advancing Core Skills through Technical Challenges (RIA) (Partnership in AI, Data and Robotics)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-03</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-08</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>46147</v>
+        <v>46037</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>46280</v>
+        <v>46127</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>5250000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Researching the technical, social &amp; economic factors impacting the energy performance of Smart Buildings (Built4People Partnership)</t>
+          <t>Challenge-Driven GenAI4EU Booster in Apply AI prioritised sectors (RIA) (AI/Data/Robotics Partnership)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-01</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-19</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
-        <v>46147</v>
+        <v>46037</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>46280</v>
+        <v>46127</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>5250000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Advanced data platforms to integrate whole life carbon in building information tools, assessments, and certification (Built4People Partnership)</t>
+          <t>Monitoring of secondary raw materials (CSA)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-03</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-13</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>46147</v>
+        <v>46028</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>46280</v>
+        <v>46133</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>5250000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6G Devices</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-02</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>SNS experimental infrastructure</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-C-01</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Collection, Generation and Validation of Datasets  suitable for training AI Models for 6G Networks and for AIaaS</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-B-01</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>SNS Operations and Output optimisation</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-01</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>EU-India International Collaboration</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-03</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>Apply AI: Robotics for Manufacturing: Advancing Core Skills through Technical Challenges (RIA) (Partnership in AI, Data and Robotics)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-08</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>46127</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Challenge-Driven GenAI4EU Booster in Apply AI prioritised sectors (RIA) (AI/Data/Robotics Partnership)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-19</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>46127</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Advanced Local Digital Twins using AI for Early Warning and Preparedness (IA)</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-09</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>46127</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Developing and demonstrating core technologies for Virtual Worlds and Web 4.0 (IA) (Virtual worlds Partnership)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-04-HUMAN-01</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>46127</v>
-      </c>
-      <c r="E30" s="4" t="n">
         <v>4000000</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Monitoring of secondary raw materials (CSA)</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-13</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>46133</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v>4000000</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E31"/>
+  <autoFilter ref="A1:E21"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
@@ -1136,16 +926,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId18"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId19"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1157,7 +937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,33 +1087,33 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Living labs to monitor and mitigate carcinogenic substances in and originating from soils: Evaluating their effects on human cancer risks</t>
+          <t>Innovative biotechnologies to restore soil health and improve agricultural competitiveness and resilience</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-06-SOIL-CANCER</t>
+          <t>HORIZON-MISS-2027-05-SOIL-05-two-stage</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>46651</v>
+        <v>46644</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12000000</v>
+        <v>6400000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Participatory research on the health of communities in contact with polluted soils</t>
+          <t>Living labs to enhance soil health in Continental, Black Sea, Pannonian and Steppic biogeographical regions</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-04-two-stage</t>
+          <t>HORIZON-MISS-2027-05-SOIL-01-two-stage</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
@@ -1343,39 +1123,39 @@
         <v>46644</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>5500000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Innovative biotechnologies to restore soil health and improve agricultural competitiveness and resilience</t>
+          <t>Living labs to monitor and mitigate carcinogenic substances in and originating from soils: Evaluating their effects on human cancer risks</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-05-two-stage</t>
+          <t>HORIZON-MISS-2027-06-SOIL-CANCER</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>46644</v>
+        <v>46651</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>6400000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Living labs to enhance soil health in Continental, Black Sea, Pannonian and Steppic biogeographical regions</t>
+          <t>Participatory research on the health of communities in contact with polluted soils</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-01-two-stage</t>
+          <t>HORIZON-MISS-2027-05-SOIL-04-two-stage</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
@@ -1385,7 +1165,7 @@
         <v>46644</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12000000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="11">
@@ -1454,12 +1234,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Living labs to enhance soil health in Alpine and Atlantic biogeographical regions</t>
+          <t>Living labs to enhance soil health in managed forests and in natural/semi-natural lands</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-01-two-stage</t>
+          <t>HORIZON-MISS-2026-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
@@ -1475,54 +1255,54 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Pragmatic clinical trials to optimise immunotherapeutic interventions for patients with refractory cancers</t>
+          <t>Living labs to enhance soil health in Alpine and Atlantic biogeographical regions</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-03</t>
+          <t>HORIZON-MISS-2026-05-SOIL-01-two-stage</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>46280</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>7000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Virtual Human Twin (VHT) Models for Cancer Research</t>
+          <t>Living labs to enhance soil health in managed forests and in natural/semi-natural lands</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-01</t>
+          <t>HORIZON-MISS-2026-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>46063</v>
+        <v>46065</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>46280</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Earlier and more precise palliative care</t>
+          <t>Boosting mental health of young cancer survivors through the European Cancer Patient Digital Centre (ECPDC)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-04</t>
+          <t>HORIZON-MISS-2026-02-CANCER-05</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
@@ -1532,18 +1312,18 @@
         <v>46280</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Improve the Quality of Life of older cancer patients</t>
+          <t>Earlier and more precise palliative care</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-07</t>
+          <t>HORIZON-MISS-2026-02-CANCER-04</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
@@ -1559,12 +1339,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Boosting mental health of young cancer survivors through the European Cancer Patient Digital Centre (ECPDC)</t>
+          <t>Pragmatic clinical trials to optimise immunotherapeutic interventions for patients with refractory cancers</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-05</t>
+          <t>HORIZON-MISS-2026-02-CANCER-03</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
@@ -1580,12 +1360,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Development of a research capacity building programme on cancer with and for Ukraine</t>
+          <t>Virtual Human Twin (VHT) Models for Cancer Research</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-06</t>
+          <t>HORIZON-MISS-2026-02-CANCER-01</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
@@ -1595,18 +1375,18 @@
         <v>46280</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Microbiome for early cancer prediction before the onset of disease</t>
+          <t>Improve the Quality of Life of older cancer patients</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-02</t>
+          <t>HORIZON-MISS-2026-02-CANCER-07</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
@@ -1616,102 +1396,102 @@
         <v>46280</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Energy efficient urban and sub-urban public transport, complemented by shared mobility</t>
+          <t>Development of a research capacity building programme on cancer with and for Ukraine</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-01</t>
+          <t>HORIZON-MISS-2026-02-CANCER-06</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>46057</v>
+        <v>46063</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>46303</v>
+        <v>46280</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Enabling user-centred and open innovation initiatives to enhance soil health in Ukraine</t>
+          <t>Microbiome for early cancer prediction before the onset of disease</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-03</t>
+          <t>HORIZON-MISS-2026-02-CANCER-02</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>46057</v>
+        <v>46063</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46288</v>
+        <v>46280</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>5000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Introducing circular economy models in the construction sector, from buildings to city scale</t>
+          <t>Enabling user-centred and open innovation initiatives to enhance soil health in Ukraine</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-NEB-B4P-CCRI-03</t>
+          <t>HORIZON-MISS-2026-05-SOIL-03</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>46303</v>
+        <v>46288</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>9500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance and antibiotic biosynthesis in soils: developing key understanding and counteractive strategies using a One-Health approach</t>
+          <t>Introducing circular economy models in the construction sector, from buildings to city scale</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-02</t>
+          <t>HORIZON-MISS-2026-04-CIT-NEB-B4P-CCRI-03</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>46288</v>
+        <v>46303</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>7000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Monitoring soil health in practice: equipping stakeholders to sample, analyse, and interpret soil health indicators</t>
+          <t>Antimicrobial resistance and antibiotic biosynthesis in soils: developing key understanding and counteractive strategies using a One-Health approach</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-01</t>
+          <t>HORIZON-MISS-2026-05-SOIL-02</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
@@ -1721,18 +1501,18 @@
         <v>46288</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Transition to low-temperature heating solutions in multi-apartment buildings</t>
+          <t>Energy efficient urban and sub-urban public transport, complemented by shared mobility</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-02</t>
+          <t>HORIZON-MISS-2026-04-CIT-01</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
@@ -1742,18 +1522,18 @@
         <v>46303</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Leveraging long-term field experiments and other datasets to develop AI-ready decision support systems for sustainable soil management</t>
+          <t>Monitoring soil health in practice: equipping stakeholders to sample, analyse, and interpret soil health indicators</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-04</t>
+          <t>HORIZON-MISS-2026-05-SOIL-01</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
@@ -1763,81 +1543,81 @@
         <v>46288</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>9000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>SUNDANSE – Open Call #1 (Sediment Matters – The Danube Call)</t>
+          <t>Transition to low-temperature heating solutions in multi-apartment buildings</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
+          <t>HORIZON-MISS-2026-04-CIT-02</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>46009</v>
+        <v>46057</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46071.70833333334</v>
+        <v>46303</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>300000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Understanding and overcoming barriers to the scale-up of innovations supporting EU Missions</t>
+          <t>Leveraging long-term field experiments and other datasets to develop AI-ready decision support systems for sustainable soil management</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-07-CROSS-02</t>
+          <t>HORIZON-MISS-2026-05-SOIL-04</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>46000</v>
+        <v>46057</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46112</v>
+        <v>46288</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>2000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>Strengthening skills and capacity for the deployment of EU Missions</t>
+          <t>SUNDANSE – Open Call #1 (Sediment Matters – The Danube Call)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-07-CROSS-01</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>46000</v>
+        <v>46009</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46112</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Advancing lead markets and proof-of-concept for deep tech solutions contributing to EU Missions</t>
+          <t>Understanding and overcoming barriers to the scale-up of innovations supporting EU Missions</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-07-CROSS-03</t>
+          <t>HORIZON-MISS-2026-07-CROSS-02</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
@@ -1847,97 +1627,97 @@
         <v>46112</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>iCOSHELLs Open Call: New innovations and solutions to be tested by the Living Labs</t>
+          <t>Strengthening skills and capacity for the deployment of EU Missions</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-08</t>
+          <t>HORIZON-MISS-2026-07-CROSS-01</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>46057.58333333334</v>
+        <v>46112</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scaling up the SEACURE solutions across Associated Regions'. </t>
+          <t>Advancing lead markets and proof-of-concept for deep tech solutions contributing to EU Missions</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-SOIL-01-01</t>
+          <t>HORIZON-MISS-2026-07-CROSS-03</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46081.04166666666</v>
+        <v>46112</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>700000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BlueActionBANOS 1st Open Call for Transition Agendas</t>
+          <t>iCOSHELLs Open Call: New innovations and solutions to be tested by the Living Labs</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2024-OCEAN-02-01</t>
+          <t>HORIZON-MISS-2023-SOIL-01-08</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>45989</v>
+        <v>45995</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46171.58333333334</v>
+        <v>46057.58333333334</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BlueActionAA – Community Led-Pilot Action Call (BAAC-01)</t>
+          <t xml:space="preserve">Scaling up the SEACURE solutions across Associated Regions'. </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2024-OCEAN-02-01</t>
+          <t>HORIZON-MISS-2023-OCEAN-SOIL-01-01</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>45989</v>
+        <v>45992</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46171.58333333334</v>
+        <v>46081.04166666666</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>7000000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BlueActionBANOS Open Call for Community-Led Actions</t>
+          <t>BlueActionBANOS 1st Open Call for Transition Agendas</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1952,13 +1732,13 @@
         <v>46171.58333333334</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TASC-RestoreMed Open Call Type B: Transition Agenda Development (TAD) </t>
+          <t>BlueActionAA – Community Led-Pilot Action Call (BAAC-01)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1967,19 +1747,19 @@
         </is>
       </c>
       <c r="C38" s="3" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>46169.70833333334</v>
+        <v>46171.58333333334</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TASC-RestoreMed Open Call Type A: Community-Led Actions (CLA) </t>
+          <t>BlueActionBANOS Open Call for Community-Led Actions</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1988,10 +1768,10 @@
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46169.70833333334</v>
+        <v>46171.58333333334</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>7000000</v>
@@ -2000,7 +1780,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>SoS2LearnDBS’s Open call for Community-Led Actions to restore Danube-Black Sea Waters (OC-CLed-SoS2LearnDBS-2025)</t>
+          <t xml:space="preserve">TASC-RestoreMed Open Call Type B: Transition Agenda Development (TAD) </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2012,154 +1792,154 @@
         <v>45988</v>
       </c>
       <c r="D40" s="3" t="n">
-        <v>46111.5</v>
+        <v>46169.70833333334</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>Call for MRV providers to test solutions under the LILAS4SOILS Project</t>
+          <t xml:space="preserve">TASC-RestoreMed Open Call Type A: Community-Led Actions (CLA) </t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-09</t>
+          <t>HORIZON-MISS-2024-OCEAN-02-01</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
-        <v>45985</v>
+        <v>45988</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46046.99930555555</v>
+        <v>46169.70833333334</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>60000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Open Call for Financial Support to Third Parties as a mechanism to showcase the feasibility, replicability and scalability of innovation solutions through Public Authorities in the Mediterranean</t>
+          <t>SoS2LearnDBS’s Open call for Community-Led Actions to restore Danube-Black Sea Waters (OC-CLed-SoS2LearnDBS-2025)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-SOIL-01-01</t>
+          <t>HORIZON-MISS-2024-OCEAN-02-01</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>45959</v>
+        <v>45988</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46052.70833333334</v>
+        <v>46111.5</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>EUROLakes Replication Call</t>
+          <t>Call for MRV providers to test solutions under the LILAS4SOILS Project</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-04</t>
+          <t>HORIZON-MISS-2023-SOIL-01-09</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>45946</v>
+        <v>45985</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46037.70833333334</v>
+        <v>46046.99930555555</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>225000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>TIDAL ArtS Residency Call</t>
+          <t>Open Call for Financial Support to Third Parties as a mechanism to showcase the feasibility, replicability and scalability of innovation solutions through Public Authorities in the Mediterranean</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-11</t>
+          <t>HORIZON-MISS-2023-OCEAN-SOIL-01-01</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>45945</v>
+        <v>45959</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46061.99930555555</v>
+        <v>46052.70833333334</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Financial Support for Third Parties: iNNO SED Open Call for Associated Regions</t>
+          <t>EUROLakes Replication Call</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-04</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>45915</v>
+        <v>45946</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>45978.66666666666</v>
+        <v>46037.70833333334</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>500000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>FERRO Open Call for Associated Regions</t>
+          <t>TIDAL ArtS Residency Call</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-04</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-11</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>45901</v>
+        <v>45945</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>45991.70833333334</v>
+        <v>46061.99930555555</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>300000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>DANUBElifelines Call for Associated Regions</t>
+          <t>Financial Support for Third Parties: iNNO SED Open Call for Associated Regions</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2024-OCEAN-01-02</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>46022.99930555555</v>
+        <v>45978.66666666666</v>
       </c>
       <c r="E47" s="4" t="n">
         <v>500000</v>
@@ -2168,70 +1948,70 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Financial Support to Third Parties: DANSER Open Call for Associated Regions</t>
+          <t>FERRO Open Call for Associated Regions</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-04</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
         <v>45901</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>45962.625</v>
+        <v>45991.70833333334</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>390000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>SoilTribes | Open Call to Support Initiatives Led by Multi-Actor Teams</t>
+          <t>DANUBElifelines Call for Associated Regions</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-07</t>
+          <t>HORIZON-MISS-2024-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
-        <v>45880</v>
+        <v>45901</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>45940.70833333334</v>
+        <v>46022.99930555555</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1750000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>PartArt4OW Second Call</t>
+          <t>Financial Support to Third Parties: DANSER Open Call for Associated Regions</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-11</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>45932.70833333334</v>
+        <v>45962.625</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOILSCAPE Open Call </t>
+          <t>SoilTribes | Open Call to Support Initiatives Led by Multi-Actor Teams</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2240,74 +2020,116 @@
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>45810</v>
+        <v>45880</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>45930.25</v>
+        <v>45940.70833333334</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>1750000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Boosting the transformation towards climate-neutral cities, the net-zero economy and open strategic autonomy through Pre-Commercial Procurement (PCP)</t>
+          <t>PartArt4OW Second Call</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-PCP-CIT-01</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-11</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>45783</v>
+        <v>45870</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>46042</v>
+        <v>45932.70833333334</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>7000000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>Open Call for Farmers to contribute to the LILAS4SOILS Project</t>
+          <t xml:space="preserve">SOILSCAPE Open Call </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-09</t>
+          <t>HORIZON-MISS-2023-SOIL-01-07</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>45727</v>
+        <v>45810</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>45793.99930555555</v>
-      </c>
-      <c r="E53" s="4" t="n">
-        <v>750000</v>
+        <v>45930.25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
+          <t>Boosting the transformation towards climate-neutral cities, the net-zero economy and open strategic autonomy through Pre-Commercial Procurement (PCP)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HORIZON-MISS-2026-04-PCP-CIT-01</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n">
+        <v>45783</v>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>46042</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Open Call for Farmers to contribute to the LILAS4SOILS Project</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HORIZON-MISS-2023-SOIL-01-09</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n">
+        <v>45727</v>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>45793.99930555555</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
           <t>Call for marine biodiversity (monitoring) data</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>HORIZON-MISS-2022-OCEAN-01-07</t>
         </is>
       </c>
-      <c r="C54" s="3" t="n">
+      <c r="C56" s="3" t="n">
         <v>45644</v>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D56" s="3" t="n">
         <v>45716.99930555555</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E54"/>
+  <autoFilter ref="A1:E56"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
@@ -2362,6 +2184,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A52" r:id="rId51"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A53" r:id="rId52"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A56" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2418,12 +2242,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Community of practice - Data-Driven Decision-Making in Energy</t>
+          <t>Industrial processes and equipment for innovative, reliable and scalable tandem technologies (EUPI-PV Partnership)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-07-D3-28</t>
+          <t>HORIZON-CL5-2027-07-D3-16</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
@@ -2433,18 +2257,18 @@
         <v>46722</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>6000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>PV based electrification of the economy: Designing &amp; optimising PV systems supporting industrial electrification and promoting participation in electricity markets (EUPI-PV Partnership)</t>
+          <t>Advanced TSO control rooms to enhance grid observability, stability and resilience</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-07-D3-17</t>
+          <t>HORIZON-CL5-2027-07-D3-25</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
@@ -2454,18 +2278,18 @@
         <v>46722</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Integrated Approaches for Retrofitting Infrastructures with Innovative Energy Storage Technologies</t>
+          <t>Community of practice - Data-Driven Decision-Making in Energy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-07-D3-27</t>
+          <t>HORIZON-CL5-2027-07-D3-28</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
@@ -2475,18 +2299,18 @@
         <v>46722</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Demonstration of hydropower technologies for efficient and forward-looking refurbishment of existing hydropower plants</t>
+          <t>PV based electrification of the economy: Designing &amp; optimising PV systems supporting industrial electrification and promoting participation in electricity markets (EUPI-PV Partnership)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-07-D3-11</t>
+          <t>HORIZON-CL5-2027-07-D3-17</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
@@ -2496,18 +2320,18 @@
         <v>46722</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Advanced TSO control rooms to enhance grid observability, stability and resilience</t>
+          <t>Integrated Approaches for Retrofitting Infrastructures with Innovative Energy Storage Technologies</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-07-D3-25</t>
+          <t>HORIZON-CL5-2027-07-D3-27</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
@@ -2517,7 +2341,7 @@
         <v>46722</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>9500000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="7">
@@ -2565,12 +2389,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Industrial processes and equipment for innovative, reliable and scalable tandem technologies (EUPI-PV Partnership)</t>
+          <t>Demonstration of hydropower technologies for efficient and forward-looking refurbishment of existing hydropower plants</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-07-D3-16</t>
+          <t>HORIZON-CL5-2027-07-D3-11</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
@@ -2580,18 +2404,18 @@
         <v>46722</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>9500000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Towards Artificial General Intelligence (AGI) for healthcare</t>
+          <t>Virtual Human Twins (VHTs) for integrated clinical decision support in prevention and diagnosis</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-03-TOOL-08</t>
+          <t>HORIZON-HLTH-2027-03-TOOL-04</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
@@ -2601,7 +2425,7 @@
         <v>46652</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2900000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="11">
@@ -2628,12 +2452,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Virtual Human Twins (VHTs) for integrated clinical decision support in prevention and diagnosis</t>
+          <t>Towards Artificial General Intelligence (AGI) for healthcare</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-03-TOOL-04</t>
+          <t>HORIZON-HLTH-2027-03-TOOL-08</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
@@ -2643,7 +2467,7 @@
         <v>46652</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>10000000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="13">
@@ -2754,12 +2578,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Addressing the impact of artificial intelligence, cyberviolence, and deepfakes on equality, democracy and inclusive societies</t>
+          <t>Persons with disabilities: opportunities for labour inclusion and social protection through the life course</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-DEMOCRACY-04</t>
+          <t>HORIZON-CL2-2027-01-TRANSFO-07</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
@@ -2769,18 +2593,18 @@
         <v>46653</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Development aid and democratic governance</t>
+          <t>Student and family engagement for developing a culture of democratic/civic participation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-DEMOCRACY-05</t>
+          <t>HORIZON-CL2-2027-01-DEMOCRACY-03</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
@@ -2796,12 +2620,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Safeguarding &amp; transmission of intangible cultural heritage</t>
+          <t>Addressing the impact of artificial intelligence, cyberviolence, and deepfakes on equality, democracy and inclusive societies</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-HERITAGE-08</t>
+          <t>HORIZON-CL2-2027-01-DEMOCRACY-04</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
@@ -2811,18 +2635,18 @@
         <v>46653</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Impact of access to nature-positive environments in promoting social cohesion and reducing inequalities in urban and peri-urban settings</t>
+          <t>Development aid and democratic governance</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-TRANSFO-01</t>
+          <t>HORIZON-CL2-2027-01-DEMOCRACY-05</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
@@ -2832,18 +2656,18 @@
         <v>46653</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>The role of private companies in democracy</t>
+          <t>Safeguarding &amp; transmission of intangible cultural heritage</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-DEMOCRACY-07</t>
+          <t>HORIZON-CL2-2027-01-HERITAGE-08</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
@@ -2853,18 +2677,18 @@
         <v>46653</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>The impact of EU labour mobility on the Member States of the EU</t>
+          <t>Impact of access to nature-positive environments in promoting social cohesion and reducing inequalities in urban and peri-urban settings</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-TRANSFO-04</t>
+          <t>HORIZON-CL2-2027-01-TRANSFO-01</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
@@ -2880,12 +2704,12 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Impact of in-kind benefits on income distribution and on vulnerable populations</t>
+          <t>The impact of EU labour mobility on the Member States of the EU</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-TRANSFO-02</t>
+          <t>HORIZON-CL2-2027-01-TRANSFO-04</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
@@ -2901,12 +2725,12 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Re-imagining the creative economy: the interplay between the cultural and creative sectors and industries and the social economy</t>
+          <t>Impact of in-kind benefits on income distribution and on vulnerable populations</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-HERITAGE-05</t>
+          <t>HORIZON-CL2-2027-01-TRANSFO-02</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
@@ -2922,12 +2746,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Women’s, LGBTIQ and minority rights in a context of autocracy, conflict and geopolitical shifts</t>
+          <t>The role of private companies in democracy</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-DEMOCRACY-02</t>
+          <t>HORIZON-CL2-2027-01-DEMOCRACY-07</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
@@ -2943,12 +2767,12 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>AI4Creatives Support Platform: embracing a fair AI revolution</t>
+          <t>Re-imagining the creative economy: the interplay between the cultural and creative sectors and industries and the social economy</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-HERITAGE-02</t>
+          <t>HORIZON-CL2-2027-01-HERITAGE-05</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
@@ -2958,18 +2782,18 @@
         <v>46653</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>4500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Closing the learning gap: uncovering causes and effective policy interventions for declining youth skills in mathematics, reading, and science</t>
+          <t>Women’s, LGBTIQ and minority rights in a context of autocracy, conflict and geopolitical shifts</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-TRANSFO-06</t>
+          <t>HORIZON-CL2-2027-01-DEMOCRACY-02</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
@@ -2979,18 +2803,18 @@
         <v>46653</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>Rethinking sustainable competitiveness beyond traditional perspectives: role and contribution of the Social Economy</t>
+          <t>AI4Creatives Support Platform: embracing a fair AI revolution</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-TRANSFO-03</t>
+          <t>HORIZON-CL2-2027-01-HERITAGE-02</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
@@ -3000,18 +2824,18 @@
         <v>46653</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>The effective use of artificial intelligence in learning environments in pre-primary and primary education</t>
+          <t>Identifying user-focused solutions to support news media freedom</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-TRANSFO-05</t>
+          <t>HORIZON-CL2-2027-01-DEMOCRACY-06</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
@@ -3021,18 +2845,18 @@
         <v>46653</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>Identifying user-focused solutions to support news media freedom</t>
+          <t>Future-proofing sustainable cultural tourism</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-DEMOCRACY-06</t>
+          <t>HORIZON-CL2-2027-01-HERITAGE-06</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
@@ -3042,18 +2866,18 @@
         <v>46653</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Future-proofing sustainable cultural tourism</t>
+          <t>Towards a consolidated culture and creativity driven European innovation ecosystem</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-HERITAGE-06</t>
+          <t>HORIZON-CL2-2027-01-HERITAGE-01</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
@@ -3063,18 +2887,18 @@
         <v>46653</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>4000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Towards a consolidated culture and creativity driven European innovation ecosystem</t>
+          <t>Crafting routes to a circular economy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-HERITAGE-01</t>
+          <t>HORIZON-CL2-2027-01-HERITAGE-03</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
@@ -3084,18 +2908,18 @@
         <v>46653</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>4500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Crafting routes to a circular economy</t>
+          <t>Advisory support and network for countering and preventing radicalisation, extremism, hate speech and polarisation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-HERITAGE-03</t>
+          <t>HORIZON-CL2-2027-01-DEMOCRACY-01</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
@@ -3111,12 +2935,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Advisory support and network for countering and preventing radicalisation, extremism, hate speech and polarisation</t>
+          <t>Closing the learning gap: uncovering causes and effective policy interventions for declining youth skills in mathematics, reading, and science</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-DEMOCRACY-01</t>
+          <t>HORIZON-CL2-2027-01-TRANSFO-06</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
@@ -3132,12 +2956,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Culture, heritage and creative industries for health and well-being</t>
+          <t>Rethinking sustainable competitiveness beyond traditional perspectives: role and contribution of the Social Economy</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-HERITAGE-04</t>
+          <t>HORIZON-CL2-2027-01-TRANSFO-03</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
@@ -3153,12 +2977,12 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>Global Human Rights and EU values</t>
+          <t>The effective use of artificial intelligence in learning environments in pre-primary and primary education</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-DEMOCRACY-08</t>
+          <t>HORIZON-CL2-2027-01-TRANSFO-05</t>
         </is>
       </c>
       <c r="C37" s="3" t="n">
@@ -3168,18 +2992,18 @@
         <v>46653</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>Societal impact of cultural heritage</t>
+          <t>Culture, heritage and creative industries for health and well-being</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-HERITAGE-07</t>
+          <t>HORIZON-CL2-2027-01-HERITAGE-04</t>
         </is>
       </c>
       <c r="C38" s="3" t="n">
@@ -3189,18 +3013,18 @@
         <v>46653</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>Scaling and deploying innovations in migration management</t>
+          <t>Global Human Rights and EU values</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-TRANSFO-08</t>
+          <t>HORIZON-CL2-2027-01-DEMOCRACY-08</t>
         </is>
       </c>
       <c r="C39" s="3" t="n">
@@ -3210,18 +3034,18 @@
         <v>46653</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>Persons with disabilities: opportunities for labour inclusion and social protection through the life course</t>
+          <t>Societal impact of cultural heritage</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-TRANSFO-07</t>
+          <t>HORIZON-CL2-2027-01-HERITAGE-07</t>
         </is>
       </c>
       <c r="C40" s="3" t="n">
@@ -3231,18 +3055,18 @@
         <v>46653</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>Student and family engagement for developing a culture of democratic/civic participation</t>
+          <t>Scaling and deploying innovations in migration management</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2027-01-DEMOCRACY-03</t>
+          <t>HORIZON-CL2-2027-01-TRANSFO-08</t>
         </is>
       </c>
       <c r="C41" s="3" t="n">
@@ -3252,18 +3076,18 @@
         <v>46653</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Sustainable, beautiful and healthy construction and renovation sites</t>
+          <t>Mass customisation of offsite manufactured modular construction components to transform the existing built environment</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-REGEN-02</t>
+          <t>HORIZON-NEB-2027-01-BUSINESS-01</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
@@ -3273,18 +3097,18 @@
         <v>46722</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>The transformative potential of co-governance in the green transition of neighbourhoods</t>
+          <t>Novel combinations of knowledge and research methods to address social issues and advance a fair green transition of neighbourhoods</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-PARTICIPATION-01</t>
+          <t>HORIZON-NEB-2027-01-PARTICIPATION-03</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
@@ -3294,18 +3118,18 @@
         <v>46722</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>5380000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Novel combinations of knowledge and research methods to address social issues and advance a fair green transition of neighbourhoods</t>
+          <t>Sustainable, beautiful and healthy construction and renovation sites</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-PARTICIPATION-03</t>
+          <t>HORIZON-NEB-2027-01-REGEN-02</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
@@ -3315,18 +3139,18 @@
         <v>46722</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>Mass customisation of offsite manufactured modular construction components to transform the existing built environment</t>
+          <t>The transformative potential of co-governance in the green transition of neighbourhoods</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-BUSINESS-01</t>
+          <t>HORIZON-NEB-2027-01-PARTICIPATION-01</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
@@ -3336,7 +3160,7 @@
         <v>46722</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>5000000</v>
+        <v>5380000</v>
       </c>
     </row>
     <row r="46">
@@ -3384,22 +3208,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Innovative models for collective community investment and ownership</t>
+          <t>Reducing soil sealing through sustainable urban and territorial design in the New European Bauhaus</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-BUSINESS-02</t>
+          <t>HORIZON-NEB-2027-02-NEB-SOIL-01</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
         <v>46512</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>46722</v>
+        <v>46645</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>3500000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="49">
@@ -3426,12 +3250,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Intergenerational neighbourhoods and communities aligned with the New European Bauhaus</t>
+          <t>Innovative models for collective community investment and ownership</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-01-PARTICIPATION-02</t>
+          <t>HORIZON-NEB-2027-01-BUSINESS-02</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
@@ -3441,39 +3265,39 @@
         <v>46722</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>5250000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Reducing soil sealing through sustainable urban and territorial design in the New European Bauhaus</t>
+          <t>Intergenerational neighbourhoods and communities aligned with the New European Bauhaus</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2027-02-NEB-SOIL-01</t>
+          <t>HORIZON-NEB-2027-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
         <v>46512</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>46645</v>
+        <v>46722</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>7500000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Effective and evidence-based responses to the increased availability and use of synthetic drugs and stimulants in Europe</t>
+          <t>Accelerating uptake through open proposals for advanced SME innovation</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-05</t>
+          <t>HORIZON-CL3-2027-01-SSRI-01</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
@@ -3483,18 +3307,18 @@
         <v>46695</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>Detection and characterisation of threats or illegal/ smuggled goods in cargo</t>
+          <t>Trusted, secure, quality future digital travel credentials</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-BM-03</t>
+          <t>HORIZON-CL3-2027-01-BM-02</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
@@ -3504,18 +3328,18 @@
         <v>46695</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Open grounds for future pre-commercial procurement of innovative security technologies</t>
+          <t>Demand-led innovation in security</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-SSRI-02</t>
+          <t>HORIZON-CL3-2027-01-SSRI-03</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
@@ -3525,18 +3349,18 @@
         <v>46695</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1000000</v>
+        <v>5830000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Enhancing preparedness for large-scale cross-border disasters</t>
+          <t>Open Topic on advanced protective gear optimized for CBRN-E (Chemical, Biological, Radiological, Nuclear, Explosives) environments and new generation of smart protective equipment for disaster responders</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-DRS-04</t>
+          <t>HORIZON-CL3-2027-01-DRS-01</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
@@ -3546,18 +3370,18 @@
         <v>46695</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>4000000</v>
+        <v>3835000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Enhancing physical protection of critical infrastructures</t>
+          <t>Open grounds for future pre-commercial procurement of innovative security technologies</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-INFRA-01</t>
+          <t>HORIZON-CL3-2027-01-SSRI-02</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
@@ -3567,18 +3391,18 @@
         <v>46695</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Open topic on increasing security of citizens against terrorism, including in public spaces</t>
+          <t>Enhancing preparedness for large-scale cross-border disasters</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-04</t>
+          <t>HORIZON-CL3-2027-01-DRS-04</t>
         </is>
       </c>
       <c r="C57" s="3" t="n">
@@ -3588,18 +3412,18 @@
         <v>46695</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Demand-led innovation in security</t>
+          <t>Enhancing physical protection of critical infrastructures</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-SSRI-03</t>
+          <t>HORIZON-CL3-2027-01-INFRA-01</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
@@ -3609,18 +3433,18 @@
         <v>46695</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>5830000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Open Topic on advanced protective gear optimized for CBRN-E (Chemical, Biological, Radiological, Nuclear, Explosives) environments and new generation of smart protective equipment for disaster responders</t>
+          <t>Open topic on increasing security of citizens against terrorism, including in public spaces</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-DRS-01</t>
+          <t>HORIZON-CL3-2027-01-FCT-04</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
@@ -3630,18 +3454,18 @@
         <v>46695</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>3835000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Accelerating uptake through open proposals for advanced SME innovation</t>
+          <t>Effective and evidence-based responses to the increased availability and use of synthetic drugs and stimulants in Europe</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-SSRI-01</t>
+          <t>HORIZON-CL3-2027-01-FCT-05</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
@@ -3651,18 +3475,18 @@
         <v>46695</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Trusted, secure, quality future digital travel credentials</t>
+          <t>Detection and characterisation of threats or illegal/ smuggled goods in cargo</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-BM-02</t>
+          <t>HORIZON-CL3-2027-01-BM-03</t>
         </is>
       </c>
       <c r="C61" s="3" t="n">
@@ -3672,18 +3496,18 @@
         <v>46695</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>4000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Open topic on enhanced prevention, detection and deterrence of societal issues related to various forms of crime</t>
+          <t>Community policing in diverse societies in Europe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-03</t>
+          <t>HORIZON-CL3-2027-01-FCT-02</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
@@ -3699,12 +3523,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Enhancing decision support system for disaster crises: leveraging emerging technologies for improved civil preparedness and crisis management</t>
+          <t>Impact of malicious use of Open-Source Intelligence on critical infrastructure business continuity</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-DRS-03</t>
+          <t>HORIZON-CL3-2027-01-INFRA-02</t>
         </is>
       </c>
       <c r="C63" s="3" t="n">
@@ -3714,18 +3538,18 @@
         <v>46695</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>3000000</v>
+        <v>3835000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Societal resilience, engagement of the younger generations and digital innovation for disaster resilience</t>
+          <t>Open topic on research and innovation for effective management of EU external borders that promotes fundamental rights and EU values</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-DRS-02</t>
+          <t>HORIZON-CL3-2027-01-BM-01</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
@@ -3735,18 +3559,18 @@
         <v>46695</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>Community policing in diverse societies in Europe</t>
+          <t>Societal resilience, engagement of the younger generations and digital innovation for disaster resilience</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-02</t>
+          <t>HORIZON-CL3-2027-01-DRS-02</t>
         </is>
       </c>
       <c r="C65" s="3" t="n">
@@ -3762,12 +3586,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Impact of malicious use of Open-Source Intelligence on critical infrastructure business continuity</t>
+          <t>Online harms detection and investigation tools using a short development cycle model</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-INFRA-02</t>
+          <t>HORIZON-CL3-2027-01-FCT-01</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
@@ -3777,18 +3601,18 @@
         <v>46695</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>3835000</v>
+        <v>7833000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Online harms detection and investigation tools using a short development cycle model</t>
+          <t>Open topic on enhanced prevention, detection and deterrence of societal issues related to various forms of crime</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-01</t>
+          <t>HORIZON-CL3-2027-01-FCT-03</t>
         </is>
       </c>
       <c r="C67" s="3" t="n">
@@ -3798,18 +3622,18 @@
         <v>46695</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>7833000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Open topic on research and innovation for effective management of EU external borders that promotes fundamental rights and EU values</t>
+          <t>Enhancing decision support system for disaster crises: leveraging emerging technologies for improved civil preparedness and crisis management</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-BM-01</t>
+          <t>HORIZON-CL3-2027-01-DRS-03</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
@@ -3819,18 +3643,18 @@
         <v>46695</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>Demonstration of industrial excess/waste heat conversion to mechanical or electrical power</t>
+          <t>Integrating circularity in LCA-based modelling frameworks for renovation of buildings (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D4-09</t>
+          <t>HORIZON-CL5-2027-05-D4-07</t>
         </is>
       </c>
       <c r="C69" s="3" t="n">
@@ -3846,12 +3670,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>Thermal energy optimisation and waste heat recovery of high energy demand IT rooms in buildings or small edge data centres</t>
+          <t>On-site robotic and automated techniques for building renovation and new construction</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D4-06</t>
+          <t>HORIZON-CL5-2027-05-D4-05</t>
         </is>
       </c>
       <c r="C70" s="3" t="n">
@@ -3861,18 +3685,18 @@
         <v>46645</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>5250000</v>
+        <v>6750000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Demonstration for Long-duration Battery Energy Storage Systems (BATT4EU Partnership)</t>
+          <t>Demonstration of industrial excess/waste heat conversion to mechanical or electrical power</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D2-08</t>
+          <t>HORIZON-CL5-2027-05-D4-09</t>
         </is>
       </c>
       <c r="C71" s="3" t="n">
@@ -3882,18 +3706,18 @@
         <v>46645</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>9400000</v>
+        <v>6750000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Integrating circularity in LCA-based modelling frameworks for renovation of buildings (Built4People Partnership)</t>
+          <t>Thermal energy optimisation and waste heat recovery of high energy demand IT rooms in buildings or small edge data centres</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D4-07</t>
+          <t>HORIZON-CL5-2027-05-D4-06</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
@@ -3903,18 +3727,18 @@
         <v>46645</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>6750000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>On-site robotic and automated techniques for building renovation and new construction</t>
+          <t>Demonstration for Long-duration Battery Energy Storage Systems (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D4-05</t>
+          <t>HORIZON-CL5-2027-05-D2-08</t>
         </is>
       </c>
       <c r="C73" s="3" t="n">
@@ -3924,18 +3748,18 @@
         <v>46645</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>6750000</v>
+        <v>9400000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Strengthening rural communities' resilience to shocks</t>
+          <t>Towards commercialization of food systems microbiome solutions</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-COMMUNITIES-01</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-07</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
@@ -3945,18 +3769,18 @@
         <v>46653</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>Empowering local urban food systems entrepreneurship and innovation</t>
+          <t>Enhancing farmer's profitability and resilience through innovations for diversified crops and value chains</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-COMMUNITIES-02</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-05</t>
         </is>
       </c>
       <c r="C75" s="3" t="n">
@@ -3972,12 +3796,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>Increasing mitigation of GHG emissions and feed efficiency through feed additives</t>
+          <t>Unlocking a safe operating space for Antarctica and the Southern Ocean</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-02</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-04</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
@@ -3987,18 +3811,18 @@
         <v>46653</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>6000000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>African Union – European Union Partnership on Food and Nutrition Security and Sustainable Agriculture (FNSSA)</t>
+          <t>Carbon farming innovation and scale-up</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-09</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-03</t>
         </is>
       </c>
       <c r="C77" s="3" t="n">
@@ -4008,18 +3832,18 @@
         <v>46653</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>6750000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Microbiome for terrestrial livestock sustainability and health within a One Health approach</t>
+          <t>Strengthening evidence-based policies for the resilience of European agriculture and forestry and related supply chains against crises and systemic risks</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-03</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-02</t>
         </is>
       </c>
       <c r="C78" s="3" t="n">
@@ -4029,18 +3853,18 @@
         <v>46653</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>Increasing the resilience of agriculture in water and nutrient-scarce environments through digital innovations</t>
+          <t>AI-powered foodome characterization</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-01</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-08</t>
         </is>
       </c>
       <c r="C79" s="3" t="n">
@@ -4050,18 +3874,18 @@
         <v>46653</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>6000000</v>
+        <v>7800000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>Governance, sustainable development and international politics of a future ice-free Arctic</t>
+          <t>Unleashing the potential of sustainable small-scale aquatic food production and recreational fisheries for prosperous local communities</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-01</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-06</t>
         </is>
       </c>
       <c r="C80" s="3" t="n">
@@ -4071,18 +3895,18 @@
         <v>46653</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>Improving understanding of the contribution of the organic farming sector to sustainability</t>
+          <t>Governance, sustainable development and international politics of a future ice-free Arctic</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-04</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-01</t>
         </is>
       </c>
       <c r="C81" s="3" t="n">
@@ -4092,18 +3916,18 @@
         <v>46653</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>AI-powered foodome characterization</t>
+          <t>Improving understanding of the contribution of the organic farming sector to sustainability</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-08</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-04</t>
         </is>
       </c>
       <c r="C82" s="3" t="n">
@@ -4113,18 +3937,18 @@
         <v>46653</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>7800000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>Unleashing the potential of sustainable small-scale aquatic food production and recreational fisheries for prosperous local communities</t>
+          <t>Increasing the resilience of agriculture in water and nutrient-scarce environments through digital innovations</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-06</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-01</t>
         </is>
       </c>
       <c r="C83" s="3" t="n">
@@ -4134,18 +3958,18 @@
         <v>46653</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Towards commercialization of food systems microbiome solutions</t>
+          <t>Strengthening rural communities' resilience to shocks</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-07</t>
+          <t>HORIZON-CL6-2027-02-COMMUNITIES-01</t>
         </is>
       </c>
       <c r="C84" s="3" t="n">
@@ -4155,18 +3979,18 @@
         <v>46653</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>Enhancing farmer's profitability and resilience through innovations for diversified crops and value chains</t>
+          <t>Empowering local urban food systems entrepreneurship and innovation</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-05</t>
+          <t>HORIZON-CL6-2027-02-COMMUNITIES-02</t>
         </is>
       </c>
       <c r="C85" s="3" t="n">
@@ -4182,12 +4006,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>Unlocking a safe operating space for Antarctica and the Southern Ocean</t>
+          <t>Increasing mitigation of GHG emissions and feed efficiency through feed additives</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-04</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-02</t>
         </is>
       </c>
       <c r="C86" s="3" t="n">
@@ -4197,18 +4021,18 @@
         <v>46653</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>11000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>Carbon farming innovation and scale-up</t>
+          <t>African Union – European Union Partnership on Food and Nutrition Security and Sustainable Agriculture (FNSSA)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-03</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-09</t>
         </is>
       </c>
       <c r="C87" s="3" t="n">
@@ -4218,18 +4042,18 @@
         <v>46653</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>6000000</v>
+        <v>6750000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Strengthening evidence-based policies for the resilience of European agriculture and forestry and related supply chains against crises and systemic risks</t>
+          <t>Microbiome for terrestrial livestock sustainability and health within a One Health approach</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-02</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-03</t>
         </is>
       </c>
       <c r="C88" s="3" t="n">
@@ -4239,18 +4063,18 @@
         <v>46653</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Increasing the circularity of bio-based sector: upcycling and recycling for higher value and environmental benefits</t>
+          <t>Enhancing the competitiveness of organic crop breeding: focus on intercropping adapted varieties</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-09</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-09</t>
         </is>
       </c>
       <c r="C89" s="3" t="n">
@@ -4266,12 +4090,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Accelerating the transition to a nature positive economy: Integrating biodiversity into the private sector</t>
+          <t>Increasing the circularity of bio-based sector: upcycling and recycling for higher value and environmental benefits</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-09</t>
         </is>
       </c>
       <c r="C90" s="3" t="n">
@@ -4281,18 +4105,18 @@
         <v>46652</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Living Labs for the eradication and/or management of invasive alien species</t>
+          <t>Innovative circular solutions for end-of-life footwear through collection, sorting and recycling</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-04</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-05</t>
         </is>
       </c>
       <c r="C91" s="3" t="n">
@@ -4302,18 +4126,18 @@
         <v>46652</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>Replacing hazardous substances in biocidal products</t>
+          <t>Biotechnology application for CCU</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-01</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-08</t>
         </is>
       </c>
       <c r="C92" s="3" t="n">
@@ -4323,18 +4147,18 @@
         <v>46652</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>Science-policy support to the implementation of EU and global biodiversity policies and strategies</t>
+          <t>Accelerating the transition to a nature positive economy: Integrating biodiversity into the private sector</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-02</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
         </is>
       </c>
       <c r="C93" s="3" t="n">
@@ -4350,12 +4174,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Strengthening forest research for the support of Ukraine</t>
+          <t>Living Labs for the eradication and/or management of invasive alien species</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-10</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-04</t>
         </is>
       </c>
       <c r="C94" s="3" t="n">
@@ -4365,18 +4189,18 @@
         <v>46652</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>Improve the capacity to monitor and reduce air pollution from agriculture</t>
+          <t>Replacing hazardous substances in biocidal products</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-03</t>
+          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-01</t>
         </is>
       </c>
       <c r="C95" s="3" t="n">
@@ -4386,18 +4210,18 @@
         <v>46652</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Developing effective air quality planning strategies through innovative multi-scale modelling</t>
+          <t>Science-policy support to the implementation of EU and global biodiversity policies and strategies</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-02</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-02</t>
         </is>
       </c>
       <c r="C96" s="3" t="n">
@@ -4407,18 +4231,18 @@
         <v>46652</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>4900000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Living labs driving transformative change via knowledge integration and inclusive governance</t>
+          <t>Enhancing ecodesign and circularity of construction products</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-06</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-02</t>
         </is>
       </c>
       <c r="C97" s="3" t="n">
@@ -4428,18 +4252,18 @@
         <v>46652</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Fostering common farmland birds and mammals for resilient food production systems</t>
+          <t>Technical innovation to protect ecosystems and to scale up their restoration</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-08</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-03</t>
         </is>
       </c>
       <c r="C98" s="3" t="n">
@@ -4449,18 +4273,18 @@
         <v>46652</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Enhancing the competitiveness of organic crop breeding: focus on intercropping adapted varieties</t>
+          <t>Strengthening forest research for the support of Ukraine</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-09</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-10</t>
         </is>
       </c>
       <c r="C99" s="3" t="n">
@@ -4476,12 +4300,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>Innovative circular solutions for end-of-life footwear through collection, sorting and recycling</t>
+          <t>Improve the capacity to monitor and reduce air pollution from agriculture</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-05</t>
+          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-03</t>
         </is>
       </c>
       <c r="C100" s="3" t="n">
@@ -4491,18 +4315,18 @@
         <v>46652</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>Towards a Europe of Bioeconomy Places</t>
+          <t>Developing effective air quality planning strategies through innovative multi-scale modelling</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-06</t>
+          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="C101" s="3" t="n">
@@ -4512,18 +4336,18 @@
         <v>46652</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>6000000</v>
+        <v>4900000</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>Health of ecosystems and wild species, predictions and impacts on human health, in the face of existing and emerging stressors, from a One Health approach</t>
+          <t>Enhancing ecodesign and circularity of consumer electronics</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-07</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-01</t>
         </is>
       </c>
       <c r="C102" s="3" t="n">
@@ -4533,18 +4357,18 @@
         <v>46652</v>
       </c>
       <c r="E102" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>Living labs driving transformative change via knowledge integration and inclusive governance</t>
+          <t>Developing novel recycling technologies for complex plastic materials applying biotech solutions</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-06</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-03</t>
         </is>
       </c>
       <c r="C103" s="3" t="n">
@@ -4554,18 +4378,18 @@
         <v>46652</v>
       </c>
       <c r="E103" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>Capacity building for extending product lifecycles through repair and refurbishment</t>
+          <t>Biotechnology application for CCU</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-04</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-08</t>
         </is>
       </c>
       <c r="C104" s="3" t="n">
@@ -4575,18 +4399,18 @@
         <v>46652</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>Towards a Europe of Bioeconomy Places</t>
+          <t>Enhancing ecodesign and circularity of construction products</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-06</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-02</t>
         </is>
       </c>
       <c r="C105" s="3" t="n">
@@ -4596,18 +4420,18 @@
         <v>46652</v>
       </c>
       <c r="E105" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>Enhancing ecodesign and circularity of consumer electronics</t>
+          <t>Technical innovation to protect ecosystems and to scale up their restoration</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-01</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-03</t>
         </is>
       </c>
       <c r="C106" s="3" t="n">
@@ -4617,18 +4441,18 @@
         <v>46652</v>
       </c>
       <c r="E106" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>Developing novel recycling technologies for complex plastic materials applying biotech solutions</t>
+          <t>Europe-wide environmental benchmarking system of the industrial bioeconomy sectors</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-03</t>
+          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-04</t>
         </is>
       </c>
       <c r="C107" s="3" t="n">
@@ -4638,18 +4462,18 @@
         <v>46652</v>
       </c>
       <c r="E107" s="4" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>Europe-wide environmental benchmarking system of the industrial bioeconomy sectors</t>
+          <t>Improving biomass flows for a sustainable and circular bioeconomy</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-04</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-07</t>
         </is>
       </c>
       <c r="C108" s="3" t="n">
@@ -4659,18 +4483,18 @@
         <v>46652</v>
       </c>
       <c r="E108" s="4" t="n">
-        <v>3000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>Improving biomass flows for a sustainable and circular bioeconomy</t>
+          <t>Health of ecosystems and wild species, predictions and impacts on human health, in the face of existing and emerging stressors, from a One Health approach</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-07</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-07</t>
         </is>
       </c>
       <c r="C109" s="3" t="n">
@@ -4707,12 +4531,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>Fostering common farmland birds and mammals for resilient food production systems</t>
+          <t>Capacity building for extending product lifecycles through repair and refurbishment</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-08</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-04</t>
         </is>
       </c>
       <c r="C111" s="3" t="n">
@@ -4722,7 +4546,7 @@
         <v>46652</v>
       </c>
       <c r="E111" s="4" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="112">
@@ -4893,12 +4717,12 @@
     <row r="120">
       <c r="A120" s="2" t="inlineStr">
         <is>
-          <t>Digital enablers and building blocks for collaborative Earth Observation and Satellite telecommunications for Space solutions (Space Partnership)</t>
+          <t>Digital solutions for autonomy for space transportation systems, design and simulation tools - Digital enablers and building blocks (Space Partnership)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-SPACE-03-33</t>
+          <t>HORIZON-CL4-2027-SPACE-03-12</t>
         </is>
       </c>
       <c r="C120" s="3" t="n">
@@ -4908,18 +4732,18 @@
         <v>46632</v>
       </c>
       <c r="E120" s="4" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>Digital solutions for autonomy for space transportation systems, design and simulation tools - Digital enablers and building blocks (Space Partnership)</t>
+          <t>ISOS4I Pilot Mission Integrated Ground Test and consolidation of space-compatible USI solutions</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-SPACE-03-12</t>
+          <t>HORIZON-CL4-2027-SPACE-03-21</t>
         </is>
       </c>
       <c r="C121" s="3" t="n">
@@ -4929,18 +4753,18 @@
         <v>46632</v>
       </c>
       <c r="E121" s="4" t="n">
-        <v>2000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>ISOS4I Pilot Mission Integrated Ground Test and consolidation of space-compatible USI solutions</t>
+          <t>Digital enablers and building blocks for collaborative Earth Observation and Satellite telecommunications for Space solutions (Space Partnership)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-SPACE-03-21</t>
+          <t>HORIZON-CL4-2027-SPACE-03-33</t>
         </is>
       </c>
       <c r="C122" s="3" t="n">
@@ -4950,7 +4774,7 @@
         <v>46632</v>
       </c>
       <c r="E122" s="4" t="n">
-        <v>800000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="123">
@@ -4977,12 +4801,12 @@
     <row r="124">
       <c r="A124" s="2" t="inlineStr">
         <is>
-          <t>Secure Computing Continuum (IoT, Edge, Cloud, Data spaces)</t>
+          <t>New primitives and protocols for functionalities of future hybrid classical-hybrid and quantum networks</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-02-CS-ECCC-02</t>
+          <t>HORIZON-CL3-2027-02-CS-ECCC-04</t>
         </is>
       </c>
       <c r="C124" s="3" t="n">
@@ -4992,18 +4816,18 @@
         <v>46645</v>
       </c>
       <c r="E124" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
         <is>
-          <t>New primitives and protocols for functionalities of future hybrid classical-hybrid and quantum networks</t>
+          <t>Secure Computing Continuum (IoT, Edge, Cloud, Data spaces)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-02-CS-ECCC-04</t>
+          <t>HORIZON-CL3-2027-02-CS-ECCC-02</t>
         </is>
       </c>
       <c r="C125" s="3" t="n">
@@ -5013,7 +4837,7 @@
         <v>46645</v>
       </c>
       <c r="E125" s="4" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="126">
@@ -5124,12 +4948,12 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>Clinical trials for advancing innovative interventions for neurodegenerative diseases</t>
+          <t>Development of predictive biomarkers of disease progression and treatment response by using AI methodologies for chronic non-communicable diseases</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-02-DISEASE-14-two-stage</t>
+          <t>HORIZON-HLTH-2027-02-TOOL-01-two-stage</t>
         </is>
       </c>
       <c r="C131" s="3" t="n">
@@ -5139,18 +4963,18 @@
         <v>46652</v>
       </c>
       <c r="E131" s="4" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>Development of predictive biomarkers of disease progression and treatment response by using AI methodologies for chronic non-communicable diseases</t>
+          <t>Innovative healthcare interventions for non-communicable diseases</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-02-TOOL-01-two-stage</t>
+          <t>HORIZON-HLTH-2027-02-DISEASE-01-two-stage</t>
         </is>
       </c>
       <c r="C132" s="3" t="n">
@@ -5160,18 +4984,18 @@
         <v>46652</v>
       </c>
       <c r="E132" s="4" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>Innovative healthcare interventions for non-communicable diseases</t>
+          <t>Portable and versatile Point-of-care diagnostics</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-02-DISEASE-01-two-stage</t>
+          <t>HORIZON-HLTH-2027-02-IND-02-two-stage</t>
         </is>
       </c>
       <c r="C133" s="3" t="n">
@@ -5181,18 +5005,18 @@
         <v>46652</v>
       </c>
       <c r="E133" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>Portable and versatile Point-of-care diagnostics</t>
+          <t>Clinical trials for advancing innovative interventions for neurodegenerative diseases</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-02-IND-02-two-stage</t>
+          <t>HORIZON-HLTH-2027-02-DISEASE-14-two-stage</t>
         </is>
       </c>
       <c r="C134" s="3" t="n">
@@ -5202,7 +5026,7 @@
         <v>46652</v>
       </c>
       <c r="E134" s="4" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="135">
@@ -5229,12 +5053,12 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>Development of innovative antimicrobials against pathogens resistant to antimicrobials</t>
+          <t>Development of monoclonal antibodies to prevent and treat infections from Flaviviruses</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-01-DISEASE-08</t>
+          <t>HORIZON-HLTH-2027-01-DISEASE-06</t>
         </is>
       </c>
       <c r="C136" s="3" t="n">
@@ -5244,18 +5068,18 @@
         <v>46490</v>
       </c>
       <c r="E136" s="4" t="n">
-        <v>8000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>Tools and technologies to support health adaptation to climate change</t>
+          <t>Development of innovative antimicrobials against pathogens resistant to antimicrobials</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-01-ENVHLTH-MISSCLIMA-03</t>
+          <t>HORIZON-HLTH-2027-01-DISEASE-08</t>
         </is>
       </c>
       <c r="C137" s="3" t="n">
@@ -5265,18 +5089,18 @@
         <v>46490</v>
       </c>
       <c r="E137" s="4" t="n">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>Personalised approaches to reduce risks from Adverse Drug Reactions due to administration of multiple medications</t>
+          <t>Tools and technologies to support health adaptation to climate change</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-01-CARE-02</t>
+          <t>HORIZON-HLTH-2027-01-ENVHLTH-MISSCLIMA-03</t>
         </is>
       </c>
       <c r="C138" s="3" t="n">
@@ -5286,18 +5110,18 @@
         <v>46490</v>
       </c>
       <c r="E138" s="4" t="n">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>Development of novel small molecule antiviral therapeutics for pathogens with epidemic potential</t>
+          <t>Personalised approaches to reduce risks from Adverse Drug Reactions due to administration of multiple medications</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-01-DISEASE-05</t>
+          <t>HORIZON-HLTH-2027-01-CARE-02</t>
         </is>
       </c>
       <c r="C139" s="3" t="n">
@@ -5307,18 +5131,18 @@
         <v>46490</v>
       </c>
       <c r="E139" s="4" t="n">
-        <v>9000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>Development of monoclonal antibodies to prevent and treat infections from Filo-, Nairo-, Phenui-, Picorna- and Toga viruses</t>
+          <t>Development of novel small molecule antiviral therapeutics for pathogens with epidemic potential</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-01-DISEASE-07</t>
+          <t>HORIZON-HLTH-2027-01-DISEASE-05</t>
         </is>
       </c>
       <c r="C140" s="3" t="n">
@@ -5334,12 +5158,12 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>Prevention and management of chronic non-communicable diseases in children and young people (GACD)</t>
+          <t>Development of monoclonal antibodies to prevent and treat infections from Filo-, Nairo-, Phenui-, Picorna- and Toga viruses</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-01-DISEASE-10</t>
+          <t>HORIZON-HLTH-2027-01-DISEASE-07</t>
         </is>
       </c>
       <c r="C141" s="3" t="n">
@@ -5349,18 +5173,18 @@
         <v>46490</v>
       </c>
       <c r="E141" s="4" t="n">
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>Development of monoclonal antibodies to prevent and treat infections from Flaviviruses</t>
+          <t>Prevention and management of chronic non-communicable diseases in children and young people (GACD)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2027-01-DISEASE-06</t>
+          <t>HORIZON-HLTH-2027-01-DISEASE-10</t>
         </is>
       </c>
       <c r="C142" s="3" t="n">
@@ -5370,7 +5194,7 @@
         <v>46490</v>
       </c>
       <c r="E142" s="4" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="143">
@@ -5523,33 +5347,33 @@
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>Living labs to monitor and mitigate carcinogenic substances in and originating from soils: Evaluating their effects on human cancer risks</t>
+          <t>Innovative biotechnologies to restore soil health and improve agricultural competitiveness and resilience</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-06-SOIL-CANCER</t>
+          <t>HORIZON-MISS-2027-05-SOIL-05-two-stage</t>
         </is>
       </c>
       <c r="C150" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D150" s="3" t="n">
-        <v>46651</v>
+        <v>46644</v>
       </c>
       <c r="E150" s="4" t="n">
-        <v>12000000</v>
+        <v>6400000</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>Participatory research on the health of communities in contact with polluted soils</t>
+          <t>Living labs to enhance soil health in Continental, Black Sea, Pannonian and Steppic biogeographical regions</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-04-two-stage</t>
+          <t>HORIZON-MISS-2027-05-SOIL-01-two-stage</t>
         </is>
       </c>
       <c r="C151" s="3" t="n">
@@ -5559,39 +5383,39 @@
         <v>46644</v>
       </c>
       <c r="E151" s="4" t="n">
-        <v>5500000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
         <is>
-          <t>Innovative biotechnologies to restore soil health and improve agricultural competitiveness and resilience</t>
+          <t>Living labs to monitor and mitigate carcinogenic substances in and originating from soils: Evaluating their effects on human cancer risks</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-05-two-stage</t>
+          <t>HORIZON-MISS-2027-06-SOIL-CANCER</t>
         </is>
       </c>
       <c r="C152" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D152" s="3" t="n">
-        <v>46644</v>
+        <v>46651</v>
       </c>
       <c r="E152" s="4" t="n">
-        <v>6400000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="inlineStr">
         <is>
-          <t>Living labs to enhance soil health in Continental, Black Sea, Pannonian and Steppic biogeographical regions</t>
+          <t>Participatory research on the health of communities in contact with polluted soils</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2027-05-SOIL-01-two-stage</t>
+          <t>HORIZON-MISS-2027-05-SOIL-04-two-stage</t>
         </is>
       </c>
       <c r="C153" s="3" t="n">
@@ -5601,7 +5425,7 @@
         <v>46644</v>
       </c>
       <c r="E153" s="4" t="n">
-        <v>12000000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="154">
@@ -5670,40 +5494,40 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>Deploying circular systemic solutions through living labs in cities and regions (Circular Cities and Regions Initiative topic)</t>
+          <t>Optimising the water-nutrient-energy nexus for sustainable and climate smart agriculture in Africa (FNSSA)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-02-two-stage</t>
         </is>
       </c>
       <c r="C157" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>46646</v>
+        <v>46644</v>
       </c>
       <c r="E157" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>Optimising the water-nutrient-energy nexus for sustainable and climate smart agriculture in Africa (FNSSA)</t>
+          <t>Improving analytical capacity for sustainable competitiveness of the agricultural sector</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-02-two-stage</t>
+          <t>HORIZON-CL6-2027-03-GOVERNANCE-02</t>
         </is>
       </c>
       <c r="C158" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D158" s="3" t="n">
-        <v>46644</v>
+        <v>46518</v>
       </c>
       <c r="E158" s="4" t="n">
         <v>6000000</v>
@@ -5712,33 +5536,33 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Innovative solutions for the European Water Resilience Strategy</t>
+          <t>Increasing knowledge flows to practice within AKIS via EU thematic knowledge hubs</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
+          <t>HORIZON-CL6-2027-03-GOVERNANCE-05</t>
         </is>
       </c>
       <c r="C159" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D159" s="3" t="n">
-        <v>46644</v>
+        <v>46518</v>
       </c>
       <c r="E159" s="4" t="n">
-        <v>5500000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>Improving analytical capacity for sustainable competitiveness of the agricultural sector</t>
+          <t>Fostering generational renewal in agriculture via EU advisory network</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-03-GOVERNANCE-02</t>
+          <t>HORIZON-CL6-2027-03-GOVERNANCE-06</t>
         </is>
       </c>
       <c r="C160" s="3" t="n">
@@ -5748,18 +5572,18 @@
         <v>46518</v>
       </c>
       <c r="E160" s="4" t="n">
-        <v>6000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>Increasing knowledge flows to practice within AKIS via EU thematic knowledge hubs</t>
+          <t>Strengthening strategic advice and synergies between EU and national Research and Innovation agendas and investments</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-03-GOVERNANCE-05</t>
+          <t>HORIZON-CL6-2027-03-GOVERNANCE-07</t>
         </is>
       </c>
       <c r="C161" s="3" t="n">
@@ -5769,49 +5593,49 @@
         <v>46518</v>
       </c>
       <c r="E161" s="4" t="n">
-        <v>3500000</v>
+        <v>4750000</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>Fostering generational renewal in agriculture via EU advisory network</t>
+          <t>Deploying circular systemic solutions through living labs in cities and regions (Circular Cities and Regions Initiative topic)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-03-GOVERNANCE-06</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-01-two-stage</t>
         </is>
       </c>
       <c r="C162" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D162" s="3" t="n">
-        <v>46518</v>
+        <v>46646</v>
       </c>
       <c r="E162" s="4" t="n">
-        <v>4500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>Strengthening strategic advice and synergies between EU and national Research and Innovation agendas and investments</t>
+          <t>Open topic: Using the Circular Cities and Regions Initiative to strengthen urban manufacturing in support of the Clean Industrial Deal</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-03-GOVERNANCE-07</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
         </is>
       </c>
       <c r="C163" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D163" s="3" t="n">
-        <v>46518</v>
+        <v>46646</v>
       </c>
       <c r="E163" s="4" t="n">
-        <v>4750000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="164">
@@ -5859,22 +5683,22 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>International dimension of the circular bio-based economy: seeking win-win opportunities</t>
+          <t>Open topic: Innovative solutions for the European Water Resilience Strategy</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-03-GOVERNANCE-03</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-01-two-stage</t>
         </is>
       </c>
       <c r="C166" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D166" s="3" t="n">
-        <v>46518</v>
+        <v>46644</v>
       </c>
       <c r="E166" s="4" t="n">
-        <v>3000000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="167">
@@ -5901,33 +5725,33 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Using the Circular Cities and Regions Initiative to strengthen urban manufacturing in support of the Clean Industrial Deal</t>
+          <t>International dimension of the circular bio-based economy: seeking win-win opportunities</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-02-two-stage</t>
+          <t>HORIZON-CL6-2027-03-GOVERNANCE-03</t>
         </is>
       </c>
       <c r="C168" s="3" t="n">
         <v>46422</v>
       </c>
       <c r="D168" s="3" t="n">
-        <v>46646</v>
+        <v>46518</v>
       </c>
       <c r="E168" s="4" t="n">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="inlineStr">
         <is>
-          <t>R&amp;I in Support of the Clean Industrial Deal: Decarbonisation of energy intensive industries (IA) (Processes4Planet and Clean Steel partnerships)</t>
+          <t>R&amp;I in Support of the Clean Industrial Deal: Clean Technologies for Climate Action</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>HORIZON-CID-2027-01-01</t>
+          <t>HORIZON-CID-2027-01-02</t>
         </is>
       </c>
       <c r="C169" s="3" t="n">
@@ -5943,12 +5767,12 @@
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>R&amp;I in Support of the Clean Industrial Deal: Clean Technologies for Climate Action</t>
+          <t>R&amp;I in Support of the Clean Industrial Deal: Decarbonisation of energy intensive industries (IA) (Processes4Planet and Clean Steel partnerships)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>HORIZON-CID-2027-01-02</t>
+          <t>HORIZON-CID-2027-01-01</t>
         </is>
       </c>
       <c r="C170" s="3" t="n">
@@ -5985,12 +5809,12 @@
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
         <is>
-          <t>Onboard renewable energy solutions and energy saving measures to reduce the fuel consumption of ships by at least 55% (ZEWT Partnership)</t>
+          <t>Assessing the effect of airport operations on air quality and noise in nearby communities</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-03-D5-14</t>
+          <t>HORIZON-CL5-2027-03-D5-20</t>
         </is>
       </c>
       <c r="C172" s="3" t="n">
@@ -6000,28 +5824,28 @@
         <v>46491</v>
       </c>
       <c r="E172" s="4" t="n">
-        <v>6500000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="inlineStr">
         <is>
-          <t>Novel approaches towards next-generation battery concepts, leveraging the enabling role of innovative advanced materials (BATT4EU and IAM4EU Partnerships)</t>
+          <t>Onboard renewable energy solutions and energy saving measures to reduce the fuel consumption of ships by at least 55% (ZEWT Partnership)</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-04-Two-Stage-D2-07</t>
+          <t>HORIZON-CL5-2027-03-D5-14</t>
         </is>
       </c>
       <c r="C173" s="3" t="n">
         <v>46371</v>
       </c>
       <c r="D173" s="3" t="n">
-        <v>46667</v>
+        <v>46491</v>
       </c>
       <c r="E173" s="4" t="n">
-        <v>4800000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="174">
@@ -6132,12 +5956,12 @@
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>Assessing the effect of airport operations on air quality and noise in nearby communities</t>
+          <t>Higher Voltage, Megawatt Charging System compatible, modular powertrain for Heavy Duty Vehicles (HDV) (2ZERO Partnership)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-03-D5-20</t>
+          <t>HORIZON-CL5-2027-03-D5-05</t>
         </is>
       </c>
       <c r="C179" s="3" t="n">
@@ -6147,18 +5971,18 @@
         <v>46491</v>
       </c>
       <c r="E179" s="4" t="n">
-        <v>3500000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
         <is>
-          <t>Higher Voltage, Megawatt Charging System compatible, modular powertrain for Heavy Duty Vehicles (HDV) (2ZERO Partnership)</t>
+          <t>Data-driven circular economy for e-mobility ecosystem (2ZERO Partnership)</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-03-D5-05</t>
+          <t>HORIZON-CL5-2027-03-D5-03</t>
         </is>
       </c>
       <c r="C180" s="3" t="n">
@@ -6168,18 +5992,18 @@
         <v>46491</v>
       </c>
       <c r="E180" s="4" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>Data-driven circular economy for e-mobility ecosystem (2ZERO Partnership)</t>
+          <t>Demonstration of zero emission coaches and buses in long distance operations (2ZERO Partnership)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-03-D5-03</t>
+          <t>HORIZON-CL5-2027-03-D5-04</t>
         </is>
       </c>
       <c r="C181" s="3" t="n">
@@ -6189,18 +6013,18 @@
         <v>46491</v>
       </c>
       <c r="E181" s="4" t="n">
-        <v>5000000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>Demonstration of zero emission coaches and buses in long distance operations (2ZERO Partnership)</t>
+          <t>Sustainable aircraft circular design and additive manufacturing, towards a climate neutral aviation</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-03-D5-04</t>
+          <t>HORIZON-CL5-2027-03-D5-08</t>
         </is>
       </c>
       <c r="C182" s="3" t="n">
@@ -6210,28 +6034,28 @@
         <v>46491</v>
       </c>
       <c r="E182" s="4" t="n">
-        <v>13500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>Sustainable aircraft circular design and additive manufacturing, towards a climate neutral aviation</t>
+          <t>Novel approaches towards next-generation battery concepts, leveraging the enabling role of innovative advanced materials (BATT4EU and IAM4EU Partnerships)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-03-D5-08</t>
+          <t>HORIZON-CL5-2027-04-Two-Stage-D2-07</t>
         </is>
       </c>
       <c r="C183" s="3" t="n">
         <v>46371</v>
       </c>
       <c r="D183" s="3" t="n">
-        <v>46491</v>
+        <v>46667</v>
       </c>
       <c r="E183" s="4" t="n">
-        <v>2500000</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="184">
@@ -6258,12 +6082,12 @@
     <row r="185">
       <c r="A185" s="2" t="inlineStr">
         <is>
-          <t>Improvement of Adaptability, Flexibility and Efficiency of Existing Recycling Processes (BATT4EU Partnership)</t>
+          <t>Support to the implementation of an EU policy framework for CO2 transport and storage infrastructure</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D2-05</t>
+          <t>HORIZON-CL5-2027-02-D3-31</t>
         </is>
       </c>
       <c r="C185" s="3" t="n">
@@ -6273,18 +6097,18 @@
         <v>46477</v>
       </c>
       <c r="E185" s="4" t="n">
-        <v>9400000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
         <is>
-          <t>Co-funding Strategic Energy Technology (SET) Plan renewable fuel value chains at EU, national, regional, and local level</t>
+          <t>Advancements in Direct Air Capture</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-08</t>
+          <t>HORIZON-CL5-2027-02-D3-30</t>
         </is>
       </c>
       <c r="C186" s="3" t="n">
@@ -6294,18 +6118,18 @@
         <v>46477</v>
       </c>
       <c r="E186" s="4" t="n">
-        <v>30000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>Innovative technologies and solutions to improve wave and tidal energy systems</t>
+          <t>Sustainable and Competitive Cell Production Techniques for Lithium-ion And Sodium-ion Batteries (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-09</t>
+          <t>HORIZON-CL5-2027-02-D2-06</t>
         </is>
       </c>
       <c r="C187" s="3" t="n">
@@ -6315,18 +6139,18 @@
         <v>46477</v>
       </c>
       <c r="E187" s="4" t="n">
-        <v>43000000</v>
+        <v>18900000</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="inlineStr">
         <is>
-          <t>Support to the implementation of an EU policy framework for CO2 transport and storage infrastructure</t>
+          <t>Large scale operational validation and upscaling of state-of-the-art (Generative) AI tools and models powering a next generation digital energy system</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-31</t>
+          <t>HORIZON-CL5-2027-02-D3-24</t>
         </is>
       </c>
       <c r="C188" s="3" t="n">
@@ -6336,18 +6160,18 @@
         <v>46477</v>
       </c>
       <c r="E188" s="4" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="inlineStr">
         <is>
-          <t>Advancements in Direct Air Capture</t>
+          <t>Renewable Energy Valleys in Africa to increase energy security and energy access in Africa</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-30</t>
+          <t>HORIZON-CL5-2027-02-D3-10</t>
         </is>
       </c>
       <c r="C189" s="3" t="n">
@@ -6357,18 +6181,18 @@
         <v>46477</v>
       </c>
       <c r="E189" s="4" t="n">
-        <v>8000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>Sustainable and Competitive Cell Production Techniques for Lithium-ion And Sodium-ion Batteries (BATT4EU Partnership)</t>
+          <t>Improvement of Adaptability, Flexibility and Efficiency of Existing Recycling Processes (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D2-06</t>
+          <t>HORIZON-CL5-2027-02-D2-05</t>
         </is>
       </c>
       <c r="C190" s="3" t="n">
@@ -6378,18 +6202,18 @@
         <v>46477</v>
       </c>
       <c r="E190" s="4" t="n">
-        <v>18900000</v>
+        <v>9400000</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>Large scale operational validation and upscaling of state-of-the-art (Generative) AI tools and models powering a next generation digital energy system</t>
+          <t>Co-funding Strategic Energy Technology (SET) Plan renewable fuel value chains at EU, national, regional, and local level</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-24</t>
+          <t>HORIZON-CL5-2027-02-D3-08</t>
         </is>
       </c>
       <c r="C191" s="3" t="n">
@@ -6399,18 +6223,18 @@
         <v>46477</v>
       </c>
       <c r="E191" s="4" t="n">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>Renewable Energy Valleys in Africa to increase energy security and energy access in Africa</t>
+          <t>Concentrated solar thermal systems for decarbonising industrial processes</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-10</t>
+          <t>HORIZON-CL5-2027-02-D3-07</t>
         </is>
       </c>
       <c r="C192" s="3" t="n">
@@ -6420,18 +6244,18 @@
         <v>46477</v>
       </c>
       <c r="E192" s="4" t="n">
-        <v>4500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>Concentrated solar thermal systems for decarbonising industrial processes</t>
+          <t>Innovative technologies and solutions to improve wave and tidal energy systems</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-07</t>
+          <t>HORIZON-CL5-2027-02-D3-09</t>
         </is>
       </c>
       <c r="C193" s="3" t="n">
@@ -6441,7 +6265,7 @@
         <v>46477</v>
       </c>
       <c r="E193" s="4" t="n">
-        <v>6000000</v>
+        <v>43000000</v>
       </c>
     </row>
     <row r="194">
@@ -6573,12 +6397,12 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
         <is>
-          <t>Create a thriving and competitive Virtual Worlds and Web 4.0 ecosystem (CSA) (Virtual Worlds Partnership)</t>
+          <t>Energy efficiency and sustainability of AI data processing in Data Centres (IA)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-HUMAN-02</t>
+          <t>HORIZON-CL4-2027-04-DATA-09</t>
         </is>
       </c>
       <c r="C200" s="3" t="n">
@@ -6588,18 +6412,18 @@
         <v>46464</v>
       </c>
       <c r="E200" s="4" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>Energy efficiency and sustainability of AI data processing in Data Centres (IA)</t>
+          <t>Create a thriving and competitive Virtual Worlds and Web 4.0 ecosystem (CSA) (Virtual Worlds Partnership)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-DATA-09</t>
+          <t>HORIZON-CL4-2027-04-HUMAN-02</t>
         </is>
       </c>
       <c r="C201" s="3" t="n">
@@ -6609,7 +6433,7 @@
         <v>46464</v>
       </c>
       <c r="E201" s="4" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="202">
@@ -7653,12 +7477,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>Government in transition – how governments change the way they work and prepare the civil service for the future</t>
+          <t>Research and Innovation Network for a Union of Equality</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-03</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-05</t>
         </is>
       </c>
       <c r="C252" s="3" t="n">
@@ -7668,18 +7492,18 @@
         <v>46288</v>
       </c>
       <c r="E252" s="4" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>Creative alliances: Fostering global partnerships in cultural policies and CCI innovation</t>
+          <t>Supporting post-conflict democracy and reconstruction</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-05</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-07</t>
         </is>
       </c>
       <c r="C253" s="3" t="n">
@@ -7689,18 +7513,18 @@
         <v>46288</v>
       </c>
       <c r="E253" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>“Artistic intelligence” : harnessing the power of the arts to address complex challenges, enhance soft skills and boost innovation and competitiveness</t>
+          <t>Understanding the forms of local democracy in low-income and low-middle income countries</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-01</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-02</t>
         </is>
       </c>
       <c r="C254" s="3" t="n">
@@ -7710,18 +7534,18 @@
         <v>46288</v>
       </c>
       <c r="E254" s="4" t="n">
-        <v>4500000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>Contribution of basic skills to productivity, innovation, competitiveness and economic growth</t>
+          <t>Tackling child poverty and ensuring disadvantaged children's access to Early Childhood Education and Care</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-05</t>
+          <t>HORIZON-CL2-2026-01-TRANSFO-03</t>
         </is>
       </c>
       <c r="C255" s="3" t="n">
@@ -7737,12 +7561,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>Towards a fair and transparent market for cultural and creative content in the era of generative AI</t>
+          <t>Preventing and fighting illicit trafficking of cultural goods</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-04</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-07</t>
         </is>
       </c>
       <c r="C256" s="3" t="n">
@@ -7752,18 +7576,18 @@
         <v>46288</v>
       </c>
       <c r="E256" s="4" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Strengthen Europe's social model and sustainable competitiveness through productivity</t>
+          <t>Tackling gender-based violence against politically active women and LGBTIQ people</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-02</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-01</t>
         </is>
       </c>
       <c r="C257" s="3" t="n">
@@ -7773,18 +7597,18 @@
         <v>46288</v>
       </c>
       <c r="E257" s="4" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>Electoral integrity in the digital context</t>
+          <t>Rethinking long-term care policy in the face of EU demographic shifts</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-08</t>
+          <t>HORIZON-CL2-2026-01-TRANSFO-09</t>
         </is>
       </c>
       <c r="C258" s="3" t="n">
@@ -7794,18 +7618,18 @@
         <v>46288</v>
       </c>
       <c r="E258" s="4" t="n">
-        <v>3500000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>Research and Innovation Network for a Union of Equality</t>
+          <t>Boosting creative startups for disruptive innovation</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-05</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-02</t>
         </is>
       </c>
       <c r="C259" s="3" t="n">
@@ -7815,18 +7639,18 @@
         <v>46288</v>
       </c>
       <c r="E259" s="4" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>Supporting post-conflict democracy and reconstruction</t>
+          <t>AI integration in CCSI work practice: catalysing innovation and competitiveness</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-07</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-03</t>
         </is>
       </c>
       <c r="C260" s="3" t="n">
@@ -7836,18 +7660,18 @@
         <v>46288</v>
       </c>
       <c r="E260" s="4" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>Citizenship education as part of lifelong learning</t>
+          <t>Digital and media literacy as drivers for democratic and civic resilience</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-09</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-10</t>
         </is>
       </c>
       <c r="C261" s="3" t="n">
@@ -7863,12 +7687,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>AI integration in CCSI work practice: catalysing innovation and competitiveness</t>
+          <t>Sustainable paths to media viability</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-03</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-04</t>
         </is>
       </c>
       <c r="C262" s="3" t="n">
@@ -7878,18 +7702,18 @@
         <v>46288</v>
       </c>
       <c r="E262" s="4" t="n">
-        <v>4000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>Fostering cooperation and integration between SSH and STEM research and innovation in the EU</t>
+          <t>Citizenship education as part of lifelong learning</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-10</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-09</t>
         </is>
       </c>
       <c r="C263" s="3" t="n">
@@ -8073,12 +7897,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>Advanced border surveillance and situational awareness</t>
+          <t>Demand-led innovation in security</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-BM-01</t>
+          <t>HORIZON-CL3-2026-01-SSRI-02</t>
         </is>
       </c>
       <c r="C272" s="3" t="n">
@@ -8088,18 +7912,18 @@
         <v>46331</v>
       </c>
       <c r="E272" s="4" t="n">
-        <v>6000000</v>
+        <v>5830000</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>Designing new ways of risk awareness and enhanced disaster preparedness</t>
+          <t>Improving capabilities of law enforcement to counter climate-related challenges</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-DRS-01</t>
+          <t>HORIZON-CL3-2026-01-FCT-01</t>
         </is>
       </c>
       <c r="C273" s="3" t="n">
@@ -8109,18 +7933,18 @@
         <v>46331</v>
       </c>
       <c r="E273" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>Missing persons: prevention and investigation</t>
+          <t>Public procurement of innovation for security</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-03</t>
+          <t>HORIZON-CL3-2026-01-SSRI-03</t>
         </is>
       </c>
       <c r="C274" s="3" t="n">
@@ -8130,18 +7954,18 @@
         <v>46331</v>
       </c>
       <c r="E274" s="4" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>Reliability of age assessment methods in the context of security and border management</t>
+          <t>Security challenges of the green transition in urban und peri urban areas</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-BM-03</t>
+          <t>HORIZON-CL3-2026-01-INFRA-02</t>
         </is>
       </c>
       <c r="C275" s="3" t="n">
@@ -8151,18 +7975,18 @@
         <v>46331</v>
       </c>
       <c r="E275" s="4" t="n">
-        <v>1330000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>Accessible and available travel facilitation</t>
+          <t>Advanced border surveillance and situational awareness</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-BM-02</t>
+          <t>HORIZON-CL3-2026-01-BM-01</t>
         </is>
       </c>
       <c r="C276" s="3" t="n">
@@ -8172,18 +7996,18 @@
         <v>46331</v>
       </c>
       <c r="E276" s="4" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>Crime prevention approaches, online and off-line, tackling the nexus between addictions and crime</t>
+          <t>Designing new ways of risk awareness and enhanced disaster preparedness</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-04</t>
+          <t>HORIZON-CL3-2026-01-DRS-01</t>
         </is>
       </c>
       <c r="C277" s="3" t="n">
@@ -8199,12 +8023,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>Demand-led innovation in security</t>
+          <t>Enhancing the security of citizens against terrorism and lone-actor violence in confined spaces such as schools</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-SSRI-02</t>
+          <t>HORIZON-CL3-2026-01-FCT-05</t>
         </is>
       </c>
       <c r="C278" s="3" t="n">
@@ -8214,18 +8038,18 @@
         <v>46331</v>
       </c>
       <c r="E278" s="4" t="n">
-        <v>5830000</v>
+        <v>4835000</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>Public procurement of innovation for security</t>
+          <t>Missing persons: prevention and investigation</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-SSRI-03</t>
+          <t>HORIZON-CL3-2026-01-FCT-03</t>
         </is>
       </c>
       <c r="C279" s="3" t="n">
@@ -8235,18 +8059,18 @@
         <v>46331</v>
       </c>
       <c r="E279" s="4" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>Security challenges of the green transition in urban und peri urban areas</t>
+          <t>Reliability of age assessment methods in the context of security and border management</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-INFRA-02</t>
+          <t>HORIZON-CL3-2026-01-BM-03</t>
         </is>
       </c>
       <c r="C280" s="3" t="n">
@@ -8256,18 +8080,18 @@
         <v>46331</v>
       </c>
       <c r="E280" s="4" t="n">
-        <v>4000000</v>
+        <v>1330000</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>Open topic on preventing and countering the misuse of emerging technologies for criminal purposes, including issues related to lawful access to data</t>
+          <t>Accessible and available travel facilitation</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-02</t>
+          <t>HORIZON-CL3-2026-01-BM-02</t>
         </is>
       </c>
       <c r="C281" s="3" t="n">
@@ -8277,18 +8101,18 @@
         <v>46331</v>
       </c>
       <c r="E281" s="4" t="n">
-        <v>4500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>Improving capabilities of law enforcement to counter climate-related challenges</t>
+          <t>Crime prevention approaches, online and off-line, tackling the nexus between addictions and crime</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-01</t>
+          <t>HORIZON-CL3-2026-01-FCT-04</t>
         </is>
       </c>
       <c r="C282" s="3" t="n">
@@ -8298,18 +8122,18 @@
         <v>46331</v>
       </c>
       <c r="E282" s="4" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>Open topic on driving innovation uptake of disaster risk solutions</t>
+          <t>Development of ecosystem and next-generation capabilities for a secured European Critical Communication System in civil security</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-DRS-04</t>
+          <t>HORIZON-CL3-2026-01-SSRI-04</t>
         </is>
       </c>
       <c r="C283" s="3" t="n">
@@ -8325,12 +8149,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>Enhancing the security of citizens against terrorism and lone-actor violence in confined spaces such as schools</t>
+          <t>Tools and processes to support stress tests of critical infrastructure</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-05</t>
+          <t>HORIZON-CL3-2026-01-INFRA-01</t>
         </is>
       </c>
       <c r="C284" s="3" t="n">
@@ -8346,12 +8170,12 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>Tools and processes to support stress tests of critical infrastructure</t>
+          <t>Open topic on preventing and countering the misuse of emerging technologies for criminal purposes, including issues related to lawful access to data</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-INFRA-01</t>
+          <t>HORIZON-CL3-2026-01-FCT-02</t>
         </is>
       </c>
       <c r="C285" s="3" t="n">
@@ -8361,18 +8185,18 @@
         <v>46331</v>
       </c>
       <c r="E285" s="4" t="n">
-        <v>4835000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>Development of ecosystem and next-generation capabilities for a secured European Critical Communication System in civil security</t>
+          <t>Open topic on driving innovation uptake of disaster risk solutions</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-SSRI-04</t>
+          <t>HORIZON-CL3-2026-01-DRS-04</t>
         </is>
       </c>
       <c r="C286" s="3" t="n">
@@ -8409,12 +8233,12 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>Innovative approaches for the spatial design of neighbourhoods</t>
+          <t>Innovative solutions for the sustainable and beautiful use of vertical space</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-02</t>
+          <t>HORIZON-NEB-2026-01-REGEN-03</t>
         </is>
       </c>
       <c r="C288" s="3" t="n">
@@ -8430,12 +8254,12 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>Addressing homelessness through housing-led approaches aligned with the New European Bauhaus</t>
+          <t>Innovative approaches for the spatial design of neighbourhoods</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="C289" s="3" t="n">
@@ -8445,18 +8269,18 @@
         <v>46357</v>
       </c>
       <c r="E289" s="4" t="n">
-        <v>6300000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>Innovative solutions for the sustainable and beautiful use of vertical space</t>
+          <t>Addressing homelessness through housing-led approaches aligned with the New European Bauhaus</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-REGEN-03</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
         </is>
       </c>
       <c r="C290" s="3" t="n">
@@ -8466,18 +8290,18 @@
         <v>46357</v>
       </c>
       <c r="E290" s="4" t="n">
-        <v>5000000</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>Understanding inhabitant’s experiences of neighbourhoods to support their health and well-being</t>
+          <t>Advancing sustainable maintenance and repair measures for existing buildings</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-03</t>
+          <t>HORIZON-NEB-2026-01-REGEN-02</t>
         </is>
       </c>
       <c r="C291" s="3" t="n">
@@ -8493,12 +8317,12 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>Approaches to reuse vacant, obsolete or underutilised spaces</t>
+          <t>Understanding inhabitant’s experiences of neighbourhoods to support their health and well-being</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-BUSINESS-03</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-03</t>
         </is>
       </c>
       <c r="C292" s="3" t="n">
@@ -8508,18 +8332,18 @@
         <v>46357</v>
       </c>
       <c r="E292" s="4" t="n">
-        <v>4500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>Structurally addressing homelessness through coordinated social infrastructure and services in neighbourhoods</t>
+          <t>Approaches to reuse vacant, obsolete or underutilised spaces</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-BUSINESS-01</t>
+          <t>HORIZON-NEB-2026-01-BUSINESS-03</t>
         </is>
       </c>
       <c r="C293" s="3" t="n">
@@ -8529,18 +8353,18 @@
         <v>46357</v>
       </c>
       <c r="E293" s="4" t="n">
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>Advancing sustainable maintenance and repair measures for existing buildings</t>
+          <t>Structurally addressing homelessness through coordinated social infrastructure and services in neighbourhoods</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-REGEN-02</t>
+          <t>HORIZON-NEB-2026-01-BUSINESS-01</t>
         </is>
       </c>
       <c r="C294" s="3" t="n">
@@ -8550,7 +8374,7 @@
         <v>46357</v>
       </c>
       <c r="E294" s="4" t="n">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="295">
@@ -8577,12 +8401,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>Producing battery-grade materials for electrodes through sustainable processing and refining of raw materials or developing bio-based materials (BATT4EU Partnership)</t>
+          <t>Innovative technologies and solutions to improve wind energy systems supporting the Strategic Energy Technology (SET) Plan on wind</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D2-01</t>
+          <t>HORIZON-CL5-2026-09-D3-03</t>
         </is>
       </c>
       <c r="C296" s="3" t="n">
@@ -8592,18 +8416,18 @@
         <v>46280</v>
       </c>
       <c r="E296" s="4" t="n">
-        <v>7100000</v>
+        <v>93000000</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>Coordinated topic with India on recycling of EV batteries</t>
+          <t>Low disturbance prefabrication approaches for deep renovation of multi-storey buildings (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D2-04</t>
+          <t>HORIZON-CL5-2026-09-D4-02</t>
         </is>
       </c>
       <c r="C297" s="3" t="n">
@@ -8613,18 +8437,18 @@
         <v>46280</v>
       </c>
       <c r="E297" s="4" t="n">
-        <v>9400000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>Researching the technical, social &amp; economic factors impacting the energy performance of Smart Buildings (Built4People Partnership)</t>
+          <t>Full-scale demonstration of heat upgrade solutions in industrial processes</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-01</t>
+          <t>HORIZON-CL5-2026-09-D4-08</t>
         </is>
       </c>
       <c r="C298" s="3" t="n">
@@ -8634,18 +8458,18 @@
         <v>46280</v>
       </c>
       <c r="E298" s="4" t="n">
-        <v>5250000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>Advanced data platforms to integrate whole life carbon in building information tools, assessments, and certification (Built4People Partnership)</t>
+          <t>Validating policies and business models for affordable and sustainable housing (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-03</t>
+          <t>HORIZON-CL5-2026-09-D4-04</t>
         </is>
       </c>
       <c r="C299" s="3" t="n">
@@ -8655,18 +8479,18 @@
         <v>46280</v>
       </c>
       <c r="E299" s="4" t="n">
-        <v>5250000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>Low disturbance prefabrication approaches for deep renovation of multi-storey buildings (Built4People Partnership)</t>
+          <t>Producing battery-grade materials for electrodes through sustainable processing and refining of raw materials or developing bio-based materials (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-02</t>
+          <t>HORIZON-CL5-2026-09-D2-01</t>
         </is>
       </c>
       <c r="C300" s="3" t="n">
@@ -8676,18 +8500,18 @@
         <v>46280</v>
       </c>
       <c r="E300" s="4" t="n">
-        <v>7000000</v>
+        <v>7100000</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>Innovative technologies and solutions to improve wind energy systems supporting the Strategic Energy Technology (SET) Plan on wind</t>
+          <t>Coordinated topic with India on recycling of EV batteries</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D3-03</t>
+          <t>HORIZON-CL5-2026-09-D2-04</t>
         </is>
       </c>
       <c r="C301" s="3" t="n">
@@ -8697,18 +8521,18 @@
         <v>46280</v>
       </c>
       <c r="E301" s="4" t="n">
-        <v>93000000</v>
+        <v>9400000</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>Researching the technical, social &amp; economic factors impacting the energy performance of Smart Buildings (Built4People Partnership)</t>
+          <t>Full-scale demonstration of heat upgrade solutions in industrial processes</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-01</t>
+          <t>HORIZON-CL5-2026-09-D4-08</t>
         </is>
       </c>
       <c r="C302" s="3" t="n">
@@ -8718,18 +8542,18 @@
         <v>46280</v>
       </c>
       <c r="E302" s="4" t="n">
-        <v>5250000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>Advanced data platforms to integrate whole life carbon in building information tools, assessments, and certification (Built4People Partnership)</t>
+          <t>Validating policies and business models for affordable and sustainable housing (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-03</t>
+          <t>HORIZON-CL5-2026-09-D4-04</t>
         </is>
       </c>
       <c r="C303" s="3" t="n">
@@ -8739,18 +8563,18 @@
         <v>46280</v>
       </c>
       <c r="E303" s="4" t="n">
-        <v>5250000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>Research Management Facility</t>
+          <t>Teaming Synergies</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>HORIZON-WIDERA-2026-04-WIDENING-01</t>
+          <t>HORIZON-WIDERA-2026-01-WIDENING-01</t>
         </is>
       </c>
       <c r="C304" s="3" t="n">
@@ -8766,12 +8590,12 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>Teaming Synergies</t>
+          <t>Research Management Facility</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>HORIZON-WIDERA-2026-01-WIDENING-01</t>
+          <t>HORIZON-WIDERA-2026-04-WIDENING-01</t>
         </is>
       </c>
       <c r="C305" s="3" t="n">
@@ -8787,12 +8611,12 @@
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>Bioeconomy policy support hub for Member States, regions and sectors</t>
+          <t>Advancing recycling technologies for mixed post-consumer textiles waste from blended products</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-06</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-02</t>
         </is>
       </c>
       <c r="C306" s="3" t="n">
@@ -8802,18 +8626,18 @@
         <v>46282</v>
       </c>
       <c r="E306" s="4" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>Advancing recycling technologies for mixed post-consumer textiles waste from blended products</t>
+          <t>Developing managed aquifer recharge techniques (MAR) in a rural context</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-02</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-03</t>
         </is>
       </c>
       <c r="C307" s="3" t="n">
@@ -8823,18 +8647,18 @@
         <v>46282</v>
       </c>
       <c r="E307" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>Developing managed aquifer recharge techniques (MAR) in a rural context</t>
+          <t>Boosting agrobiodiversity for food security and sustainable competitiveness</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-03</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-06</t>
         </is>
       </c>
       <c r="C308" s="3" t="n">
@@ -8850,12 +8674,12 @@
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>Boosting agrobiodiversity for food security and sustainable competitiveness</t>
+          <t>Understanding and tackling the decline of insects</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-06</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-01</t>
         </is>
       </c>
       <c r="C309" s="3" t="n">
@@ -8865,18 +8689,18 @@
         <v>46282</v>
       </c>
       <c r="E309" s="4" t="n">
-        <v>6000000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>Understanding and tackling the decline of insects</t>
+          <t>Understanding biomass flows in Europe</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-01</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-05</t>
         </is>
       </c>
       <c r="C310" s="3" t="n">
@@ -8886,18 +8710,18 @@
         <v>46282</v>
       </c>
       <c r="E310" s="4" t="n">
-        <v>6500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>Understanding biomass flows in Europe</t>
+          <t>Demonstrating and deploying innovative collection, sorting-for-reuse and repair systems for textiles at city/region level (Circular Cities and Regions Initiative topic)</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-05</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-04</t>
         </is>
       </c>
       <c r="C311" s="3" t="n">
@@ -8907,18 +8731,18 @@
         <v>46282</v>
       </c>
       <c r="E311" s="4" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="inlineStr">
         <is>
-          <t>Developing methods to assess the presence, functions and sensitivity of groundwater ecosystems</t>
+          <t>Ensuring continuous effectiveness of protected areas in conserving habitats and species while facing intensifying drivers of biodiversity loss</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-02</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-04</t>
         </is>
       </c>
       <c r="C312" s="3" t="n">
@@ -8928,18 +8752,18 @@
         <v>46282</v>
       </c>
       <c r="E312" s="4" t="n">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>Advancing the European bio-based innovation enabled by biotechnology and biomanufacturing concepts</t>
+          <t>Developing methods to assess the presence, functions and sensitivity of groundwater ecosystems</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-07</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-02</t>
         </is>
       </c>
       <c r="C313" s="3" t="n">
@@ -8949,18 +8773,18 @@
         <v>46282</v>
       </c>
       <c r="E313" s="4" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>Harnessing the unique properties of marine organisms to deliver sustainable blue bio-based products</t>
+          <t>Advancing the European bio-based innovation enabled by biotechnology and biomanufacturing concepts</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-11</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-07</t>
         </is>
       </c>
       <c r="C314" s="3" t="n">
@@ -8970,18 +8794,18 @@
         <v>46282</v>
       </c>
       <c r="E314" s="4" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>Bio-based innovation in society: supporting the sustainable way of living</t>
+          <t>Harnessing the unique properties of marine organisms to deliver sustainable blue bio-based products</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-10</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-11</t>
         </is>
       </c>
       <c r="C315" s="3" t="n">
@@ -8991,18 +8815,18 @@
         <v>46282</v>
       </c>
       <c r="E315" s="4" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>Toward a comprehensive assessment of the disturbance of marine ecosystems by anthropogenic underwater noise</t>
+          <t>Bio-based innovation in society: supporting the sustainable way of living</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-01</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-10</t>
         </is>
       </c>
       <c r="C316" s="3" t="n">
@@ -9012,18 +8836,18 @@
         <v>46282</v>
       </c>
       <c r="E316" s="4" t="n">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="inlineStr">
         <is>
-          <t>Supporting pre-normative research for standardization of the bio-based products</t>
+          <t>Toward a comprehensive assessment of the disturbance of marine ecosystems by anthropogenic underwater noise</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-08</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-01</t>
         </is>
       </c>
       <c r="C317" s="3" t="n">
@@ -9033,18 +8857,18 @@
         <v>46282</v>
       </c>
       <c r="E317" s="4" t="n">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>Improving circularity of multilayer flexible plastic food contact packaging</t>
+          <t>Supporting pre-normative research for standardization of the bio-based products</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-01</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-08</t>
         </is>
       </c>
       <c r="C318" s="3" t="n">
@@ -9054,18 +8878,18 @@
         <v>46282</v>
       </c>
       <c r="E318" s="4" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>Pushing the frontier of knowledge and conservation action for deep sea ecosystems</t>
+          <t>Improving circularity of multilayer flexible plastic food contact packaging</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-03</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-01</t>
         </is>
       </c>
       <c r="C319" s="3" t="n">
@@ -9075,18 +8899,18 @@
         <v>46282</v>
       </c>
       <c r="E319" s="4" t="n">
-        <v>9000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>Advanced recovery of critical raw materials from Waste from Electrical and Electronic Equipment (WEEE)</t>
+          <t>Pushing the frontier of knowledge and conservation action for deep sea ecosystems</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-03</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-03</t>
         </is>
       </c>
       <c r="C320" s="3" t="n">
@@ -9096,18 +8920,18 @@
         <v>46282</v>
       </c>
       <c r="E320" s="4" t="n">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>Balancing food security, bioeconomy, climate and biodiversity objectives to unlock sustainable value chains</t>
+          <t>Advanced recovery of critical raw materials from Waste from Electrical and Electronic Equipment (WEEE)</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-09</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-03</t>
         </is>
       </c>
       <c r="C321" s="3" t="n">
@@ -9117,18 +8941,18 @@
         <v>46282</v>
       </c>
       <c r="E321" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>Advancing integrated scenarios and prediction models for informing transition to a nature positive society</t>
+          <t>Balancing food security, bioeconomy, climate and biodiversity objectives to unlock sustainable value chains</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-05</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-09</t>
         </is>
       </c>
       <c r="C322" s="3" t="n">
@@ -9138,18 +8962,18 @@
         <v>46282</v>
       </c>
       <c r="E322" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="inlineStr">
         <is>
-          <t>Bioremediation of Ukraine’s ecosystems contaminated by conflicts</t>
+          <t>Advancing integrated scenarios and prediction models for informing transition to a nature positive society</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-05</t>
         </is>
       </c>
       <c r="C323" s="3" t="n">
@@ -9165,12 +8989,12 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>Demonstrating and deploying innovative collection, sorting-for-reuse and repair systems for textiles at city/region level (Circular Cities and Regions Initiative topic)</t>
+          <t>Bioremediation of Ukraine’s ecosystems contaminated by conflicts</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-04</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="C324" s="3" t="n">
@@ -9186,12 +9010,12 @@
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>Ensuring continuous effectiveness of protected areas in conserving habitats and species while facing intensifying drivers of biodiversity loss</t>
+          <t>Bioeconomy policy support hub for Member States, regions and sectors</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-04</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-06</t>
         </is>
       </c>
       <c r="C325" s="3" t="n">
@@ -9201,7 +9025,7 @@
         <v>46282</v>
       </c>
       <c r="E325" s="4" t="n">
-        <v>6500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="326">
@@ -9246,33 +9070,33 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>Digital twins and/or their major components for environment, climate and security</t>
+          <t>Space critical Equipment for EU non-dependence – Space Refuelling Interface</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-TECH-01-02</t>
+          <t>HORIZON-CL4-2026-SPACE-03-86</t>
         </is>
       </c>
       <c r="C328" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D328" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E328" s="4" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>Strengthening the human capital managing research infrastructures, including in international context</t>
+          <t>Digital twins and/or their major components for environment, climate and security</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-04</t>
+          <t>HORIZON-INFRA-2026-TECH-01-02</t>
         </is>
       </c>
       <c r="C329" s="3" t="n">
@@ -9282,18 +9106,18 @@
         <v>46189</v>
       </c>
       <c r="E329" s="4" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>Research infrastructures as accelerators of the integration of Ukraine in the European Research Area</t>
+          <t>Strengthening the human capital managing research infrastructures, including in international context</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-05</t>
+          <t>HORIZON-INFRA-2026-DEV-01-04</t>
         </is>
       </c>
       <c r="C330" s="3" t="n">
@@ -9303,18 +9127,18 @@
         <v>46189</v>
       </c>
       <c r="E330" s="4" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>Strengthening the international dimension of ESFRI and/or ERIC research infrastructures</t>
+          <t>Research infrastructures as accelerators of the integration of Ukraine in the European Research Area</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-06</t>
+          <t>HORIZON-INFRA-2026-DEV-01-05</t>
         </is>
       </c>
       <c r="C331" s="3" t="n">
@@ -9324,39 +9148,39 @@
         <v>46189</v>
       </c>
       <c r="E331" s="4" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>Space critical Equipment for EU non-dependence – Space Refuelling Interface</t>
+          <t>Strengthening the international dimension of ESFRI and/or ERIC research infrastructures</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-86</t>
+          <t>HORIZON-INFRA-2026-DEV-01-06</t>
         </is>
       </c>
       <c r="C332" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D332" s="3" t="n">
-        <v>46268</v>
+        <v>46189</v>
       </c>
       <c r="E332" s="4" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>Trusted frameworks for secure and efficient data sharing in EOSC (EOSC Partnership)</t>
+          <t>Research infrastructure concept development including major upgrades or extensions of existing infrastructures</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-01-EOSC-02</t>
+          <t>HORIZON-INFRA-2026-DEV-01-01</t>
         </is>
       </c>
       <c r="C333" s="3" t="n">
@@ -9366,151 +9190,151 @@
         <v>46189</v>
       </c>
       <c r="E333" s="4" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>Space critical EEE components for EU non-dependence – Radiation Hard FPGA on 7nm</t>
+          <t>Implementing digital services to empower neuroscience research for health and brain inspired technology via EBRAINS</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-81</t>
+          <t>HORIZON-INFRA-2026-SERV-01-01</t>
         </is>
       </c>
       <c r="C334" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D334" s="3" t="n">
-        <v>46268</v>
+        <v>46189</v>
       </c>
       <c r="E334" s="4" t="n">
-        <v>12000000</v>
+        <v>32000000</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>Research infrastructure concept development including major upgrades or extensions of existing infrastructures</t>
+          <t>Space critical EEE components for EU non-dependence – GaN MMICs mm-Wave Foundations (Phase A): Development and Industrialization of Semi-insulating SiC Substrate Capabilities</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-01</t>
+          <t>HORIZON-CL4-2026-SPACE-03-82</t>
         </is>
       </c>
       <c r="C335" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D335" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E335" s="4" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>Implementing digital services to empower neuroscience research for health and brain inspired technology via EBRAINS</t>
+          <t>Reinforcing EU autonomous access to space through EU-based spaceports</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-SERV-01-01</t>
+          <t>HORIZON-CL4-2026-SPACE-03-11</t>
         </is>
       </c>
       <c r="C336" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D336" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E336" s="4" t="n">
-        <v>32000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>Space critical EEE components for EU non-dependence – GaN MMICs mm-Wave Foundations (Phase A): Development and Industrialization of Semi-insulating SiC Substrate Capabilities</t>
+          <t>Consolidation of the research infrastructure landscape – pilots for strategic coordination, synergies and simplified access pathways, by large thematic clusters of pan-European research infrastructures</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-82</t>
+          <t>HORIZON-INFRA-2026-DEV-01-02</t>
         </is>
       </c>
       <c r="C337" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D337" s="3" t="n">
-        <v>46268</v>
+        <v>46189</v>
       </c>
       <c r="E337" s="4" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>Reinforcing EU autonomous access to space through EU-based spaceports</t>
+          <t>R&amp;D for the next generation of scientific instrumentation, tools, methods, digitalisation and solutions for research infrastructure upgrades</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-11</t>
+          <t>HORIZON-INFRA-2026-TECH-01-01</t>
         </is>
       </c>
       <c r="C338" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D338" s="3" t="n">
-        <v>46268</v>
+        <v>46189</v>
       </c>
       <c r="E338" s="4" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>Consolidation of the research infrastructure landscape – pilots for strategic coordination, synergies and simplified access pathways, by large thematic clusters of pan-European research infrastructures</t>
+          <t>Digital enablers and building-blocks for Earth Observation and Satellite telecommunication for Space solutions (Space Partnership)</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-02</t>
+          <t>HORIZON-CL4-2026-SPACE-03-31</t>
         </is>
       </c>
       <c r="C339" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D339" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E339" s="4" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>R&amp;D for the next generation of scientific instrumentation, tools, methods, digitalisation and solutions for research infrastructure upgrades</t>
+          <t>Preparing demonstration missions for Earth Observation and Satellite telecommunication for Space solutions (Space Partnership)</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-TECH-01-01</t>
+          <t>HORIZON-CL4-2026-SPACE-03-32</t>
         </is>
       </c>
       <c r="C340" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D340" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E340" s="4" t="n">
         <v>5000000</v>
@@ -9519,12 +9343,12 @@
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>Digital enablers and building-blocks for Earth Observation and Satellite telecommunication for Space solutions (Space Partnership)</t>
+          <t>Critical Facilities Serving Space EEE components for EU non-dependence – High and Very High Energy Irradiation Test Facility Market Deployment</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-31</t>
+          <t>HORIZON-CL4-2026-SPACE-03-85</t>
         </is>
       </c>
       <c r="C341" s="3" t="n">
@@ -9540,12 +9364,12 @@
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>Preparing demonstration missions for Earth Observation and Satellite telecommunication for Space solutions (Space Partnership)</t>
+          <t>Scientific analysis and exploitation of space data</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-32</t>
+          <t>HORIZON-CL4-2026-SPACE-03-61</t>
         </is>
       </c>
       <c r="C342" s="3" t="n">
@@ -9555,60 +9379,60 @@
         <v>46268</v>
       </c>
       <c r="E342" s="4" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>Critical Facilities Serving Space EEE components for EU non-dependence – High and Very High Energy Irradiation Test Facility Market Deployment</t>
+          <t>Risk management, mitigation and contingency for ESFRI/ERIC and other world-class research infrastructures</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-85</t>
+          <t>HORIZON-INFRA-2026-DEV-01-07</t>
         </is>
       </c>
       <c r="C343" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D343" s="3" t="n">
-        <v>46268</v>
+        <v>46189</v>
       </c>
       <c r="E343" s="4" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>Scientific analysis and exploitation of space data</t>
+          <t>Uptake of FAIR data management practices and of EOSC by research communities and research infrastructures (EOSC Partnership)</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-61</t>
+          <t>HORIZON-INFRA-2026-01-EOSC-01</t>
         </is>
       </c>
       <c r="C344" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D344" s="3" t="n">
-        <v>46268</v>
+        <v>46189</v>
       </c>
       <c r="E344" s="4" t="n">
-        <v>1500000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>Risk management, mitigation and contingency for ESFRI/ERIC and other world-class research infrastructures</t>
+          <t>Consolidation of the research infrastructure landscape – individual support for evolution, long-term sustainability and emerging needs of pan-European research infrastructures</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-07</t>
+          <t>HORIZON-INFRA-2026-DEV-01-03</t>
         </is>
       </c>
       <c r="C345" s="3" t="n">
@@ -9618,18 +9442,18 @@
         <v>46189</v>
       </c>
       <c r="E345" s="4" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>Uptake of FAIR data management practices and of EOSC by research communities and research infrastructures (EOSC Partnership)</t>
+          <t>Trusted frameworks for secure and efficient data sharing in EOSC (EOSC Partnership)</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-01-EOSC-01</t>
+          <t>HORIZON-INFRA-2026-01-EOSC-02</t>
         </is>
       </c>
       <c r="C346" s="3" t="n">
@@ -9639,28 +9463,28 @@
         <v>46189</v>
       </c>
       <c r="E346" s="4" t="n">
-        <v>40000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>Consolidation of the research infrastructure landscape – individual support for evolution, long-term sustainability and emerging needs of pan-European research infrastructures</t>
+          <t>Space critical EEE components for EU non-dependence – Radiation Hard FPGA on 7nm</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-03</t>
+          <t>HORIZON-CL4-2026-SPACE-03-81</t>
         </is>
       </c>
       <c r="C347" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D347" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E347" s="4" t="n">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="348">
@@ -9729,12 +9553,12 @@
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Boosting organic farming for a competitive, sustainable and resilient farming sector</t>
+          <t>Living labs to enhance soil health in managed forests and in natural/semi-natural lands</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-02-FARM2FORK-02-two-stage</t>
+          <t>HORIZON-MISS-2026-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="C351" s="3" t="n">
@@ -9744,18 +9568,18 @@
         <v>46280</v>
       </c>
       <c r="E351" s="4" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Boosting organic farming for a competitive, sustainable and resilient farming sector</t>
+          <t>Living labs to enhance soil health in Alpine and Atlantic biogeographical regions</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-02-FARM2FORK-02-two-stage</t>
+          <t>HORIZON-MISS-2026-05-SOIL-01-two-stage</t>
         </is>
       </c>
       <c r="C352" s="3" t="n">
@@ -9765,18 +9589,18 @@
         <v>46280</v>
       </c>
       <c r="E352" s="4" t="n">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>Living labs to enhance soil health in Alpine and Atlantic biogeographical regions</t>
+          <t>Living labs to enhance soil health in managed forests and in natural/semi-natural lands</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-01-two-stage</t>
+          <t>HORIZON-MISS-2026-05-SOIL-02-two-stage</t>
         </is>
       </c>
       <c r="C353" s="3" t="n">
@@ -9897,12 +9721,12 @@
     <row r="359">
       <c r="A359" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Uncovering the causes of specific species’ rapid decline and exploring actionable solutions</t>
+          <t>Living labs for co-creating solutions for the restoration of ecosystems</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-02-two-stage</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-01-two-stage</t>
         </is>
       </c>
       <c r="C359" s="3" t="n">
@@ -9912,18 +9736,18 @@
         <v>46288</v>
       </c>
       <c r="E359" s="4" t="n">
-        <v>3000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>Living labs for co-creating solutions for the restoration of ecosystems</t>
+          <t>Mainstreaming and scaling-up evidence-based Nature-Based Solutions towards a nature positive and climate-resilient economy</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-01-two-stage</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-04-two-stage</t>
         </is>
       </c>
       <c r="C360" s="3" t="n">
@@ -9933,18 +9757,18 @@
         <v>46288</v>
       </c>
       <c r="E360" s="4" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>Mainstreaming and scaling-up evidence-based Nature-Based Solutions towards a nature positive and climate-resilient economy</t>
+          <t>Decontaminate and bioremediate aquatic pollution</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-04-two-stage</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-01-two-stage</t>
         </is>
       </c>
       <c r="C361" s="3" t="n">
@@ -9954,18 +9778,18 @@
         <v>46288</v>
       </c>
       <c r="E361" s="4" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>Decontaminate and bioremediate aquatic pollution</t>
+          <t>Open topic: Uncovering the causes of specific species’ rapid decline and exploring actionable solutions</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-01-two-stage</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-02-two-stage</t>
         </is>
       </c>
       <c r="C362" s="3" t="n">
@@ -9975,18 +9799,18 @@
         <v>46288</v>
       </c>
       <c r="E362" s="4" t="n">
-        <v>7000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="inlineStr">
         <is>
-          <t>Pragmatic clinical trials to optimise immunotherapeutic interventions for patients with refractory cancers</t>
+          <t>Boosting mental health of young cancer survivors through the European Cancer Patient Digital Centre (ECPDC)</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-03</t>
+          <t>HORIZON-MISS-2026-02-CANCER-05</t>
         </is>
       </c>
       <c r="C363" s="3" t="n">
@@ -10002,12 +9826,12 @@
     <row r="364">
       <c r="A364" s="2" t="inlineStr">
         <is>
-          <t>Virtual Human Twin (VHT) Models for Cancer Research</t>
+          <t>Earlier and more precise palliative care</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-01</t>
+          <t>HORIZON-MISS-2026-02-CANCER-04</t>
         </is>
       </c>
       <c r="C364" s="3" t="n">
@@ -10017,18 +9841,18 @@
         <v>46280</v>
       </c>
       <c r="E364" s="4" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="inlineStr">
         <is>
-          <t>Earlier and more precise palliative care</t>
+          <t>Pragmatic clinical trials to optimise immunotherapeutic interventions for patients with refractory cancers</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-04</t>
+          <t>HORIZON-MISS-2026-02-CANCER-03</t>
         </is>
       </c>
       <c r="C365" s="3" t="n">
@@ -10038,18 +9862,18 @@
         <v>46280</v>
       </c>
       <c r="E365" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>Improve the Quality of Life of older cancer patients</t>
+          <t>Virtual Human Twin (VHT) Models for Cancer Research</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-07</t>
+          <t>HORIZON-MISS-2026-02-CANCER-01</t>
         </is>
       </c>
       <c r="C366" s="3" t="n">
@@ -10059,18 +9883,18 @@
         <v>46280</v>
       </c>
       <c r="E366" s="4" t="n">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="inlineStr">
         <is>
-          <t>Boosting mental health of young cancer survivors through the European Cancer Patient Digital Centre (ECPDC)</t>
+          <t>Improve the Quality of Life of older cancer patients</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-05</t>
+          <t>HORIZON-MISS-2026-02-CANCER-07</t>
         </is>
       </c>
       <c r="C367" s="3" t="n">
@@ -10080,7 +9904,7 @@
         <v>46280</v>
       </c>
       <c r="E367" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="368">
@@ -10170,12 +9994,12 @@
     <row r="372">
       <c r="A372" s="2" t="inlineStr">
         <is>
-          <t>Integrating New Approach Methodologies (NAMs) to advance biomedical research and regulatory testing</t>
+          <t>Support for a multilateral initiative on climate change and health research</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-TOOL-03</t>
+          <t>HORIZON-HLTH-2026-01-ENVHLTH-05</t>
         </is>
       </c>
       <c r="C372" s="3" t="n">
@@ -10185,18 +10009,18 @@
         <v>46128</v>
       </c>
       <c r="E372" s="4" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="inlineStr">
         <is>
-          <t>Support to European Research Area (ERA) action on accelerating New Approach Methodologies (NAMs) to advance biomedical research and testing of medicinal products and medical devices</t>
+          <t>Behavioural interventions as primary prevention for Non-Communicable Diseases (NCDs) among young people</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-TOOL-06</t>
+          <t>HORIZON-HLTH-2026-01-STAYHLTH-02</t>
         </is>
       </c>
       <c r="C373" s="3" t="n">
@@ -10206,18 +10030,18 @@
         <v>46128</v>
       </c>
       <c r="E373" s="4" t="n">
-        <v>2900000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>Development of novel vaccines for viral pathogens with epidemic potential</t>
+          <t>Establishing a European network of Centres of Excellence (CoEs) for Advanced Therapies Medicinal Products (ATMPs)</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-04</t>
+          <t>HORIZON-HLTH-2026-01-TOOL-07</t>
         </is>
       </c>
       <c r="C374" s="3" t="n">
@@ -10227,18 +10051,18 @@
         <v>46128</v>
       </c>
       <c r="E374" s="4" t="n">
-        <v>9000000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="inlineStr">
         <is>
-          <t>Establishing a European network of Centres of Excellence (CoEs) for Advanced Therapies Medicinal Products (ATMPs)</t>
+          <t>Support to European Research Area (ERA) action on accelerating New Approach Methodologies (NAMs) to advance biomedical research and testing of medicinal products and medical devices</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-TOOL-07</t>
+          <t>HORIZON-HLTH-2026-01-TOOL-06</t>
         </is>
       </c>
       <c r="C375" s="3" t="n">
@@ -10248,18 +10072,18 @@
         <v>46128</v>
       </c>
       <c r="E375" s="4" t="n">
-        <v>3900000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="inlineStr">
         <is>
-          <t>Towards climate resilient, prepared and carbon neutral populations and healthcare systems</t>
+          <t>Integrating New Approach Methodologies (NAMs) to advance biomedical research and regulatory testing</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-ENVHLTH-04</t>
+          <t>HORIZON-HLTH-2026-01-TOOL-03</t>
         </is>
       </c>
       <c r="C376" s="3" t="n">
@@ -10269,18 +10093,18 @@
         <v>46128</v>
       </c>
       <c r="E376" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="inlineStr">
         <is>
-          <t>Innovative interventions to prevent the harmful effects of using digital technologies on the mental health of children and young adults</t>
+          <t>Multisectoral approach to tackle chronic non-communicable diseases: implementation research maximising collaboration and coordination with sectors and in settings beyond the healthcare system (GACD)</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-02</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-09</t>
         </is>
       </c>
       <c r="C377" s="3" t="n">
@@ -10290,18 +10114,18 @@
         <v>46128</v>
       </c>
       <c r="E377" s="4" t="n">
-        <v>8000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="inlineStr">
         <is>
-          <t>Pilot actions for follow-on funding: Leveraging EU-funded collaborative research in regenerative medicine</t>
+          <t>Understanding of sex and/or gender-specific mechanisms of cardiovascular diseases: determinants, risk factors and pathways</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-TOOL-05</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-11</t>
         </is>
       </c>
       <c r="C378" s="3" t="n">
@@ -10317,12 +10141,12 @@
     <row r="379">
       <c r="A379" s="2" t="inlineStr">
         <is>
-          <t>Regulatory science to support translational development of patient-centred health technologies</t>
+          <t>Identifying and addressing low-value care in health and care systems</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-IND-03</t>
+          <t>HORIZON-HLTH-2026-01-CARE-03</t>
         </is>
       </c>
       <c r="C379" s="3" t="n">
@@ -10332,18 +10156,18 @@
         <v>46128</v>
       </c>
       <c r="E379" s="4" t="n">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="inlineStr">
         <is>
-          <t>Multisectoral approach to tackle chronic non-communicable diseases: implementation research maximising collaboration and coordination with sectors and in settings beyond the healthcare system (GACD)</t>
+          <t>Development of novel vaccines for viral pathogens with epidemic potential</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-09</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-04</t>
         </is>
       </c>
       <c r="C380" s="3" t="n">
@@ -10353,18 +10177,18 @@
         <v>46128</v>
       </c>
       <c r="E380" s="4" t="n">
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="inlineStr">
         <is>
-          <t>Understanding of sex and/or gender-specific mechanisms of cardiovascular diseases: determinants, risk factors and pathways</t>
+          <t>Innovative interventions to prevent the harmful effects of using digital technologies on the mental health of children and young adults</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-11</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-02</t>
         </is>
       </c>
       <c r="C381" s="3" t="n">
@@ -10374,18 +10198,18 @@
         <v>46128</v>
       </c>
       <c r="E381" s="4" t="n">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>Identifying and addressing low-value care in health and care systems</t>
+          <t>Pilot actions for follow-on funding: Leveraging EU-funded collaborative research in regenerative medicine</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-CARE-03</t>
+          <t>HORIZON-HLTH-2026-01-TOOL-05</t>
         </is>
       </c>
       <c r="C382" s="3" t="n">
@@ -10395,18 +10219,18 @@
         <v>46128</v>
       </c>
       <c r="E382" s="4" t="n">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>Support for a multilateral initiative on climate change and health research</t>
+          <t>Regulatory science to support translational development of patient-centred health technologies</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-ENVHLTH-05</t>
+          <t>HORIZON-HLTH-2026-01-IND-03</t>
         </is>
       </c>
       <c r="C383" s="3" t="n">
@@ -10416,18 +10240,18 @@
         <v>46128</v>
       </c>
       <c r="E383" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>Behavioural interventions as primary prevention for Non-Communicable Diseases (NCDs) among young people</t>
+          <t>Scaling up innovation in cardiovascular health</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-STAYHLTH-02</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-15</t>
         </is>
       </c>
       <c r="C384" s="3" t="n">
@@ -10437,18 +10261,18 @@
         <v>46128</v>
       </c>
       <c r="E384" s="4" t="n">
-        <v>9000000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="inlineStr">
         <is>
-          <t>Public procurement of innovative solutions for improving citizens' access to healthcare through integrated or personalised approaches</t>
+          <t>Building public trust and outreach in the life sciences</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-CARE-01</t>
+          <t>HORIZON-HLTH-2026-01-STAYHLTH-03</t>
         </is>
       </c>
       <c r="C385" s="3" t="n">
@@ -10458,18 +10282,18 @@
         <v>46128</v>
       </c>
       <c r="E385" s="4" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="inlineStr">
         <is>
-          <t>Building public trust and outreach in the life sciences</t>
+          <t>Towards climate resilient, prepared and carbon neutral populations and healthcare systems</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-STAYHLTH-03</t>
+          <t>HORIZON-HLTH-2026-01-ENVHLTH-04</t>
         </is>
       </c>
       <c r="C386" s="3" t="n">
@@ -10479,18 +10303,18 @@
         <v>46128</v>
       </c>
       <c r="E386" s="4" t="n">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>Towards a better understanding and anticipation of the impacts of climate change on health</t>
+          <t>Public procurement of innovative solutions for improving citizens' access to healthcare through integrated or personalised approaches</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-ENVHLTH-01</t>
+          <t>HORIZON-HLTH-2026-01-CARE-01</t>
         </is>
       </c>
       <c r="C387" s="3" t="n">
@@ -10500,18 +10324,18 @@
         <v>46128</v>
       </c>
       <c r="E387" s="4" t="n">
-        <v>7000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="inlineStr">
         <is>
-          <t>Advancing research on the prevention, diagnosis, and management of post-infection long-term conditions</t>
+          <t>Towards a better understanding and anticipation of the impacts of climate change on health</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-03</t>
+          <t>HORIZON-HLTH-2026-01-ENVHLTH-01</t>
         </is>
       </c>
       <c r="C388" s="3" t="n">
@@ -10521,18 +10345,18 @@
         <v>46128</v>
       </c>
       <c r="E388" s="4" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="inlineStr">
         <is>
-          <t>Scaling up innovation in cardiovascular health</t>
+          <t>Advancing research on the prevention, diagnosis, and management of post-infection long-term conditions</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-15</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-03</t>
         </is>
       </c>
       <c r="C389" s="3" t="n">
@@ -10542,91 +10366,91 @@
         <v>46128</v>
       </c>
       <c r="E389" s="4" t="n">
-        <v>1900000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="inlineStr">
         <is>
-          <t>Energy efficient urban and sub-urban public transport, complemented by shared mobility</t>
+          <t>Enabling user-centred and open innovation initiatives to enhance soil health in Ukraine</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-01</t>
+          <t>HORIZON-MISS-2026-05-SOIL-03</t>
         </is>
       </c>
       <c r="C390" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D390" s="3" t="n">
-        <v>46303</v>
+        <v>46288</v>
       </c>
       <c r="E390" s="4" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="inlineStr">
         <is>
-          <t>Enabling user-centred and open innovation initiatives to enhance soil health in Ukraine</t>
+          <t>Introducing circular economy models in the construction sector, from buildings to city scale</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-03</t>
+          <t>HORIZON-MISS-2026-04-CIT-NEB-B4P-CCRI-03</t>
         </is>
       </c>
       <c r="C391" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D391" s="3" t="n">
-        <v>46288</v>
+        <v>46303</v>
       </c>
       <c r="E391" s="4" t="n">
-        <v>5000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>Introducing circular economy models in the construction sector, from buildings to city scale</t>
+          <t>Antimicrobial resistance and antibiotic biosynthesis in soils: developing key understanding and counteractive strategies using a One-Health approach</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-NEB-B4P-CCRI-03</t>
+          <t>HORIZON-MISS-2026-05-SOIL-02</t>
         </is>
       </c>
       <c r="C392" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D392" s="3" t="n">
-        <v>46303</v>
+        <v>46288</v>
       </c>
       <c r="E392" s="4" t="n">
-        <v>9500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance and antibiotic biosynthesis in soils: developing key understanding and counteractive strategies using a One-Health approach</t>
+          <t>Energy efficient urban and sub-urban public transport, complemented by shared mobility</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-02</t>
+          <t>HORIZON-MISS-2026-04-CIT-01</t>
         </is>
       </c>
       <c r="C393" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D393" s="3" t="n">
-        <v>46288</v>
+        <v>46303</v>
       </c>
       <c r="E393" s="4" t="n">
-        <v>7000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="394">
@@ -10716,12 +10540,12 @@
     <row r="398">
       <c r="A398" s="2" t="inlineStr">
         <is>
-          <t>6G Devices</t>
+          <t>Collection, Generation and Validation of Datasets  suitable for training AI Models for 6G Networks and for AIaaS</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-02</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-B-01</t>
         </is>
       </c>
       <c r="C398" s="3" t="n">
@@ -10731,18 +10555,18 @@
         <v>46141</v>
       </c>
       <c r="E398" s="4" t="n">
-        <v>2000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="inlineStr">
         <is>
-          <t>SNS experimental infrastructure</t>
+          <t>SNS Operations and Output optimisation</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-C-01</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-CSA-01</t>
         </is>
       </c>
       <c r="C399" s="3" t="n">
@@ -10752,18 +10576,18 @@
         <v>46141</v>
       </c>
       <c r="E399" s="4" t="n">
-        <v>8000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="inlineStr">
         <is>
-          <t>Collection, Generation and Validation of Datasets  suitable for training AI Models for 6G Networks and for AIaaS</t>
+          <t>EU-India International Collaboration</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-B-01</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-CSA-03</t>
         </is>
       </c>
       <c r="C400" s="3" t="n">
@@ -10773,18 +10597,18 @@
         <v>46141</v>
       </c>
       <c r="E400" s="4" t="n">
-        <v>8000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>SNS Operations and Output optimisation</t>
+          <t>6G Devices</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-01</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-CSA-02</t>
         </is>
       </c>
       <c r="C401" s="3" t="n">
@@ -10794,18 +10618,18 @@
         <v>46141</v>
       </c>
       <c r="E401" s="4" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="inlineStr">
         <is>
-          <t>EU-India International Collaboration</t>
+          <t>SNS experimental infrastructure</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-03</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-C-01</t>
         </is>
       </c>
       <c r="C402" s="3" t="n">
@@ -10815,18 +10639,18 @@
         <v>46141</v>
       </c>
       <c r="E402" s="4" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="inlineStr">
         <is>
-          <t>Apply AI: Robotics for Manufacturing: Advancing Core Skills through Technical Challenges (RIA) (Partnership in AI, Data and Robotics)</t>
+          <t>Large-Scale Photonic Quantum Computing Platform Technologies (RIA)</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-08</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-18</t>
         </is>
       </c>
       <c r="C403" s="3" t="n">
@@ -10836,18 +10660,18 @@
         <v>46127</v>
       </c>
       <c r="E403" s="4" t="n">
-        <v>18000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="inlineStr">
         <is>
-          <t>Challenge-Driven GenAI4EU Booster in Apply AI prioritised sectors (RIA) (AI/Data/Robotics Partnership)</t>
+          <t>Web 4.0 architectural framework and Open Internet Stack applications for virtual worlds (RIA)</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-19</t>
+          <t>HORIZON-CL4-2026-04-HUMAN-02</t>
         </is>
       </c>
       <c r="C404" s="3" t="n">
@@ -10857,18 +10681,18 @@
         <v>46127</v>
       </c>
       <c r="E404" s="4" t="n">
-        <v>15000000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="inlineStr">
         <is>
-          <t>Advanced Local Digital Twins using AI for Early Warning and Preparedness (IA)</t>
+          <t>Open Internet Stack Support for Scale (CSA)</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-09</t>
+          <t>HORIZON-CL4-2026-04-DATA-03</t>
         </is>
       </c>
       <c r="C405" s="3" t="n">
@@ -10878,18 +10702,18 @@
         <v>46127</v>
       </c>
       <c r="E405" s="4" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="inlineStr">
         <is>
-          <t>Developing and demonstrating core technologies for Virtual Worlds and Web 4.0 (IA) (Virtual worlds Partnership)</t>
+          <t>Efficient and compliant access to and use of data (IA) (AI, Data and Robotics partnership)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-HUMAN-01</t>
+          <t>HORIZON-CL4-2026-04-DATA-06</t>
         </is>
       </c>
       <c r="C406" s="3" t="n">
@@ -10899,18 +10723,18 @@
         <v>46127</v>
       </c>
       <c r="E406" s="4" t="n">
-        <v>4000000</v>
+        <v>11500000</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="inlineStr">
         <is>
-          <t>Web 4.0 architectural framework and Open Internet Stack applications for virtual worlds (RIA)</t>
+          <t>Grand Challenge on Quantum Sensors for Inertial Navigation</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-HUMAN-02</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-11</t>
         </is>
       </c>
       <c r="C407" s="3" t="n">
@@ -10920,18 +10744,18 @@
         <v>46127</v>
       </c>
       <c r="E407" s="4" t="n">
-        <v>2800000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="inlineStr">
         <is>
-          <t>Open Internet Stack Support for Scale (CSA)</t>
+          <t>Strengthening the cooperation of semiconductor-intensive EU regions (CSA)</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DATA-03</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-15</t>
         </is>
       </c>
       <c r="C408" s="3" t="n">
@@ -10941,18 +10765,18 @@
         <v>46127</v>
       </c>
       <c r="E408" s="4" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="inlineStr">
         <is>
-          <t>Efficient and compliant access to and use of data (IA) (AI, Data and Robotics partnership)</t>
+          <t>Standards for Quantum Technologies – Coordination and Support Action (CSA)</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DATA-06</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-12</t>
         </is>
       </c>
       <c r="C409" s="3" t="n">
@@ -10962,18 +10786,18 @@
         <v>46127</v>
       </c>
       <c r="E409" s="4" t="n">
-        <v>11500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="inlineStr">
         <is>
-          <t>Grand Challenge on Quantum Sensors for Inertial Navigation</t>
+          <t>Networking and Future Photonics Strategy  (CSA) (Photonics Partnership)</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-11</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-14</t>
         </is>
       </c>
       <c r="C410" s="3" t="n">
@@ -10983,18 +10807,18 @@
         <v>46127</v>
       </c>
       <c r="E410" s="4" t="n">
-        <v>500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="inlineStr">
         <is>
-          <t>Strengthening the cooperation of semiconductor-intensive EU regions (CSA)</t>
+          <t>Apply AI: Pilot of the “Science for AI” Pillar of RAISE (“Resource for AI science in Europe”) (RIA)</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-15</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-01</t>
         </is>
       </c>
       <c r="C411" s="3" t="n">
@@ -11004,18 +10828,18 @@
         <v>46127</v>
       </c>
       <c r="E411" s="4" t="n">
-        <v>1000000</v>
+        <v>17000000</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="inlineStr">
         <is>
-          <t>Standards for Quantum Technologies – Coordination and Support Action (CSA)</t>
+          <t>Advanced Local Digital Twins using AI for Early Warning and Preparedness (IA)</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-12</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-09</t>
         </is>
       </c>
       <c r="C412" s="3" t="n">
@@ -11025,18 +10849,18 @@
         <v>46127</v>
       </c>
       <c r="E412" s="4" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="inlineStr">
         <is>
-          <t>Networking and Future Photonics Strategy  (CSA) (Photonics Partnership)</t>
+          <t>Developing and demonstrating core technologies for Virtual Worlds and Web 4.0 (IA) (Virtual worlds Partnership)</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-14</t>
+          <t>HORIZON-CL4-2026-04-HUMAN-01</t>
         </is>
       </c>
       <c r="C413" s="3" t="n">
@@ -11046,18 +10870,18 @@
         <v>46127</v>
       </c>
       <c r="E413" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="inlineStr">
         <is>
-          <t>Next-Generation AI Agents for Real-World Applications in the Apply AI sectors (RIA) (Partnership in AI, Data and Robotics)</t>
+          <t>Fostering 2-Dimensional Materials (2DM) based emerging and enabling technologies (CSA)</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-05-DIGITAL-EMERGING-02</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-17</t>
         </is>
       </c>
       <c r="C414" s="3" t="n">
@@ -11067,18 +10891,18 @@
         <v>46127</v>
       </c>
       <c r="E414" s="4" t="n">
-        <v>19000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="inlineStr">
         <is>
-          <t>New or enhanced Innovative Advanced Materials (IAM) enabled sensing functionality (RIA)</t>
+          <t>Open Internet Stack Sovereign Solutions (RIA)</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-05-MAT-PROD-25</t>
+          <t>HORIZON-CL4-2026-04-DATA-02</t>
         </is>
       </c>
       <c r="C415" s="3" t="n">
@@ -11088,18 +10912,18 @@
         <v>46127</v>
       </c>
       <c r="E415" s="4" t="n">
-        <v>7500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="inlineStr">
         <is>
-          <t>Apply AI: Pilot of the “Science for AI” Pillar of RAISE (“Resource for AI science in Europe”) (RIA)</t>
+          <t>Next-Generation AI Agents for Real-World Applications in the Apply AI sectors (RIA) (Partnership in AI, Data and Robotics)</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-01</t>
+          <t>HORIZON-CL4-2026-05-DIGITAL-EMERGING-02</t>
         </is>
       </c>
       <c r="C416" s="3" t="n">
@@ -11109,18 +10933,18 @@
         <v>46127</v>
       </c>
       <c r="E416" s="4" t="n">
-        <v>17000000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="inlineStr">
         <is>
-          <t>Large-Scale Photonic Quantum Computing Platform Technologies (RIA)</t>
+          <t>New or enhanced Innovative Advanced Materials (IAM) enabled sensing functionality (RIA)</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-18</t>
+          <t>HORIZON-CL4-2026-05-MAT-PROD-25</t>
         </is>
       </c>
       <c r="C417" s="3" t="n">
@@ -11130,18 +10954,18 @@
         <v>46127</v>
       </c>
       <c r="E417" s="4" t="n">
-        <v>10000000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="inlineStr">
         <is>
-          <t>Fostering 2-Dimensional Materials (2DM) based emerging and enabling technologies (CSA)</t>
+          <t>Apply AI: Next-Generation Agile and Intelligent Robotics Platforms for Industrial and Service Applications (Partnership in AI, Data and Robotics) (RIA)</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-17</t>
+          <t>HORIZON-CL4-2026-05-DIGITAL-EMERGING-03</t>
         </is>
       </c>
       <c r="C418" s="3" t="n">
@@ -11151,18 +10975,18 @@
         <v>46127</v>
       </c>
       <c r="E418" s="4" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="inlineStr">
         <is>
-          <t>Open Internet Stack Sovereign Solutions (RIA)</t>
+          <t>Apply AI: Robotics for Manufacturing: Advancing Core Skills through Technical Challenges (RIA) (Partnership in AI, Data and Robotics)</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-04-DATA-02</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-08</t>
         </is>
       </c>
       <c r="C419" s="3" t="n">
@@ -11172,18 +10996,18 @@
         <v>46127</v>
       </c>
       <c r="E419" s="4" t="n">
-        <v>7000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="inlineStr">
         <is>
-          <t>Apply AI: Next-Generation Agile and Intelligent Robotics Platforms for Industrial and Service Applications (Partnership in AI, Data and Robotics) (RIA)</t>
+          <t>Challenge-Driven GenAI4EU Booster in Apply AI prioritised sectors (RIA) (AI/Data/Robotics Partnership)</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-05-DIGITAL-EMERGING-03</t>
+          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-19</t>
         </is>
       </c>
       <c r="C420" s="3" t="n">
@@ -11193,7 +11017,7 @@
         <v>46127</v>
       </c>
       <c r="E420" s="4" t="n">
-        <v>12000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="421">
@@ -11493,12 +11317,12 @@
     <row r="435">
       <c r="A435" s="2" t="inlineStr">
         <is>
-          <t>Accelerating the development of breeding tools for perennial crops, specifically fruits and nuts</t>
+          <t>Advancing basic knowledge and developing tools for sustainable management of key migratory fish species</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-02-FARM2FORK-04</t>
+          <t>HORIZON-CL6-2026-02-FARM2FORK-08</t>
         </is>
       </c>
       <c r="C435" s="3" t="n">
@@ -11508,18 +11332,18 @@
         <v>46126</v>
       </c>
       <c r="E435" s="4" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="inlineStr">
         <is>
-          <t>Advancing basic knowledge and developing tools for sustainable management of key migratory fish species</t>
+          <t>Sustainable and healthy diets for cardiovascular diseases prevention with the support of digital applications</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-02-FARM2FORK-08</t>
+          <t>HORIZON-CL6-2026-02-FARM2FORK-09</t>
         </is>
       </c>
       <c r="C436" s="3" t="n">
@@ -11529,18 +11353,18 @@
         <v>46126</v>
       </c>
       <c r="E436" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="inlineStr">
         <is>
-          <t>Sustainable and healthy diets for cardiovascular diseases prevention with the support of digital applications</t>
+          <t>Accelerating the development of breeding tools for perennial crops, specifically fruits and nuts</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-02-FARM2FORK-09</t>
+          <t>HORIZON-CL6-2026-02-FARM2FORK-04</t>
         </is>
       </c>
       <c r="C437" s="3" t="n">
@@ -11550,18 +11374,18 @@
         <v>46126</v>
       </c>
       <c r="E437" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="inlineStr">
         <is>
-          <t>Coordinated European contribution to the WMO Global Greenhouse Gas Watch and its international governance</t>
+          <t>Empowering the UN Decade of Ocean Science for Sustainable Development</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-05</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-03</t>
         </is>
       </c>
       <c r="C438" s="3" t="n">
@@ -11571,18 +11395,18 @@
         <v>46127</v>
       </c>
       <c r="E438" s="4" t="n">
-        <v>7000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="inlineStr">
         <is>
-          <t>A services and business incubator for geospatial open-source developments</t>
+          <t>Improving analytical capacity and understanding of social drivers in agriculture to better assess social sustainability in the sector</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-06</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-02</t>
         </is>
       </c>
       <c r="C439" s="3" t="n">
@@ -11592,18 +11416,18 @@
         <v>46127</v>
       </c>
       <c r="E439" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="inlineStr">
         <is>
-          <t>Supporting All-Atlantic Ocean Research and Innovation Alliance</t>
+          <t>Increasing knowledge flows to practice within AKIS via EU thematic knowledge hubs</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-04</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-09</t>
         </is>
       </c>
       <c r="C440" s="3" t="n">
@@ -11613,18 +11437,18 @@
         <v>46127</v>
       </c>
       <c r="E440" s="4" t="n">
-        <v>4500000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="inlineStr">
         <is>
-          <t>Improving analytical capacity and understanding of social drivers in agriculture to better assess social sustainability in the sector</t>
+          <t>Boosting data availability and AI solutions in food for consumers and food service professionals</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-02</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-08</t>
         </is>
       </c>
       <c r="C441" s="3" t="n">
@@ -11634,18 +11458,18 @@
         <v>46127</v>
       </c>
       <c r="E441" s="4" t="n">
-        <v>5000000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="inlineStr">
         <is>
-          <t>Increasing knowledge flows to practice within AKIS via EU thematic knowledge hubs</t>
+          <t>Supporting All-Atlantic Ocean Research and Innovation Alliance</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-09</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-04</t>
         </is>
       </c>
       <c r="C442" s="3" t="n">
@@ -11655,18 +11479,18 @@
         <v>46127</v>
       </c>
       <c r="E442" s="4" t="n">
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="inlineStr">
         <is>
-          <t>Boosting data availability and AI solutions in food for consumers and food service professionals</t>
+          <t>Coordinated European contribution to the WMO Global Greenhouse Gas Watch and its international governance</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-08</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-05</t>
         </is>
       </c>
       <c r="C443" s="3" t="n">
@@ -11676,18 +11500,18 @@
         <v>46127</v>
       </c>
       <c r="E443" s="4" t="n">
-        <v>7500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="inlineStr">
         <is>
-          <t>Embracing innovation in agriculture by peer-to-peer learning via on farm-demonstrations and cost-benefit analysis</t>
+          <t>A services and business incubator for geospatial open-source developments</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-10</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-06</t>
         </is>
       </c>
       <c r="C444" s="3" t="n">
@@ -11697,18 +11521,18 @@
         <v>46127</v>
       </c>
       <c r="E444" s="4" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="inlineStr">
         <is>
-          <t>Empowering the UN Decade of Ocean Science for Sustainable Development</t>
+          <t>Additional activities for the Sustainable Blue Economy Partnership (SBEP)</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-03</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-01</t>
         </is>
       </c>
       <c r="C445" s="3" t="n">
@@ -11718,7 +11542,7 @@
         <v>46127</v>
       </c>
       <c r="E445" s="4" t="n">
-        <v>3000000</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="446">
@@ -11745,12 +11569,12 @@
     <row r="447">
       <c r="A447" s="2" t="inlineStr">
         <is>
-          <t>Additional activities for the Sustainable Blue Economy Partnership (SBEP)</t>
+          <t>Embracing innovation in agriculture by peer-to-peer learning via on farm-demonstrations and cost-benefit analysis</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-03-GOVERNANCE-01</t>
+          <t>HORIZON-CL6-2026-03-GOVERNANCE-10</t>
         </is>
       </c>
       <c r="C447" s="3" t="n">
@@ -11760,7 +11584,7 @@
         <v>46127</v>
       </c>
       <c r="E447" s="4" t="n">
-        <v>38000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="448">
@@ -11892,12 +11716,12 @@
     <row r="454">
       <c r="A454" s="2" t="inlineStr">
         <is>
-          <t>Cooperation on innovative advanced materials with Japan (CSA)</t>
+          <t>Mapping and service finder for Technology Infrastructures (CSA)</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-24</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-46</t>
         </is>
       </c>
       <c r="C454" s="3" t="n">
@@ -11907,18 +11731,18 @@
         <v>46133</v>
       </c>
       <c r="E454" s="4" t="n">
-        <v>800000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="inlineStr">
         <is>
-          <t>Pilot access schemes to Technology Infrastructures for European startups, scaleups and innovative SMEs (CSA)</t>
+          <t>Advanced manufacturing for key products (IA) (Made in Europe partnership)</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-45</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-01</t>
         </is>
       </c>
       <c r="C455" s="3" t="n">
@@ -11928,18 +11752,18 @@
         <v>46133</v>
       </c>
       <c r="E455" s="4" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="inlineStr">
         <is>
-          <t>Mapping and service finder for Technology Infrastructures (CSA)</t>
+          <t>Monitoring of secondary raw materials (CSA)</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-46</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-13</t>
         </is>
       </c>
       <c r="C456" s="3" t="n">
@@ -11949,18 +11773,18 @@
         <v>46133</v>
       </c>
       <c r="E456" s="4" t="n">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="inlineStr">
         <is>
-          <t>Advanced manufacturing for key products (IA) (Made in Europe partnership)</t>
+          <t>Cooperation on innovative advanced materials with Japan (CSA)</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-01</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-24</t>
         </is>
       </c>
       <c r="C457" s="3" t="n">
@@ -11970,18 +11794,18 @@
         <v>46133</v>
       </c>
       <c r="E457" s="4" t="n">
-        <v>6000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="inlineStr">
         <is>
-          <t>Monitoring of secondary raw materials (CSA)</t>
+          <t>Pilot access schemes to Technology Infrastructures for European startups, scaleups and innovative SMEs (CSA)</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-13</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-45</t>
         </is>
       </c>
       <c r="C458" s="3" t="n">
@@ -11991,7 +11815,7 @@
         <v>46133</v>
       </c>
       <c r="E458" s="4" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="459">
@@ -12039,12 +11863,12 @@
     <row r="461">
       <c r="A461" s="2" t="inlineStr">
         <is>
-          <t>Technologies for innovative extraction of critical raw materials (RIA)</t>
+          <t>Attracting management talent for capacity building for Technology Infrastructures staff members (CSA)</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-12</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-44</t>
         </is>
       </c>
       <c r="C461" s="3" t="n">
@@ -12054,7 +11878,7 @@
         <v>46133</v>
       </c>
       <c r="E461" s="4" t="n">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="462">
@@ -12081,12 +11905,12 @@
     <row r="463">
       <c r="A463" s="2" t="inlineStr">
         <is>
-          <t>Efficient capture / purification / utilisation of CO2 for the production of competitive products (RIA) (Processes4Planet partnership)</t>
+          <t>Technologies for innovative extraction of critical raw materials (RIA)</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-31</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-12</t>
         </is>
       </c>
       <c r="C463" s="3" t="n">
@@ -12102,12 +11926,12 @@
     <row r="464">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>Attracting management talent for capacity building for Technology Infrastructures staff members (CSA)</t>
+          <t>Efficient capture / purification / utilisation of CO2 for the production of competitive products (RIA) (Processes4Planet partnership)</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-44</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-31</t>
         </is>
       </c>
       <c r="C464" s="3" t="n">
@@ -12117,7 +11941,7 @@
         <v>46133</v>
       </c>
       <c r="E464" s="4" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="465">
@@ -12270,54 +12094,54 @@
     <row r="472">
       <c r="A472" s="2" t="inlineStr">
         <is>
-          <t>R&amp;I in Support of the Clean Industrial Deal: Decarbonisation of energy intensive industries (IA) (Processes4Planet and Clean Steel partnerships)</t>
+          <t>Economics of climate change and cost of inaction</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>HORIZON-CID-2026-01-01</t>
+          <t>HORIZON-CL5-2026-07-D1-03</t>
         </is>
       </c>
       <c r="C472" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D472" s="3" t="n">
-        <v>46280</v>
+        <v>46127</v>
       </c>
       <c r="E472" s="4" t="n">
-        <v>15000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="inlineStr">
         <is>
-          <t>Non-exhaust emissions in road and railway transport</t>
+          <t>R&amp;I in Support of the Clean Industrial Deal: Clean Technologies for Climate Action</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-06-Two-Stage-D5-19</t>
+          <t>HORIZON-CID-2026-01-02</t>
         </is>
       </c>
       <c r="C473" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D473" s="3" t="n">
-        <v>46303</v>
+        <v>46280</v>
       </c>
       <c r="E473" s="4" t="n">
-        <v>3500000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="inlineStr">
         <is>
-          <t>R&amp;I in Support of the Clean Industrial Deal: Clean Technologies for Climate Action</t>
+          <t>R&amp;I in Support of the Clean Industrial Deal: Decarbonisation of energy intensive industries (IA) (Processes4Planet and Clean Steel partnerships)</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>HORIZON-CID-2026-01-02</t>
+          <t>HORIZON-CID-2026-01-01</t>
         </is>
       </c>
       <c r="C474" s="3" t="n">
@@ -12375,12 +12199,12 @@
     <row r="477">
       <c r="A477" s="2" t="inlineStr">
         <is>
-          <t>Closing knowledge gaps on Earth system science in support of global and regional assessments and climate policy</t>
+          <t>Non-exhaust emissions in road and railway transport</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-08-Two-Stage-D1-06</t>
+          <t>HORIZON-CL5-2026-06-Two-Stage-D5-19</t>
         </is>
       </c>
       <c r="C477" s="3" t="n">
@@ -12390,49 +12214,49 @@
         <v>46303</v>
       </c>
       <c r="E477" s="4" t="n">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="inlineStr">
         <is>
-          <t>Economics of climate change and cost of inaction</t>
+          <t>Closing knowledge gaps on Earth system science in support of global and regional assessments and climate policy</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-07-D1-03</t>
+          <t>HORIZON-CL5-2026-08-Two-Stage-D1-06</t>
         </is>
       </c>
       <c r="C478" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D478" s="3" t="n">
-        <v>46127</v>
+        <v>46303</v>
       </c>
       <c r="E478" s="4" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="inlineStr">
         <is>
-          <t>7th REINFORCING Open Call (Booster Call) on “Responsible Security”</t>
+          <t>Fighting disinformation and effectively communicating on climate change</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>HORIZON-WIDERA-2022-ERA-01-40</t>
+          <t>HORIZON-CL5-2026-07-D1-04</t>
         </is>
       </c>
       <c r="C479" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D479" s="3" t="n">
-        <v>46085.70833333334</v>
+        <v>46127</v>
       </c>
       <c r="E479" s="4" t="n">
-        <v>120000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="480">
@@ -12459,12 +12283,12 @@
     <row r="481">
       <c r="A481" s="2" t="inlineStr">
         <is>
-          <t>AI-assisted digital aircraft design, manufacturing and MRO, towards a competitive aviation</t>
+          <t>Ports of the future (ZEWT Partnership)</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-07</t>
+          <t>HORIZON-CL5-2026-05-D5-11</t>
         </is>
       </c>
       <c r="C481" s="3" t="n">
@@ -12474,81 +12298,81 @@
         <v>46126</v>
       </c>
       <c r="E481" s="4" t="n">
-        <v>5000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="inlineStr">
         <is>
-          <t>Improving climate and weather models for Africa</t>
+          <t>Large-scale demonstration of Heavy-Duty Battery Electric Vehicles (HD BEV) towards long-haul logistics operations (2ZERO Partnership)</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-07-D1-05</t>
+          <t>HORIZON-CL5-2026-05-D5-01</t>
         </is>
       </c>
       <c r="C482" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D482" s="3" t="n">
-        <v>46127</v>
+        <v>46126</v>
       </c>
       <c r="E482" s="4" t="n">
-        <v>7000000</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>Next generation climate monitoring and related capabilities</t>
+          <t>Safety of renewable low and zero-carbon waterborne fuels in port areas: risk assessment, regulatory framework, and guidelines for safe bunkering, handling and storage (ZEWT partnership)</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-07-D1-01</t>
+          <t>HORIZON-CL5-2026-05-D5-13</t>
         </is>
       </c>
       <c r="C483" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D483" s="3" t="n">
-        <v>46127</v>
+        <v>46126</v>
       </c>
       <c r="E483" s="4" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="inlineStr">
         <is>
-          <t>Fighting disinformation and effectively communicating on climate change</t>
+          <t>Shipyards of the future (ZEWT Partnership)</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-07-D1-04</t>
+          <t>HORIZON-CL5-2026-05-D5-12</t>
         </is>
       </c>
       <c r="C484" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D484" s="3" t="n">
-        <v>46127</v>
+        <v>46126</v>
       </c>
       <c r="E484" s="4" t="n">
-        <v>4000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="inlineStr">
         <is>
-          <t>Ports of the future (ZEWT Partnership)</t>
+          <t>Energy-efficient software-defined EVs (2ZERO Partnership)</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-11</t>
+          <t>HORIZON-CL5-2026-05-D5-02</t>
         </is>
       </c>
       <c r="C485" s="3" t="n">
@@ -12558,18 +12382,18 @@
         <v>46126</v>
       </c>
       <c r="E485" s="4" t="n">
-        <v>10500000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="inlineStr">
         <is>
-          <t>Large-scale demonstration of Heavy-Duty Battery Electric Vehicles (HD BEV) towards long-haul logistics operations (2ZERO Partnership)</t>
+          <t>AI-assisted digital aircraft design, manufacturing and MRO, towards a competitive aviation</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-01</t>
+          <t>HORIZON-CL5-2026-05-D5-07</t>
         </is>
       </c>
       <c r="C486" s="3" t="n">
@@ -12579,81 +12403,81 @@
         <v>46126</v>
       </c>
       <c r="E486" s="4" t="n">
-        <v>34000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="inlineStr">
         <is>
-          <t>Shipyards of the future (ZEWT Partnership)</t>
+          <t>Improving climate and weather models for Africa</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-12</t>
+          <t>HORIZON-CL5-2026-07-D1-05</t>
         </is>
       </c>
       <c r="C487" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D487" s="3" t="n">
-        <v>46126</v>
+        <v>46127</v>
       </c>
       <c r="E487" s="4" t="n">
-        <v>10500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="inlineStr">
         <is>
-          <t>Energy-efficient software-defined EVs (2ZERO Partnership)</t>
+          <t>Next generation climate monitoring and related capabilities</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-02</t>
+          <t>HORIZON-CL5-2026-07-D1-01</t>
         </is>
       </c>
       <c r="C488" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D488" s="3" t="n">
-        <v>46126</v>
+        <v>46127</v>
       </c>
       <c r="E488" s="4" t="n">
-        <v>16000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="inlineStr">
         <is>
-          <t>Safety of renewable low and zero-carbon waterborne fuels in port areas: risk assessment, regulatory framework, and guidelines for safe bunkering, handling and storage (ZEWT partnership)</t>
+          <t>7th REINFORCING Open Call (Booster Call) on “Responsible Security”</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-13</t>
+          <t>HORIZON-WIDERA-2022-ERA-01-40</t>
         </is>
       </c>
       <c r="C489" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D489" s="3" t="n">
-        <v>46126</v>
+        <v>46085.70833333334</v>
       </c>
       <c r="E489" s="4" t="n">
-        <v>2000000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="inlineStr">
         <is>
-          <t>Industrial scale up and circularity pathway for IPV technologies (EUPI-PV Partnership)</t>
+          <t>Novel solutions for off-grid storage of renewable energy for critical infrastructures</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-13</t>
+          <t>HORIZON-CL5-2026-03-D3-21</t>
         </is>
       </c>
       <c r="C490" s="3" t="n">
@@ -12663,18 +12487,18 @@
         <v>46112</v>
       </c>
       <c r="E490" s="4" t="n">
-        <v>10500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="inlineStr">
         <is>
-          <t>Pre-commercial appraisal for CO2 aquifer storage</t>
+          <t>Industrial scale up and circularity pathway for IPV technologies (EUPI-PV Partnership)</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-29</t>
+          <t>HORIZON-CL5-2026-03-D3-13</t>
         </is>
       </c>
       <c r="C491" s="3" t="n">
@@ -12684,18 +12508,18 @@
         <v>46112</v>
       </c>
       <c r="E491" s="4" t="n">
-        <v>5000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="inlineStr">
         <is>
-          <t>AI-driven forecasting algorithms for Grid and Consumer friendly Energy Sharing – Societal Readiness pilot</t>
+          <t>Pre-commercial appraisal for CO2 aquifer storage</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-22</t>
+          <t>HORIZON-CL5-2026-03-D3-29</t>
         </is>
       </c>
       <c r="C492" s="3" t="n">
@@ -12705,18 +12529,18 @@
         <v>46112</v>
       </c>
       <c r="E492" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="inlineStr">
         <is>
-          <t>Long-lifetime and optimised use of materials in recyclable Ag and In-free Si PV modules (EUPI-PV Partnership)</t>
+          <t>AI-driven forecasting algorithms for Grid and Consumer friendly Energy Sharing – Societal Readiness pilot</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-12</t>
+          <t>HORIZON-CL5-2026-03-D3-22</t>
         </is>
       </c>
       <c r="C493" s="3" t="n">
@@ -12726,18 +12550,18 @@
         <v>46112</v>
       </c>
       <c r="E493" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="inlineStr">
         <is>
-          <t>Hybrid AI-Control Framework for a next-generation grid-scale energy storage and system integration</t>
+          <t>Long-lifetime and optimised use of materials in recyclable Ag and In-free Si PV modules (EUPI-PV Partnership)</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-20</t>
+          <t>HORIZON-CL5-2026-03-D3-12</t>
         </is>
       </c>
       <c r="C494" s="3" t="n">
@@ -12747,18 +12571,18 @@
         <v>46112</v>
       </c>
       <c r="E494" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="inlineStr">
         <is>
-          <t>Targeting key value chain components for increasing the competitiveness of renewable energy technologies in Europe</t>
+          <t>Hybrid AI-Control Framework for a next-generation grid-scale energy storage and system integration</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-01</t>
+          <t>HORIZON-CL5-2026-03-D3-20</t>
         </is>
       </c>
       <c r="C495" s="3" t="n">
@@ -12768,18 +12592,18 @@
         <v>46112</v>
       </c>
       <c r="E495" s="4" t="n">
-        <v>3000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="inlineStr">
         <is>
-          <t>Affordable and sustainable primary equipment for Future-Ready multi-terminal HVDC Systems</t>
+          <t>Targeting key value chain components for increasing the competitiveness of renewable energy technologies in Europe</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-19</t>
+          <t>HORIZON-CL5-2026-03-D3-01</t>
         </is>
       </c>
       <c r="C496" s="3" t="n">
@@ -12789,18 +12613,18 @@
         <v>46112</v>
       </c>
       <c r="E496" s="4" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>Novel solutions for off-grid storage of renewable energy for critical infrastructures</t>
+          <t>Grid-forming capabilities for more resilient and RES-based electricity grids</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-21</t>
+          <t>HORIZON-CL5-2026-03-D3-18</t>
         </is>
       </c>
       <c r="C497" s="3" t="n">
@@ -12810,18 +12634,18 @@
         <v>46112</v>
       </c>
       <c r="E497" s="4" t="n">
-        <v>4000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>Grid-forming capabilities for more resilient and RES-based electricity grids</t>
+          <t>Development of direct recycling processes (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-18</t>
+          <t>HORIZON-CL5-2026-03-D2-02</t>
         </is>
       </c>
       <c r="C498" s="3" t="n">
@@ -12831,49 +12655,49 @@
         <v>46112</v>
       </c>
       <c r="E498" s="4" t="n">
-        <v>10000000</v>
+        <v>4700000</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="inlineStr">
         <is>
-          <t>Development of direct recycling processes (BATT4EU Partnership)</t>
+          <t>SUNDANSE – Open Call #1 (Sediment Matters – The Danube Call)</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D2-02</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C499" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D499" s="3" t="n">
-        <v>46112</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="E499" s="4" t="n">
-        <v>4700000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>SUNDANSE – Open Call #1 (Sediment Matters – The Danube Call)</t>
+          <t>Affordable and sustainable primary equipment for Future-Ready multi-terminal HVDC Systems</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
+          <t>HORIZON-CL5-2026-03-D3-19</t>
         </is>
       </c>
       <c r="C500" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D500" s="3" t="n">
-        <v>46071.70833333334</v>
+        <v>46112</v>
       </c>
       <c r="E500" s="4" t="n">
-        <v>300000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="501">
@@ -15763,12 +15587,12 @@
     <row r="639">
       <c r="A639" s="2" t="inlineStr">
         <is>
-          <t>Scaling up deep tech ecosystems</t>
+          <t>European network of national competence centers for innovation procurement</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>HORIZON-EIE-2026-01-CONNECT-03</t>
+          <t>HORIZON-EIE-2026-01-CONNECT-01</t>
         </is>
       </c>
       <c r="C639" s="3" t="n">
@@ -15778,18 +15602,18 @@
         <v>46042</v>
       </c>
       <c r="E639" s="4" t="n">
-        <v>5000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="inlineStr">
         <is>
-          <t>European network of national competence centers for innovation procurement</t>
+          <t>Expanding Investment Ecosystems</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>HORIZON-EIE-2026-01-CONNECT-01</t>
+          <t>HORIZON-EIE-2026-01-CONNECT-02</t>
         </is>
       </c>
       <c r="C640" s="3" t="n">
@@ -15799,18 +15623,18 @@
         <v>46042</v>
       </c>
       <c r="E640" s="4" t="n">
-        <v>4500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="inlineStr">
         <is>
-          <t>Expanding Investment Ecosystems</t>
+          <t>Scaling up deep tech ecosystems</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>HORIZON-EIE-2026-01-CONNECT-02</t>
+          <t>HORIZON-EIE-2026-01-CONNECT-03</t>
         </is>
       </c>
       <c r="C641" s="3" t="n">
@@ -15820,7 +15644,7 @@
         <v>46042</v>
       </c>
       <c r="E641" s="4" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="642">

--- a/horizon-reports/horizon_rapor_latest.xlsx
+++ b/horizon-reports/horizon_rapor_latest.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Tüm Açık Çağrılar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Yeni Açılan Çağrılar'!$A$1:$E$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tüm Misyon Çağrıları'!$A$1:$E$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Yeni Açılan Çağrılar'!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tüm Misyon Çağrıları'!$A$1:$E$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tüm Açık Çağrılar'!$A$1:$E$700</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,446 +486,50 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Technical innovation to protect ecosystems and to scale up their restoration</t>
+          <t>Researching the technical, social &amp; economic factors impacting the energy performance of Smart Buildings (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-03</t>
+          <t>HORIZON-CL5-2026-09-D4-01</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>46497</v>
+        <v>46147</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>46652</v>
+        <v>46280</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7000000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Technical innovation to protect ecosystems and to scale up their restoration</t>
+          <t>Advanced data platforms to integrate whole life carbon in building information tools, assessments, and certification (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-03</t>
+          <t>HORIZON-CL5-2026-09-D4-03</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>46497</v>
+        <v>46147</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>46652</v>
+        <v>46280</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Government in transition – how governments change the way they work and prepare the civil service for the future</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-03</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>46154</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Fostering cooperation and integration between SSH and STEM research and innovation in the EU</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-10</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>46154</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Creative alliances: Fostering global partnerships in cultural policies and CCI innovation</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-05</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>46154</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>“Artistic intelligence” : harnessing the power of the arts to address complex challenges, enhance soft skills and boost innovation and competitiveness</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-01</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>46154</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4500000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Contribution of basic skills to productivity, innovation, competitiveness and economic growth</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-05</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>46154</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Towards a fair and transparent market for cultural and creative content in the era of generative AI</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-04</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>46154</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Open topic: Strengthen Europe's social model and sustainable competitiveness through productivity</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-02</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>46154</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Electoral integrity in the digital context</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-08</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>46154</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Collection, Generation and Validation of Datasets  suitable for training AI Models for 6G Networks and for AIaaS</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-B-01</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>SNS Operations and Output optimisation</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-01</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>EU-India International Collaboration</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-03</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>6G Devices</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-02</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>SNS experimental infrastructure</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-C-01</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>46051</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>46141</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Advanced Local Digital Twins using AI for Early Warning and Preparedness (IA)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-09</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>46127</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Developing and demonstrating core technologies for Virtual Worlds and Web 4.0 (IA) (Virtual worlds Partnership)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-04-HUMAN-01</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>46127</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Apply AI: Robotics for Manufacturing: Advancing Core Skills through Technical Challenges (RIA) (Partnership in AI, Data and Robotics)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-08</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>46127</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>18000000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Challenge-Driven GenAI4EU Booster in Apply AI prioritised sectors (RIA) (AI/Data/Robotics Partnership)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-04-DIGITAL-EMERGING-19</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>46127</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Monitoring of secondary raw materials (CSA)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-13</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>46028</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>46133</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>4000000</v>
+        <v>5250000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E21"/>
+  <autoFilter ref="A1:E3"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -937,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,33 +880,33 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Living labs to enhance soil health in managed forests and in natural/semi-natural lands</t>
+          <t>Pragmatic clinical trials to optimise immunotherapeutic interventions for patients with refractory cancers</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-02-two-stage</t>
+          <t>HORIZON-MISS-2026-02-CANCER-03</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
-        <v>46065</v>
+        <v>46063</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>46280</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>12000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>Boosting mental health of young cancer survivors through the European Cancer Patient Digital Centre (ECPDC)</t>
+          <t>Virtual Human Twin (VHT) Models for Cancer Research</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-05</t>
+          <t>HORIZON-MISS-2026-02-CANCER-01</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
@@ -1312,7 +916,7 @@
         <v>46280</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="18">
@@ -1339,12 +943,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Pragmatic clinical trials to optimise immunotherapeutic interventions for patients with refractory cancers</t>
+          <t>Improve the Quality of Life of older cancer patients</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-03</t>
+          <t>HORIZON-MISS-2026-02-CANCER-07</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
@@ -1354,18 +958,18 @@
         <v>46280</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Virtual Human Twin (VHT) Models for Cancer Research</t>
+          <t>Boosting mental health of young cancer survivors through the European Cancer Patient Digital Centre (ECPDC)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-01</t>
+          <t>HORIZON-MISS-2026-02-CANCER-05</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
@@ -1375,18 +979,18 @@
         <v>46280</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>8000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Improve the Quality of Life of older cancer patients</t>
+          <t>Development of a research capacity building programme on cancer with and for Ukraine</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-07</t>
+          <t>HORIZON-MISS-2026-02-CANCER-06</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
@@ -1402,12 +1006,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Development of a research capacity building programme on cancer with and for Ukraine</t>
+          <t>Microbiome for early cancer prediction before the onset of disease</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-06</t>
+          <t>HORIZON-MISS-2026-02-CANCER-02</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
@@ -1417,28 +1021,28 @@
         <v>46280</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>5000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Microbiome for early cancer prediction before the onset of disease</t>
+          <t>Energy efficient urban and sub-urban public transport, complemented by shared mobility</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-02</t>
+          <t>HORIZON-MISS-2026-04-CIT-01</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>46063</v>
+        <v>46057</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>46280</v>
+        <v>46303</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="24">
@@ -1507,117 +1111,117 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>Energy efficient urban and sub-urban public transport, complemented by shared mobility</t>
+          <t>Monitoring soil health in practice: equipping stakeholders to sample, analyse, and interpret soil health indicators</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-01</t>
+          <t>HORIZON-MISS-2026-05-SOIL-01</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>46303</v>
+        <v>46288</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Monitoring soil health in practice: equipping stakeholders to sample, analyse, and interpret soil health indicators</t>
+          <t>Transition to low-temperature heating solutions in multi-apartment buildings</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-01</t>
+          <t>HORIZON-MISS-2026-04-CIT-02</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>46288</v>
+        <v>46303</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>Transition to low-temperature heating solutions in multi-apartment buildings</t>
+          <t>Leveraging long-term field experiments and other datasets to develop AI-ready decision support systems for sustainable soil management</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-02</t>
+          <t>HORIZON-MISS-2026-05-SOIL-04</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>46303</v>
+        <v>46288</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Leveraging long-term field experiments and other datasets to develop AI-ready decision support systems for sustainable soil management</t>
+          <t>SUNDANSE – Open Call #1 (Sediment Matters – The Danube Call)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-04</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>46057</v>
+        <v>46009</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>46288</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>9000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>SUNDANSE – Open Call #1 (Sediment Matters – The Danube Call)</t>
+          <t>Understanding and overcoming barriers to the scale-up of innovations supporting EU Missions</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
+          <t>HORIZON-MISS-2026-07-CROSS-02</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
-        <v>46009</v>
+        <v>46000</v>
       </c>
       <c r="D31" s="3" t="n">
-        <v>46071.70833333334</v>
+        <v>46112</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>300000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Understanding and overcoming barriers to the scale-up of innovations supporting EU Missions</t>
+          <t>Strengthening skills and capacity for the deployment of EU Missions</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-07-CROSS-02</t>
+          <t>HORIZON-MISS-2026-07-CROSS-01</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
@@ -1627,18 +1231,18 @@
         <v>46112</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Strengthening skills and capacity for the deployment of EU Missions</t>
+          <t>Advancing lead markets and proof-of-concept for deep tech solutions contributing to EU Missions</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-07-CROSS-01</t>
+          <t>HORIZON-MISS-2026-07-CROSS-03</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
@@ -1648,76 +1252,76 @@
         <v>46112</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Advancing lead markets and proof-of-concept for deep tech solutions contributing to EU Missions</t>
+          <t>iCOSHELLs Open Call: New innovations and solutions to be tested by the Living Labs</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-07-CROSS-03</t>
+          <t>HORIZON-MISS-2023-SOIL-01-08</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>46000</v>
+        <v>45995</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>46112</v>
+        <v>46057.58333333334</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>4000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>iCOSHELLs Open Call: New innovations and solutions to be tested by the Living Labs</t>
+          <t xml:space="preserve">Scaling up the SEACURE solutions across Associated Regions'. </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-08</t>
+          <t>HORIZON-MISS-2023-OCEAN-SOIL-01-01</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>46057.58333333334</v>
+        <v>46081.04166666666</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>900000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scaling up the SEACURE solutions across Associated Regions'. </t>
+          <t>BlueActionBANOS 1st Open Call for Transition Agendas</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-SOIL-01-01</t>
+          <t>HORIZON-MISS-2024-OCEAN-02-01</t>
         </is>
       </c>
       <c r="C36" s="3" t="n">
-        <v>45992</v>
+        <v>45989</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>46081.04166666666</v>
+        <v>46171.58333333334</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BlueActionBANOS 1st Open Call for Transition Agendas</t>
+          <t>BlueActionAA – Community Led-Pilot Action Call (BAAC-01)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1732,13 +1336,13 @@
         <v>46171.58333333334</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BlueActionAA – Community Led-Pilot Action Call (BAAC-01)</t>
+          <t>BlueActionBANOS Open Call for Community-Led Actions</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1759,7 +1363,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BlueActionBANOS Open Call for Community-Led Actions</t>
+          <t xml:space="preserve">TASC-RestoreMed Open Call Type B: Transition Agenda Development (TAD) </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1768,19 +1372,19 @@
         </is>
       </c>
       <c r="C39" s="3" t="n">
-        <v>45989</v>
+        <v>45988</v>
       </c>
       <c r="D39" s="3" t="n">
-        <v>46171.58333333334</v>
+        <v>46169.70833333334</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>7000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TASC-RestoreMed Open Call Type B: Transition Agenda Development (TAD) </t>
+          <t xml:space="preserve">TASC-RestoreMed Open Call Type A: Community-Led Actions (CLA) </t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1795,13 +1399,13 @@
         <v>46169.70833333334</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">TASC-RestoreMed Open Call Type A: Community-Led Actions (CLA) </t>
+          <t>SoS2LearnDBS’s Open call for Community-Led Actions to restore Danube-Black Sea Waters (OC-CLed-SoS2LearnDBS-2025)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1813,7 +1417,7 @@
         <v>45988</v>
       </c>
       <c r="D41" s="3" t="n">
-        <v>46169.70833333334</v>
+        <v>46111.5</v>
       </c>
       <c r="E41" s="4" t="n">
         <v>7000000</v>
@@ -1822,314 +1426,293 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>SoS2LearnDBS’s Open call for Community-Led Actions to restore Danube-Black Sea Waters (OC-CLed-SoS2LearnDBS-2025)</t>
+          <t>Call for MRV providers to test solutions under the LILAS4SOILS Project</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2024-OCEAN-02-01</t>
+          <t>HORIZON-MISS-2023-SOIL-01-09</t>
         </is>
       </c>
       <c r="C42" s="3" t="n">
-        <v>45988</v>
+        <v>45985</v>
       </c>
       <c r="D42" s="3" t="n">
-        <v>46111.5</v>
+        <v>46046.99930555555</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>7000000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Call for MRV providers to test solutions under the LILAS4SOILS Project</t>
+          <t>Open Call for Financial Support to Third Parties as a mechanism to showcase the feasibility, replicability and scalability of innovation solutions through Public Authorities in the Mediterranean</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-09</t>
+          <t>HORIZON-MISS-2023-OCEAN-SOIL-01-01</t>
         </is>
       </c>
       <c r="C43" s="3" t="n">
-        <v>45985</v>
+        <v>45959</v>
       </c>
       <c r="D43" s="3" t="n">
-        <v>46046.99930555555</v>
+        <v>46052.70833333334</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>60000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>Open Call for Financial Support to Third Parties as a mechanism to showcase the feasibility, replicability and scalability of innovation solutions through Public Authorities in the Mediterranean</t>
+          <t>EUROLakes Replication Call</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-SOIL-01-01</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-04</t>
         </is>
       </c>
       <c r="C44" s="3" t="n">
-        <v>45959</v>
+        <v>45946</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>46052.70833333334</v>
+        <v>46037.70833333334</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>500000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>EUROLakes Replication Call</t>
+          <t>TIDAL ArtS Residency Call</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-04</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-11</t>
         </is>
       </c>
       <c r="C45" s="3" t="n">
-        <v>45946</v>
+        <v>45945</v>
       </c>
       <c r="D45" s="3" t="n">
-        <v>46037.70833333334</v>
+        <v>46061.99930555555</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>225000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>TIDAL ArtS Residency Call</t>
+          <t>Financial Support for Third Parties: iNNO SED Open Call for Associated Regions</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-11</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C46" s="3" t="n">
-        <v>45945</v>
+        <v>45915</v>
       </c>
       <c r="D46" s="3" t="n">
-        <v>46061.99930555555</v>
+        <v>45978.66666666666</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>200000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Financial Support for Third Parties: iNNO SED Open Call for Associated Regions</t>
+          <t>FERRO Open Call for Associated Regions</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-04</t>
         </is>
       </c>
       <c r="C47" s="3" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
       <c r="D47" s="3" t="n">
-        <v>45978.66666666666</v>
+        <v>45991.70833333334</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>FERRO Open Call for Associated Regions</t>
+          <t>DANUBElifelines Call for Associated Regions</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-04</t>
+          <t>HORIZON-MISS-2024-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C48" s="3" t="n">
         <v>45901</v>
       </c>
       <c r="D48" s="3" t="n">
-        <v>45991.70833333334</v>
+        <v>46022.99930555555</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>300000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>DANUBElifelines Call for Associated Regions</t>
+          <t>Financial Support to Third Parties: DANSER Open Call for Associated Regions</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2024-OCEAN-01-02</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C49" s="3" t="n">
         <v>45901</v>
       </c>
       <c r="D49" s="3" t="n">
-        <v>46022.99930555555</v>
+        <v>45962.625</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>500000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Financial Support to Third Parties: DANSER Open Call for Associated Regions</t>
+          <t>SoilTribes | Open Call to Support Initiatives Led by Multi-Actor Teams</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
+          <t>HORIZON-MISS-2023-SOIL-01-07</t>
         </is>
       </c>
       <c r="C50" s="3" t="n">
-        <v>45901</v>
+        <v>45880</v>
       </c>
       <c r="D50" s="3" t="n">
-        <v>45962.625</v>
+        <v>45940.70833333334</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>390000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>SoilTribes | Open Call to Support Initiatives Led by Multi-Actor Teams</t>
+          <t>PartArt4OW Second Call</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-07</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-11</t>
         </is>
       </c>
       <c r="C51" s="3" t="n">
-        <v>45880</v>
+        <v>45870</v>
       </c>
       <c r="D51" s="3" t="n">
-        <v>45940.70833333334</v>
+        <v>45932.70833333334</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1750000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>PartArt4OW Second Call</t>
+          <t xml:space="preserve">SOILSCAPE Open Call </t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-11</t>
+          <t>HORIZON-MISS-2023-SOIL-01-07</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
-        <v>45870</v>
+        <v>45810</v>
       </c>
       <c r="D52" s="3" t="n">
-        <v>45932.70833333334</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <v>350000</v>
+        <v>45930.25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">SOILSCAPE Open Call </t>
+          <t>Boosting the transformation towards climate-neutral cities, the net-zero economy and open strategic autonomy through Pre-Commercial Procurement (PCP)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-07</t>
+          <t>HORIZON-MISS-2026-04-PCP-CIT-01</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
-        <v>45810</v>
+        <v>45783</v>
       </c>
       <c r="D53" s="3" t="n">
-        <v>45930.25</v>
+        <v>46042</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>7000000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Boosting the transformation towards climate-neutral cities, the net-zero economy and open strategic autonomy through Pre-Commercial Procurement (PCP)</t>
+          <t>Open Call for Farmers to contribute to the LILAS4SOILS Project</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-PCP-CIT-01</t>
+          <t>HORIZON-MISS-2023-SOIL-01-09</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
-        <v>45783</v>
+        <v>45727</v>
       </c>
       <c r="D54" s="3" t="n">
-        <v>46042</v>
+        <v>45793.99930555555</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>7000000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Open Call for Farmers to contribute to the LILAS4SOILS Project</t>
+          <t>Call for marine biodiversity (monitoring) data</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-SOIL-01-09</t>
+          <t>HORIZON-MISS-2022-OCEAN-01-07</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
-        <v>45727</v>
+        <v>45644</v>
       </c>
       <c r="D55" s="3" t="n">
-        <v>45793.99930555555</v>
-      </c>
-      <c r="E55" s="4" t="n">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Call for marine biodiversity (monitoring) data</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2022-OCEAN-01-07</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>45644</v>
-      </c>
-      <c r="D56" s="3" t="n">
         <v>45716.99930555555</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E56"/>
+  <autoFilter ref="A1:E55"/>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
@@ -2185,7 +1768,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A53" r:id="rId52"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A54" r:id="rId53"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A55" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A56" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3292,12 +2874,12 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Accelerating uptake through open proposals for advanced SME innovation</t>
+          <t>Effective and evidence-based responses to the increased availability and use of synthetic drugs and stimulants in Europe</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-SSRI-01</t>
+          <t>HORIZON-CL3-2027-01-FCT-05</t>
         </is>
       </c>
       <c r="C52" s="3" t="n">
@@ -3307,18 +2889,18 @@
         <v>46695</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>Trusted, secure, quality future digital travel credentials</t>
+          <t>Detection and characterisation of threats or illegal/ smuggled goods in cargo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-BM-02</t>
+          <t>HORIZON-CL3-2027-01-BM-03</t>
         </is>
       </c>
       <c r="C53" s="3" t="n">
@@ -3328,18 +2910,18 @@
         <v>46695</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>4000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>Demand-led innovation in security</t>
+          <t>Open grounds for future pre-commercial procurement of innovative security technologies</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-SSRI-03</t>
+          <t>HORIZON-CL3-2027-01-SSRI-02</t>
         </is>
       </c>
       <c r="C54" s="3" t="n">
@@ -3349,18 +2931,18 @@
         <v>46695</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>5830000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>Open Topic on advanced protective gear optimized for CBRN-E (Chemical, Biological, Radiological, Nuclear, Explosives) environments and new generation of smart protective equipment for disaster responders</t>
+          <t>Enhancing preparedness for large-scale cross-border disasters</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-DRS-01</t>
+          <t>HORIZON-CL3-2027-01-DRS-04</t>
         </is>
       </c>
       <c r="C55" s="3" t="n">
@@ -3370,18 +2952,18 @@
         <v>46695</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>3835000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>Open grounds for future pre-commercial procurement of innovative security technologies</t>
+          <t>Enhancing physical protection of critical infrastructures</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-SSRI-02</t>
+          <t>HORIZON-CL3-2027-01-INFRA-01</t>
         </is>
       </c>
       <c r="C56" s="3" t="n">
@@ -3391,18 +2973,18 @@
         <v>46695</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Enhancing preparedness for large-scale cross-border disasters</t>
+          <t>Open topic on increasing security of citizens against terrorism, including in public spaces</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-DRS-04</t>
+          <t>HORIZON-CL3-2027-01-FCT-04</t>
         </is>
       </c>
       <c r="C57" s="3" t="n">
@@ -3412,18 +2994,18 @@
         <v>46695</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>4000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Enhancing physical protection of critical infrastructures</t>
+          <t>Demand-led innovation in security</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-INFRA-01</t>
+          <t>HORIZON-CL3-2027-01-SSRI-03</t>
         </is>
       </c>
       <c r="C58" s="3" t="n">
@@ -3433,18 +3015,18 @@
         <v>46695</v>
       </c>
       <c r="E58" s="4" t="n">
-        <v>6000000</v>
+        <v>5830000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>Open topic on increasing security of citizens against terrorism, including in public spaces</t>
+          <t>Open Topic on advanced protective gear optimized for CBRN-E (Chemical, Biological, Radiological, Nuclear, Explosives) environments and new generation of smart protective equipment for disaster responders</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-04</t>
+          <t>HORIZON-CL3-2027-01-DRS-01</t>
         </is>
       </c>
       <c r="C59" s="3" t="n">
@@ -3454,18 +3036,18 @@
         <v>46695</v>
       </c>
       <c r="E59" s="4" t="n">
-        <v>4500000</v>
+        <v>3835000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>Effective and evidence-based responses to the increased availability and use of synthetic drugs and stimulants in Europe</t>
+          <t>Accelerating uptake through open proposals for advanced SME innovation</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-05</t>
+          <t>HORIZON-CL3-2027-01-SSRI-01</t>
         </is>
       </c>
       <c r="C60" s="3" t="n">
@@ -3475,18 +3057,18 @@
         <v>46695</v>
       </c>
       <c r="E60" s="4" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>Detection and characterisation of threats or illegal/ smuggled goods in cargo</t>
+          <t>Trusted, secure, quality future digital travel credentials</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-BM-03</t>
+          <t>HORIZON-CL3-2027-01-BM-02</t>
         </is>
       </c>
       <c r="C61" s="3" t="n">
@@ -3496,18 +3078,18 @@
         <v>46695</v>
       </c>
       <c r="E61" s="4" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>Community policing in diverse societies in Europe</t>
+          <t>Open topic on enhanced prevention, detection and deterrence of societal issues related to various forms of crime</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-02</t>
+          <t>HORIZON-CL3-2027-01-FCT-03</t>
         </is>
       </c>
       <c r="C62" s="3" t="n">
@@ -3523,12 +3105,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>Impact of malicious use of Open-Source Intelligence on critical infrastructure business continuity</t>
+          <t>Enhancing decision support system for disaster crises: leveraging emerging technologies for improved civil preparedness and crisis management</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-INFRA-02</t>
+          <t>HORIZON-CL3-2027-01-DRS-03</t>
         </is>
       </c>
       <c r="C63" s="3" t="n">
@@ -3538,18 +3120,18 @@
         <v>46695</v>
       </c>
       <c r="E63" s="4" t="n">
-        <v>3835000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>Open topic on research and innovation for effective management of EU external borders that promotes fundamental rights and EU values</t>
+          <t>Societal resilience, engagement of the younger generations and digital innovation for disaster resilience</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-BM-01</t>
+          <t>HORIZON-CL3-2027-01-DRS-02</t>
         </is>
       </c>
       <c r="C64" s="3" t="n">
@@ -3559,18 +3141,18 @@
         <v>46695</v>
       </c>
       <c r="E64" s="4" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>Societal resilience, engagement of the younger generations and digital innovation for disaster resilience</t>
+          <t>Community policing in diverse societies in Europe</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-DRS-02</t>
+          <t>HORIZON-CL3-2027-01-FCT-02</t>
         </is>
       </c>
       <c r="C65" s="3" t="n">
@@ -3586,12 +3168,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>Online harms detection and investigation tools using a short development cycle model</t>
+          <t>Impact of malicious use of Open-Source Intelligence on critical infrastructure business continuity</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-01</t>
+          <t>HORIZON-CL3-2027-01-INFRA-02</t>
         </is>
       </c>
       <c r="C66" s="3" t="n">
@@ -3601,18 +3183,18 @@
         <v>46695</v>
       </c>
       <c r="E66" s="4" t="n">
-        <v>7833000</v>
+        <v>3835000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>Open topic on enhanced prevention, detection and deterrence of societal issues related to various forms of crime</t>
+          <t>Online harms detection and investigation tools using a short development cycle model</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-FCT-03</t>
+          <t>HORIZON-CL3-2027-01-FCT-01</t>
         </is>
       </c>
       <c r="C67" s="3" t="n">
@@ -3622,18 +3204,18 @@
         <v>46695</v>
       </c>
       <c r="E67" s="4" t="n">
-        <v>3000000</v>
+        <v>7833000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>Enhancing decision support system for disaster crises: leveraging emerging technologies for improved civil preparedness and crisis management</t>
+          <t>Open topic on research and innovation for effective management of EU external borders that promotes fundamental rights and EU values</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2027-01-DRS-03</t>
+          <t>HORIZON-CL3-2027-01-BM-01</t>
         </is>
       </c>
       <c r="C68" s="3" t="n">
@@ -3643,18 +3225,18 @@
         <v>46695</v>
       </c>
       <c r="E68" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>Integrating circularity in LCA-based modelling frameworks for renovation of buildings (Built4People Partnership)</t>
+          <t>Demonstration of industrial excess/waste heat conversion to mechanical or electrical power</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D4-07</t>
+          <t>HORIZON-CL5-2027-05-D4-09</t>
         </is>
       </c>
       <c r="C69" s="3" t="n">
@@ -3670,12 +3252,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>On-site robotic and automated techniques for building renovation and new construction</t>
+          <t>Thermal energy optimisation and waste heat recovery of high energy demand IT rooms in buildings or small edge data centres</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D4-05</t>
+          <t>HORIZON-CL5-2027-05-D4-06</t>
         </is>
       </c>
       <c r="C70" s="3" t="n">
@@ -3685,18 +3267,18 @@
         <v>46645</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>6750000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>Demonstration of industrial excess/waste heat conversion to mechanical or electrical power</t>
+          <t>Demonstration for Long-duration Battery Energy Storage Systems (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D4-09</t>
+          <t>HORIZON-CL5-2027-05-D2-08</t>
         </is>
       </c>
       <c r="C71" s="3" t="n">
@@ -3706,18 +3288,18 @@
         <v>46645</v>
       </c>
       <c r="E71" s="4" t="n">
-        <v>6750000</v>
+        <v>9400000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>Thermal energy optimisation and waste heat recovery of high energy demand IT rooms in buildings or small edge data centres</t>
+          <t>Integrating circularity in LCA-based modelling frameworks for renovation of buildings (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D4-06</t>
+          <t>HORIZON-CL5-2027-05-D4-07</t>
         </is>
       </c>
       <c r="C72" s="3" t="n">
@@ -3727,18 +3309,18 @@
         <v>46645</v>
       </c>
       <c r="E72" s="4" t="n">
-        <v>5250000</v>
+        <v>6750000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>Demonstration for Long-duration Battery Energy Storage Systems (BATT4EU Partnership)</t>
+          <t>On-site robotic and automated techniques for building renovation and new construction</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-05-D2-08</t>
+          <t>HORIZON-CL5-2027-05-D4-05</t>
         </is>
       </c>
       <c r="C73" s="3" t="n">
@@ -3748,18 +3330,18 @@
         <v>46645</v>
       </c>
       <c r="E73" s="4" t="n">
-        <v>9400000</v>
+        <v>6750000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>Towards commercialization of food systems microbiome solutions</t>
+          <t>Strengthening rural communities' resilience to shocks</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-07</t>
+          <t>HORIZON-CL6-2027-02-COMMUNITIES-01</t>
         </is>
       </c>
       <c r="C74" s="3" t="n">
@@ -3769,18 +3351,18 @@
         <v>46653</v>
       </c>
       <c r="E74" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>Enhancing farmer's profitability and resilience through innovations for diversified crops and value chains</t>
+          <t>Empowering local urban food systems entrepreneurship and innovation</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-05</t>
+          <t>HORIZON-CL6-2027-02-COMMUNITIES-02</t>
         </is>
       </c>
       <c r="C75" s="3" t="n">
@@ -3796,12 +3378,12 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>Unlocking a safe operating space for Antarctica and the Southern Ocean</t>
+          <t>Increasing mitigation of GHG emissions and feed efficiency through feed additives</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-04</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-02</t>
         </is>
       </c>
       <c r="C76" s="3" t="n">
@@ -3811,18 +3393,18 @@
         <v>46653</v>
       </c>
       <c r="E76" s="4" t="n">
-        <v>11000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>Carbon farming innovation and scale-up</t>
+          <t>African Union – European Union Partnership on Food and Nutrition Security and Sustainable Agriculture (FNSSA)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-03</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-09</t>
         </is>
       </c>
       <c r="C77" s="3" t="n">
@@ -3832,18 +3414,18 @@
         <v>46653</v>
       </c>
       <c r="E77" s="4" t="n">
-        <v>6000000</v>
+        <v>6750000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>Strengthening evidence-based policies for the resilience of European agriculture and forestry and related supply chains against crises and systemic risks</t>
+          <t>Microbiome for terrestrial livestock sustainability and health within a One Health approach</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-02</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-03</t>
         </is>
       </c>
       <c r="C78" s="3" t="n">
@@ -3853,18 +3435,18 @@
         <v>46653</v>
       </c>
       <c r="E78" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>AI-powered foodome characterization</t>
+          <t>Increasing the resilience of agriculture in water and nutrient-scarce environments through digital innovations</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-08</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-01</t>
         </is>
       </c>
       <c r="C79" s="3" t="n">
@@ -3874,18 +3456,18 @@
         <v>46653</v>
       </c>
       <c r="E79" s="4" t="n">
-        <v>7800000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>Unleashing the potential of sustainable small-scale aquatic food production and recreational fisheries for prosperous local communities</t>
+          <t>Governance, sustainable development and international politics of a future ice-free Arctic</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-06</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-01</t>
         </is>
       </c>
       <c r="C80" s="3" t="n">
@@ -3895,18 +3477,18 @@
         <v>46653</v>
       </c>
       <c r="E80" s="4" t="n">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>Governance, sustainable development and international politics of a future ice-free Arctic</t>
+          <t>Improving understanding of the contribution of the organic farming sector to sustainability</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-CLIMATE-01</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-04</t>
         </is>
       </c>
       <c r="C81" s="3" t="n">
@@ -3916,18 +3498,18 @@
         <v>46653</v>
       </c>
       <c r="E81" s="4" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Improving understanding of the contribution of the organic farming sector to sustainability</t>
+          <t>AI-powered foodome characterization</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-04</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-08</t>
         </is>
       </c>
       <c r="C82" s="3" t="n">
@@ -3937,18 +3519,18 @@
         <v>46653</v>
       </c>
       <c r="E82" s="4" t="n">
-        <v>6000000</v>
+        <v>7800000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>Increasing the resilience of agriculture in water and nutrient-scarce environments through digital innovations</t>
+          <t>Unleashing the potential of sustainable small-scale aquatic food production and recreational fisheries for prosperous local communities</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-01</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-06</t>
         </is>
       </c>
       <c r="C83" s="3" t="n">
@@ -3958,18 +3540,18 @@
         <v>46653</v>
       </c>
       <c r="E83" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>Strengthening rural communities' resilience to shocks</t>
+          <t>Towards commercialization of food systems microbiome solutions</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-COMMUNITIES-01</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-07</t>
         </is>
       </c>
       <c r="C84" s="3" t="n">
@@ -3979,18 +3561,18 @@
         <v>46653</v>
       </c>
       <c r="E84" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>Empowering local urban food systems entrepreneurship and innovation</t>
+          <t>Enhancing farmer's profitability and resilience through innovations for diversified crops and value chains</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-COMMUNITIES-02</t>
+          <t>HORIZON-CL6-2027-02-FARM2FORK-05</t>
         </is>
       </c>
       <c r="C85" s="3" t="n">
@@ -4006,12 +3588,12 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>Increasing mitigation of GHG emissions and feed efficiency through feed additives</t>
+          <t>Unlocking a safe operating space for Antarctica and the Southern Ocean</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-02</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-04</t>
         </is>
       </c>
       <c r="C86" s="3" t="n">
@@ -4021,18 +3603,18 @@
         <v>46653</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>6000000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>African Union – European Union Partnership on Food and Nutrition Security and Sustainable Agriculture (FNSSA)</t>
+          <t>Carbon farming innovation and scale-up</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-09</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-03</t>
         </is>
       </c>
       <c r="C87" s="3" t="n">
@@ -4042,18 +3624,18 @@
         <v>46653</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>6750000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Microbiome for terrestrial livestock sustainability and health within a One Health approach</t>
+          <t>Strengthening evidence-based policies for the resilience of European agriculture and forestry and related supply chains against crises and systemic risks</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-02-FARM2FORK-03</t>
+          <t>HORIZON-CL6-2027-02-CLIMATE-02</t>
         </is>
       </c>
       <c r="C88" s="3" t="n">
@@ -4063,18 +3645,18 @@
         <v>46653</v>
       </c>
       <c r="E88" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Enhancing the competitiveness of organic crop breeding: focus on intercropping adapted varieties</t>
+          <t>Increasing the circularity of bio-based sector: upcycling and recycling for higher value and environmental benefits</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-09</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-09</t>
         </is>
       </c>
       <c r="C89" s="3" t="n">
@@ -4090,12 +3672,12 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Increasing the circularity of bio-based sector: upcycling and recycling for higher value and environmental benefits</t>
+          <t>Accelerating the transition to a nature positive economy: Integrating biodiversity into the private sector</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-09</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
         </is>
       </c>
       <c r="C90" s="3" t="n">
@@ -4105,18 +3687,18 @@
         <v>46652</v>
       </c>
       <c r="E90" s="4" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Innovative circular solutions for end-of-life footwear through collection, sorting and recycling</t>
+          <t>Living Labs for the eradication and/or management of invasive alien species</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-05</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-04</t>
         </is>
       </c>
       <c r="C91" s="3" t="n">
@@ -4126,18 +3708,18 @@
         <v>46652</v>
       </c>
       <c r="E91" s="4" t="n">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>Biotechnology application for CCU</t>
+          <t>Replacing hazardous substances in biocidal products</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-08</t>
+          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-01</t>
         </is>
       </c>
       <c r="C92" s="3" t="n">
@@ -4147,18 +3729,18 @@
         <v>46652</v>
       </c>
       <c r="E92" s="4" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>Accelerating the transition to a nature positive economy: Integrating biodiversity into the private sector</t>
+          <t>Science-policy support to the implementation of EU and global biodiversity policies and strategies</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-05</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-02</t>
         </is>
       </c>
       <c r="C93" s="3" t="n">
@@ -4174,12 +3756,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>Living Labs for the eradication and/or management of invasive alien species</t>
+          <t>Strengthening forest research for the support of Ukraine</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-04</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-10</t>
         </is>
       </c>
       <c r="C94" s="3" t="n">
@@ -4189,18 +3771,18 @@
         <v>46652</v>
       </c>
       <c r="E94" s="4" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>Replacing hazardous substances in biocidal products</t>
+          <t>Improve the capacity to monitor and reduce air pollution from agriculture</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-01</t>
+          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-03</t>
         </is>
       </c>
       <c r="C95" s="3" t="n">
@@ -4210,18 +3792,18 @@
         <v>46652</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>Science-policy support to the implementation of EU and global biodiversity policies and strategies</t>
+          <t>Developing effective air quality planning strategies through innovative multi-scale modelling</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-02</t>
+          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="C96" s="3" t="n">
@@ -4231,18 +3813,18 @@
         <v>46652</v>
       </c>
       <c r="E96" s="4" t="n">
-        <v>7000000</v>
+        <v>4900000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Enhancing ecodesign and circularity of construction products</t>
+          <t>Living labs driving transformative change via knowledge integration and inclusive governance</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-02</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-06</t>
         </is>
       </c>
       <c r="C97" s="3" t="n">
@@ -4252,18 +3834,18 @@
         <v>46652</v>
       </c>
       <c r="E97" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Technical innovation to protect ecosystems and to scale up their restoration</t>
+          <t>Fostering common farmland birds and mammals for resilient food production systems</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-BIODIV-03</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-08</t>
         </is>
       </c>
       <c r="C98" s="3" t="n">
@@ -4273,18 +3855,18 @@
         <v>46652</v>
       </c>
       <c r="E98" s="4" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Strengthening forest research for the support of Ukraine</t>
+          <t>Enhancing the competitiveness of organic crop breeding: focus on intercropping adapted varieties</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-CIRCBIO-10</t>
+          <t>HORIZON-CL6-2027-01-BIODIV-09</t>
         </is>
       </c>
       <c r="C99" s="3" t="n">
@@ -4300,12 +3882,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>Improve the capacity to monitor and reduce air pollution from agriculture</t>
+          <t>Innovative circular solutions for end-of-life footwear through collection, sorting and recycling</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-03</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-05</t>
         </is>
       </c>
       <c r="C100" s="3" t="n">
@@ -4315,18 +3897,18 @@
         <v>46652</v>
       </c>
       <c r="E100" s="4" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>Developing effective air quality planning strategies through innovative multi-scale modelling</t>
+          <t>Towards a Europe of Bioeconomy Places</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2027-01-ZEROPOLLUTION-02</t>
+          <t>HORIZON-CL6-2027-01-CIRCBIO-06</t>
         </is>
       </c>
       <c r="C101" s="3" t="n">
@@ -4336,7 +3918,7 @@
         <v>46652</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>4900000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="102">
@@ -7477,12 +7059,12 @@
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>Research and Innovation Network for a Union of Equality</t>
+          <t>Government in transition – how governments change the way they work and prepare the civil service for the future</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-05</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-03</t>
         </is>
       </c>
       <c r="C252" s="3" t="n">
@@ -7492,18 +7074,18 @@
         <v>46288</v>
       </c>
       <c r="E252" s="4" t="n">
-        <v>4000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>Supporting post-conflict democracy and reconstruction</t>
+          <t>Creative alliances: Fostering global partnerships in cultural policies and CCI innovation</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-07</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-05</t>
         </is>
       </c>
       <c r="C253" s="3" t="n">
@@ -7513,18 +7095,18 @@
         <v>46288</v>
       </c>
       <c r="E253" s="4" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>Understanding the forms of local democracy in low-income and low-middle income countries</t>
+          <t>“Artistic intelligence” : harnessing the power of the arts to address complex challenges, enhance soft skills and boost innovation and competitiveness</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-02</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-01</t>
         </is>
       </c>
       <c r="C254" s="3" t="n">
@@ -7534,18 +7116,18 @@
         <v>46288</v>
       </c>
       <c r="E254" s="4" t="n">
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>Tackling child poverty and ensuring disadvantaged children's access to Early Childhood Education and Care</t>
+          <t>Contribution of basic skills to productivity, innovation, competitiveness and economic growth</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-03</t>
+          <t>HORIZON-CL2-2026-01-TRANSFO-05</t>
         </is>
       </c>
       <c r="C255" s="3" t="n">
@@ -7561,12 +7143,12 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>Preventing and fighting illicit trafficking of cultural goods</t>
+          <t>Towards a fair and transparent market for cultural and creative content in the era of generative AI</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-07</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-04</t>
         </is>
       </c>
       <c r="C256" s="3" t="n">
@@ -7576,18 +7158,18 @@
         <v>46288</v>
       </c>
       <c r="E256" s="4" t="n">
-        <v>4500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>Tackling gender-based violence against politically active women and LGBTIQ people</t>
+          <t>Open topic: Strengthen Europe's social model and sustainable competitiveness through productivity</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-01</t>
+          <t>HORIZON-CL2-2026-01-TRANSFO-02</t>
         </is>
       </c>
       <c r="C257" s="3" t="n">
@@ -7597,18 +7179,18 @@
         <v>46288</v>
       </c>
       <c r="E257" s="4" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>Rethinking long-term care policy in the face of EU demographic shifts</t>
+          <t>Electoral integrity in the digital context</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-TRANSFO-09</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-08</t>
         </is>
       </c>
       <c r="C258" s="3" t="n">
@@ -7618,18 +7200,18 @@
         <v>46288</v>
       </c>
       <c r="E258" s="4" t="n">
-        <v>3750000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>Boosting creative startups for disruptive innovation</t>
+          <t>Research and Innovation Network for a Union of Equality</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-02</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-05</t>
         </is>
       </c>
       <c r="C259" s="3" t="n">
@@ -7639,18 +7221,18 @@
         <v>46288</v>
       </c>
       <c r="E259" s="4" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>AI integration in CCSI work practice: catalysing innovation and competitiveness</t>
+          <t>Supporting post-conflict democracy and reconstruction</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-HERITAGE-03</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-07</t>
         </is>
       </c>
       <c r="C260" s="3" t="n">
@@ -7660,18 +7242,18 @@
         <v>46288</v>
       </c>
       <c r="E260" s="4" t="n">
-        <v>4000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>Digital and media literacy as drivers for democratic and civic resilience</t>
+          <t>Citizenship education as part of lifelong learning</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-10</t>
+          <t>HORIZON-CL2-2026-01-DEMOCRACY-09</t>
         </is>
       </c>
       <c r="C261" s="3" t="n">
@@ -7687,12 +7269,12 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>Sustainable paths to media viability</t>
+          <t>AI integration in CCSI work practice: catalysing innovation and competitiveness</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-04</t>
+          <t>HORIZON-CL2-2026-01-HERITAGE-03</t>
         </is>
       </c>
       <c r="C262" s="3" t="n">
@@ -7702,18 +7284,18 @@
         <v>46288</v>
       </c>
       <c r="E262" s="4" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>Citizenship education as part of lifelong learning</t>
+          <t>Fostering cooperation and integration between SSH and STEM research and innovation in the EU</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>HORIZON-CL2-2026-01-DEMOCRACY-09</t>
+          <t>HORIZON-CL2-2026-01-TRANSFO-10</t>
         </is>
       </c>
       <c r="C263" s="3" t="n">
@@ -7897,12 +7479,12 @@
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>Demand-led innovation in security</t>
+          <t>Advanced border surveillance and situational awareness</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-SSRI-02</t>
+          <t>HORIZON-CL3-2026-01-BM-01</t>
         </is>
       </c>
       <c r="C272" s="3" t="n">
@@ -7912,18 +7494,18 @@
         <v>46331</v>
       </c>
       <c r="E272" s="4" t="n">
-        <v>5830000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="inlineStr">
         <is>
-          <t>Improving capabilities of law enforcement to counter climate-related challenges</t>
+          <t>Designing new ways of risk awareness and enhanced disaster preparedness</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-01</t>
+          <t>HORIZON-CL3-2026-01-DRS-01</t>
         </is>
       </c>
       <c r="C273" s="3" t="n">
@@ -7933,18 +7515,18 @@
         <v>46331</v>
       </c>
       <c r="E273" s="4" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>Public procurement of innovation for security</t>
+          <t>Missing persons: prevention and investigation</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-SSRI-03</t>
+          <t>HORIZON-CL3-2026-01-FCT-03</t>
         </is>
       </c>
       <c r="C274" s="3" t="n">
@@ -7954,18 +7536,18 @@
         <v>46331</v>
       </c>
       <c r="E274" s="4" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>Security challenges of the green transition in urban und peri urban areas</t>
+          <t>Reliability of age assessment methods in the context of security and border management</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-INFRA-02</t>
+          <t>HORIZON-CL3-2026-01-BM-03</t>
         </is>
       </c>
       <c r="C275" s="3" t="n">
@@ -7975,18 +7557,18 @@
         <v>46331</v>
       </c>
       <c r="E275" s="4" t="n">
-        <v>4000000</v>
+        <v>1330000</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="inlineStr">
         <is>
-          <t>Advanced border surveillance and situational awareness</t>
+          <t>Accessible and available travel facilitation</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-BM-01</t>
+          <t>HORIZON-CL3-2026-01-BM-02</t>
         </is>
       </c>
       <c r="C276" s="3" t="n">
@@ -7996,18 +7578,18 @@
         <v>46331</v>
       </c>
       <c r="E276" s="4" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="inlineStr">
         <is>
-          <t>Designing new ways of risk awareness and enhanced disaster preparedness</t>
+          <t>Crime prevention approaches, online and off-line, tackling the nexus between addictions and crime</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-DRS-01</t>
+          <t>HORIZON-CL3-2026-01-FCT-04</t>
         </is>
       </c>
       <c r="C277" s="3" t="n">
@@ -8023,12 +7605,12 @@
     <row r="278">
       <c r="A278" s="2" t="inlineStr">
         <is>
-          <t>Enhancing the security of citizens against terrorism and lone-actor violence in confined spaces such as schools</t>
+          <t>Demand-led innovation in security</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-05</t>
+          <t>HORIZON-CL3-2026-01-SSRI-02</t>
         </is>
       </c>
       <c r="C278" s="3" t="n">
@@ -8038,18 +7620,18 @@
         <v>46331</v>
       </c>
       <c r="E278" s="4" t="n">
-        <v>4835000</v>
+        <v>5830000</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="inlineStr">
         <is>
-          <t>Missing persons: prevention and investigation</t>
+          <t>Public procurement of innovation for security</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-03</t>
+          <t>HORIZON-CL3-2026-01-SSRI-03</t>
         </is>
       </c>
       <c r="C279" s="3" t="n">
@@ -8059,18 +7641,18 @@
         <v>46331</v>
       </c>
       <c r="E279" s="4" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="inlineStr">
         <is>
-          <t>Reliability of age assessment methods in the context of security and border management</t>
+          <t>Security challenges of the green transition in urban und peri urban areas</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-BM-03</t>
+          <t>HORIZON-CL3-2026-01-INFRA-02</t>
         </is>
       </c>
       <c r="C280" s="3" t="n">
@@ -8080,18 +7662,18 @@
         <v>46331</v>
       </c>
       <c r="E280" s="4" t="n">
-        <v>1330000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="inlineStr">
         <is>
-          <t>Accessible and available travel facilitation</t>
+          <t>Open topic on preventing and countering the misuse of emerging technologies for criminal purposes, including issues related to lawful access to data</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-BM-02</t>
+          <t>HORIZON-CL3-2026-01-FCT-02</t>
         </is>
       </c>
       <c r="C281" s="3" t="n">
@@ -8101,18 +7683,18 @@
         <v>46331</v>
       </c>
       <c r="E281" s="4" t="n">
-        <v>4000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="inlineStr">
         <is>
-          <t>Crime prevention approaches, online and off-line, tackling the nexus between addictions and crime</t>
+          <t>Improving capabilities of law enforcement to counter climate-related challenges</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-04</t>
+          <t>HORIZON-CL3-2026-01-FCT-01</t>
         </is>
       </c>
       <c r="C282" s="3" t="n">
@@ -8122,18 +7704,18 @@
         <v>46331</v>
       </c>
       <c r="E282" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="inlineStr">
         <is>
-          <t>Development of ecosystem and next-generation capabilities for a secured European Critical Communication System in civil security</t>
+          <t>Open topic on driving innovation uptake of disaster risk solutions</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-SSRI-04</t>
+          <t>HORIZON-CL3-2026-01-DRS-04</t>
         </is>
       </c>
       <c r="C283" s="3" t="n">
@@ -8149,12 +7731,12 @@
     <row r="284">
       <c r="A284" s="2" t="inlineStr">
         <is>
-          <t>Tools and processes to support stress tests of critical infrastructure</t>
+          <t>Enhancing the security of citizens against terrorism and lone-actor violence in confined spaces such as schools</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-INFRA-01</t>
+          <t>HORIZON-CL3-2026-01-FCT-05</t>
         </is>
       </c>
       <c r="C284" s="3" t="n">
@@ -8170,12 +7752,12 @@
     <row r="285">
       <c r="A285" s="2" t="inlineStr">
         <is>
-          <t>Open topic on preventing and countering the misuse of emerging technologies for criminal purposes, including issues related to lawful access to data</t>
+          <t>Tools and processes to support stress tests of critical infrastructure</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-FCT-02</t>
+          <t>HORIZON-CL3-2026-01-INFRA-01</t>
         </is>
       </c>
       <c r="C285" s="3" t="n">
@@ -8185,18 +7767,18 @@
         <v>46331</v>
       </c>
       <c r="E285" s="4" t="n">
-        <v>4500000</v>
+        <v>4835000</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="inlineStr">
         <is>
-          <t>Open topic on driving innovation uptake of disaster risk solutions</t>
+          <t>Development of ecosystem and next-generation capabilities for a secured European Critical Communication System in civil security</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>HORIZON-CL3-2026-01-DRS-04</t>
+          <t>HORIZON-CL3-2026-01-SSRI-04</t>
         </is>
       </c>
       <c r="C286" s="3" t="n">
@@ -8233,12 +7815,12 @@
     <row r="288">
       <c r="A288" s="2" t="inlineStr">
         <is>
-          <t>Innovative solutions for the sustainable and beautiful use of vertical space</t>
+          <t>Innovative approaches for the spatial design of neighbourhoods</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-REGEN-03</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="C288" s="3" t="n">
@@ -8254,12 +7836,12 @@
     <row r="289">
       <c r="A289" s="2" t="inlineStr">
         <is>
-          <t>Innovative approaches for the spatial design of neighbourhoods</t>
+          <t>Addressing homelessness through housing-led approaches aligned with the New European Bauhaus</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-02</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
         </is>
       </c>
       <c r="C289" s="3" t="n">
@@ -8269,18 +7851,18 @@
         <v>46357</v>
       </c>
       <c r="E289" s="4" t="n">
-        <v>5000000</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="inlineStr">
         <is>
-          <t>Addressing homelessness through housing-led approaches aligned with the New European Bauhaus</t>
+          <t>Innovative solutions for the sustainable and beautiful use of vertical space</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-01</t>
+          <t>HORIZON-NEB-2026-01-REGEN-03</t>
         </is>
       </c>
       <c r="C290" s="3" t="n">
@@ -8290,18 +7872,18 @@
         <v>46357</v>
       </c>
       <c r="E290" s="4" t="n">
-        <v>6300000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="inlineStr">
         <is>
-          <t>Advancing sustainable maintenance and repair measures for existing buildings</t>
+          <t>Understanding inhabitant’s experiences of neighbourhoods to support their health and well-being</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-REGEN-02</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-03</t>
         </is>
       </c>
       <c r="C291" s="3" t="n">
@@ -8317,12 +7899,12 @@
     <row r="292">
       <c r="A292" s="2" t="inlineStr">
         <is>
-          <t>Understanding inhabitant’s experiences of neighbourhoods to support their health and well-being</t>
+          <t>Approaches to reuse vacant, obsolete or underutilised spaces</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-03</t>
+          <t>HORIZON-NEB-2026-01-BUSINESS-03</t>
         </is>
       </c>
       <c r="C292" s="3" t="n">
@@ -8332,18 +7914,18 @@
         <v>46357</v>
       </c>
       <c r="E292" s="4" t="n">
-        <v>5000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="inlineStr">
         <is>
-          <t>Approaches to reuse vacant, obsolete or underutilised spaces</t>
+          <t>Structurally addressing homelessness through coordinated social infrastructure and services in neighbourhoods</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-BUSINESS-03</t>
+          <t>HORIZON-NEB-2026-01-BUSINESS-01</t>
         </is>
       </c>
       <c r="C293" s="3" t="n">
@@ -8353,18 +7935,18 @@
         <v>46357</v>
       </c>
       <c r="E293" s="4" t="n">
-        <v>4500000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="inlineStr">
         <is>
-          <t>Structurally addressing homelessness through coordinated social infrastructure and services in neighbourhoods</t>
+          <t>Advancing sustainable maintenance and repair measures for existing buildings</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-BUSINESS-01</t>
+          <t>HORIZON-NEB-2026-01-REGEN-02</t>
         </is>
       </c>
       <c r="C294" s="3" t="n">
@@ -8374,7 +7956,7 @@
         <v>46357</v>
       </c>
       <c r="E294" s="4" t="n">
-        <v>3500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="295">
@@ -8401,12 +7983,12 @@
     <row r="296">
       <c r="A296" s="2" t="inlineStr">
         <is>
-          <t>Innovative technologies and solutions to improve wind energy systems supporting the Strategic Energy Technology (SET) Plan on wind</t>
+          <t>Producing battery-grade materials for electrodes through sustainable processing and refining of raw materials or developing bio-based materials (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D3-03</t>
+          <t>HORIZON-CL5-2026-09-D2-01</t>
         </is>
       </c>
       <c r="C296" s="3" t="n">
@@ -8416,18 +7998,18 @@
         <v>46280</v>
       </c>
       <c r="E296" s="4" t="n">
-        <v>93000000</v>
+        <v>7100000</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="inlineStr">
         <is>
-          <t>Low disturbance prefabrication approaches for deep renovation of multi-storey buildings (Built4People Partnership)</t>
+          <t>Coordinated topic with India on recycling of EV batteries</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-02</t>
+          <t>HORIZON-CL5-2026-09-D2-04</t>
         </is>
       </c>
       <c r="C297" s="3" t="n">
@@ -8437,18 +8019,18 @@
         <v>46280</v>
       </c>
       <c r="E297" s="4" t="n">
-        <v>7000000</v>
+        <v>9400000</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="inlineStr">
         <is>
-          <t>Full-scale demonstration of heat upgrade solutions in industrial processes</t>
+          <t>Researching the technical, social &amp; economic factors impacting the energy performance of Smart Buildings (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-08</t>
+          <t>HORIZON-CL5-2026-09-D4-01</t>
         </is>
       </c>
       <c r="C298" s="3" t="n">
@@ -8458,18 +8040,18 @@
         <v>46280</v>
       </c>
       <c r="E298" s="4" t="n">
-        <v>9000000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="inlineStr">
         <is>
-          <t>Validating policies and business models for affordable and sustainable housing (Built4People Partnership)</t>
+          <t>Advanced data platforms to integrate whole life carbon in building information tools, assessments, and certification (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-04</t>
+          <t>HORIZON-CL5-2026-09-D4-03</t>
         </is>
       </c>
       <c r="C299" s="3" t="n">
@@ -8479,18 +8061,18 @@
         <v>46280</v>
       </c>
       <c r="E299" s="4" t="n">
-        <v>5000000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="inlineStr">
         <is>
-          <t>Producing battery-grade materials for electrodes through sustainable processing and refining of raw materials or developing bio-based materials (BATT4EU Partnership)</t>
+          <t>Low disturbance prefabrication approaches for deep renovation of multi-storey buildings (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D2-01</t>
+          <t>HORIZON-CL5-2026-09-D4-02</t>
         </is>
       </c>
       <c r="C300" s="3" t="n">
@@ -8500,18 +8082,18 @@
         <v>46280</v>
       </c>
       <c r="E300" s="4" t="n">
-        <v>7100000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="inlineStr">
         <is>
-          <t>Coordinated topic with India on recycling of EV batteries</t>
+          <t>Innovative technologies and solutions to improve wind energy systems supporting the Strategic Energy Technology (SET) Plan on wind</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D2-04</t>
+          <t>HORIZON-CL5-2026-09-D3-03</t>
         </is>
       </c>
       <c r="C301" s="3" t="n">
@@ -8521,7 +8103,7 @@
         <v>46280</v>
       </c>
       <c r="E301" s="4" t="n">
-        <v>9400000</v>
+        <v>93000000</v>
       </c>
     </row>
     <row r="302">
@@ -9574,12 +9156,12 @@
     <row r="352">
       <c r="A352" s="2" t="inlineStr">
         <is>
-          <t>Living labs to enhance soil health in Alpine and Atlantic biogeographical regions</t>
+          <t>Open topic: Boosting organic farming for a competitive, sustainable and resilient farming sector</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-01-two-stage</t>
+          <t>HORIZON-CL6-2026-02-FARM2FORK-02-two-stage</t>
         </is>
       </c>
       <c r="C352" s="3" t="n">
@@ -9589,18 +9171,18 @@
         <v>46280</v>
       </c>
       <c r="E352" s="4" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="inlineStr">
         <is>
-          <t>Living labs to enhance soil health in managed forests and in natural/semi-natural lands</t>
+          <t>Living labs to enhance soil health in Alpine and Atlantic biogeographical regions</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-02-two-stage</t>
+          <t>HORIZON-MISS-2026-05-SOIL-01-two-stage</t>
         </is>
       </c>
       <c r="C353" s="3" t="n">
@@ -9721,12 +9303,12 @@
     <row r="359">
       <c r="A359" s="2" t="inlineStr">
         <is>
-          <t>Living labs for co-creating solutions for the restoration of ecosystems</t>
+          <t>Open topic: Uncovering the causes of specific species’ rapid decline and exploring actionable solutions</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-01-two-stage</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-02-two-stage</t>
         </is>
       </c>
       <c r="C359" s="3" t="n">
@@ -9736,18 +9318,18 @@
         <v>46288</v>
       </c>
       <c r="E359" s="4" t="n">
-        <v>7000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="inlineStr">
         <is>
-          <t>Mainstreaming and scaling-up evidence-based Nature-Based Solutions towards a nature positive and climate-resilient economy</t>
+          <t>Living labs for co-creating solutions for the restoration of ecosystems</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-04-two-stage</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-01-two-stage</t>
         </is>
       </c>
       <c r="C360" s="3" t="n">
@@ -9757,18 +9339,18 @@
         <v>46288</v>
       </c>
       <c r="E360" s="4" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="inlineStr">
         <is>
-          <t>Decontaminate and bioremediate aquatic pollution</t>
+          <t>Mainstreaming and scaling-up evidence-based Nature-Based Solutions towards a nature positive and climate-resilient economy</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-01-two-stage</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-04-two-stage</t>
         </is>
       </c>
       <c r="C361" s="3" t="n">
@@ -9778,18 +9360,18 @@
         <v>46288</v>
       </c>
       <c r="E361" s="4" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="inlineStr">
         <is>
-          <t>Open topic: Uncovering the causes of specific species’ rapid decline and exploring actionable solutions</t>
+          <t>Decontaminate and bioremediate aquatic pollution</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-02-two-stage</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-01-two-stage</t>
         </is>
       </c>
       <c r="C362" s="3" t="n">
@@ -9799,18 +9381,18 @@
         <v>46288</v>
       </c>
       <c r="E362" s="4" t="n">
-        <v>3000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="inlineStr">
         <is>
-          <t>Boosting mental health of young cancer survivors through the European Cancer Patient Digital Centre (ECPDC)</t>
+          <t>Pragmatic clinical trials to optimise immunotherapeutic interventions for patients with refractory cancers</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-05</t>
+          <t>HORIZON-MISS-2026-02-CANCER-03</t>
         </is>
       </c>
       <c r="C363" s="3" t="n">
@@ -9826,12 +9408,12 @@
     <row r="364">
       <c r="A364" s="2" t="inlineStr">
         <is>
-          <t>Earlier and more precise palliative care</t>
+          <t>Virtual Human Twin (VHT) Models for Cancer Research</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-04</t>
+          <t>HORIZON-MISS-2026-02-CANCER-01</t>
         </is>
       </c>
       <c r="C364" s="3" t="n">
@@ -9841,18 +9423,18 @@
         <v>46280</v>
       </c>
       <c r="E364" s="4" t="n">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="inlineStr">
         <is>
-          <t>Pragmatic clinical trials to optimise immunotherapeutic interventions for patients with refractory cancers</t>
+          <t>Earlier and more precise palliative care</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-03</t>
+          <t>HORIZON-MISS-2026-02-CANCER-04</t>
         </is>
       </c>
       <c r="C365" s="3" t="n">
@@ -9862,18 +9444,18 @@
         <v>46280</v>
       </c>
       <c r="E365" s="4" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="inlineStr">
         <is>
-          <t>Virtual Human Twin (VHT) Models for Cancer Research</t>
+          <t>Improve the Quality of Life of older cancer patients</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-01</t>
+          <t>HORIZON-MISS-2026-02-CANCER-07</t>
         </is>
       </c>
       <c r="C366" s="3" t="n">
@@ -9883,18 +9465,18 @@
         <v>46280</v>
       </c>
       <c r="E366" s="4" t="n">
-        <v>8000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="inlineStr">
         <is>
-          <t>Improve the Quality of Life of older cancer patients</t>
+          <t>Boosting mental health of young cancer survivors through the European Cancer Patient Digital Centre (ECPDC)</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-02-CANCER-07</t>
+          <t>HORIZON-MISS-2026-02-CANCER-05</t>
         </is>
       </c>
       <c r="C367" s="3" t="n">
@@ -9904,7 +9486,7 @@
         <v>46280</v>
       </c>
       <c r="E367" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="368">
@@ -9994,12 +9576,12 @@
     <row r="372">
       <c r="A372" s="2" t="inlineStr">
         <is>
-          <t>Support for a multilateral initiative on climate change and health research</t>
+          <t>Integrating New Approach Methodologies (NAMs) to advance biomedical research and regulatory testing</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-ENVHLTH-05</t>
+          <t>HORIZON-HLTH-2026-01-TOOL-03</t>
         </is>
       </c>
       <c r="C372" s="3" t="n">
@@ -10009,18 +9591,18 @@
         <v>46128</v>
       </c>
       <c r="E372" s="4" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="inlineStr">
         <is>
-          <t>Behavioural interventions as primary prevention for Non-Communicable Diseases (NCDs) among young people</t>
+          <t>Support to European Research Area (ERA) action on accelerating New Approach Methodologies (NAMs) to advance biomedical research and testing of medicinal products and medical devices</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-STAYHLTH-02</t>
+          <t>HORIZON-HLTH-2026-01-TOOL-06</t>
         </is>
       </c>
       <c r="C373" s="3" t="n">
@@ -10030,18 +9612,18 @@
         <v>46128</v>
       </c>
       <c r="E373" s="4" t="n">
-        <v>9000000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="inlineStr">
         <is>
-          <t>Establishing a European network of Centres of Excellence (CoEs) for Advanced Therapies Medicinal Products (ATMPs)</t>
+          <t>Development of novel vaccines for viral pathogens with epidemic potential</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-TOOL-07</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-04</t>
         </is>
       </c>
       <c r="C374" s="3" t="n">
@@ -10051,18 +9633,18 @@
         <v>46128</v>
       </c>
       <c r="E374" s="4" t="n">
-        <v>3900000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="inlineStr">
         <is>
-          <t>Support to European Research Area (ERA) action on accelerating New Approach Methodologies (NAMs) to advance biomedical research and testing of medicinal products and medical devices</t>
+          <t>Establishing a European network of Centres of Excellence (CoEs) for Advanced Therapies Medicinal Products (ATMPs)</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-TOOL-06</t>
+          <t>HORIZON-HLTH-2026-01-TOOL-07</t>
         </is>
       </c>
       <c r="C375" s="3" t="n">
@@ -10072,18 +9654,18 @@
         <v>46128</v>
       </c>
       <c r="E375" s="4" t="n">
-        <v>2900000</v>
+        <v>3900000</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="inlineStr">
         <is>
-          <t>Integrating New Approach Methodologies (NAMs) to advance biomedical research and regulatory testing</t>
+          <t>Towards climate resilient, prepared and carbon neutral populations and healthcare systems</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-TOOL-03</t>
+          <t>HORIZON-HLTH-2026-01-ENVHLTH-04</t>
         </is>
       </c>
       <c r="C376" s="3" t="n">
@@ -10093,18 +9675,18 @@
         <v>46128</v>
       </c>
       <c r="E376" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="inlineStr">
         <is>
-          <t>Multisectoral approach to tackle chronic non-communicable diseases: implementation research maximising collaboration and coordination with sectors and in settings beyond the healthcare system (GACD)</t>
+          <t>Innovative interventions to prevent the harmful effects of using digital technologies on the mental health of children and young adults</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-09</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-02</t>
         </is>
       </c>
       <c r="C377" s="3" t="n">
@@ -10114,18 +9696,18 @@
         <v>46128</v>
       </c>
       <c r="E377" s="4" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="inlineStr">
         <is>
-          <t>Understanding of sex and/or gender-specific mechanisms of cardiovascular diseases: determinants, risk factors and pathways</t>
+          <t>Pilot actions for follow-on funding: Leveraging EU-funded collaborative research in regenerative medicine</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-11</t>
+          <t>HORIZON-HLTH-2026-01-TOOL-05</t>
         </is>
       </c>
       <c r="C378" s="3" t="n">
@@ -10141,12 +9723,12 @@
     <row r="379">
       <c r="A379" s="2" t="inlineStr">
         <is>
-          <t>Identifying and addressing low-value care in health and care systems</t>
+          <t>Regulatory science to support translational development of patient-centred health technologies</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-CARE-03</t>
+          <t>HORIZON-HLTH-2026-01-IND-03</t>
         </is>
       </c>
       <c r="C379" s="3" t="n">
@@ -10156,18 +9738,18 @@
         <v>46128</v>
       </c>
       <c r="E379" s="4" t="n">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="inlineStr">
         <is>
-          <t>Development of novel vaccines for viral pathogens with epidemic potential</t>
+          <t>Multisectoral approach to tackle chronic non-communicable diseases: implementation research maximising collaboration and coordination with sectors and in settings beyond the healthcare system (GACD)</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-04</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-09</t>
         </is>
       </c>
       <c r="C380" s="3" t="n">
@@ -10177,18 +9759,18 @@
         <v>46128</v>
       </c>
       <c r="E380" s="4" t="n">
-        <v>9000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="inlineStr">
         <is>
-          <t>Innovative interventions to prevent the harmful effects of using digital technologies on the mental health of children and young adults</t>
+          <t>Understanding of sex and/or gender-specific mechanisms of cardiovascular diseases: determinants, risk factors and pathways</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-02</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-11</t>
         </is>
       </c>
       <c r="C381" s="3" t="n">
@@ -10198,18 +9780,18 @@
         <v>46128</v>
       </c>
       <c r="E381" s="4" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="inlineStr">
         <is>
-          <t>Pilot actions for follow-on funding: Leveraging EU-funded collaborative research in regenerative medicine</t>
+          <t>Identifying and addressing low-value care in health and care systems</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-TOOL-05</t>
+          <t>HORIZON-HLTH-2026-01-CARE-03</t>
         </is>
       </c>
       <c r="C382" s="3" t="n">
@@ -10219,18 +9801,18 @@
         <v>46128</v>
       </c>
       <c r="E382" s="4" t="n">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="inlineStr">
         <is>
-          <t>Regulatory science to support translational development of patient-centred health technologies</t>
+          <t>Support for a multilateral initiative on climate change and health research</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-IND-03</t>
+          <t>HORIZON-HLTH-2026-01-ENVHLTH-05</t>
         </is>
       </c>
       <c r="C383" s="3" t="n">
@@ -10240,18 +9822,18 @@
         <v>46128</v>
       </c>
       <c r="E383" s="4" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="inlineStr">
         <is>
-          <t>Scaling up innovation in cardiovascular health</t>
+          <t>Behavioural interventions as primary prevention for Non-Communicable Diseases (NCDs) among young people</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-15</t>
+          <t>HORIZON-HLTH-2026-01-STAYHLTH-02</t>
         </is>
       </c>
       <c r="C384" s="3" t="n">
@@ -10261,18 +9843,18 @@
         <v>46128</v>
       </c>
       <c r="E384" s="4" t="n">
-        <v>1900000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="inlineStr">
         <is>
-          <t>Building public trust and outreach in the life sciences</t>
+          <t>Public procurement of innovative solutions for improving citizens' access to healthcare through integrated or personalised approaches</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-STAYHLTH-03</t>
+          <t>HORIZON-HLTH-2026-01-CARE-01</t>
         </is>
       </c>
       <c r="C385" s="3" t="n">
@@ -10282,18 +9864,18 @@
         <v>46128</v>
       </c>
       <c r="E385" s="4" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="inlineStr">
         <is>
-          <t>Towards climate resilient, prepared and carbon neutral populations and healthcare systems</t>
+          <t>Building public trust and outreach in the life sciences</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-ENVHLTH-04</t>
+          <t>HORIZON-HLTH-2026-01-STAYHLTH-03</t>
         </is>
       </c>
       <c r="C386" s="3" t="n">
@@ -10303,18 +9885,18 @@
         <v>46128</v>
       </c>
       <c r="E386" s="4" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="inlineStr">
         <is>
-          <t>Public procurement of innovative solutions for improving citizens' access to healthcare through integrated or personalised approaches</t>
+          <t>Towards a better understanding and anticipation of the impacts of climate change on health</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-CARE-01</t>
+          <t>HORIZON-HLTH-2026-01-ENVHLTH-01</t>
         </is>
       </c>
       <c r="C387" s="3" t="n">
@@ -10324,18 +9906,18 @@
         <v>46128</v>
       </c>
       <c r="E387" s="4" t="n">
-        <v>3000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="inlineStr">
         <is>
-          <t>Towards a better understanding and anticipation of the impacts of climate change on health</t>
+          <t>Advancing research on the prevention, diagnosis, and management of post-infection long-term conditions</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-ENVHLTH-01</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-03</t>
         </is>
       </c>
       <c r="C388" s="3" t="n">
@@ -10345,18 +9927,18 @@
         <v>46128</v>
       </c>
       <c r="E388" s="4" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="inlineStr">
         <is>
-          <t>Advancing research on the prevention, diagnosis, and management of post-infection long-term conditions</t>
+          <t>Scaling up innovation in cardiovascular health</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>HORIZON-HLTH-2026-01-DISEASE-03</t>
+          <t>HORIZON-HLTH-2026-01-DISEASE-15</t>
         </is>
       </c>
       <c r="C389" s="3" t="n">
@@ -10366,91 +9948,91 @@
         <v>46128</v>
       </c>
       <c r="E389" s="4" t="n">
-        <v>6000000</v>
+        <v>1900000</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="inlineStr">
         <is>
-          <t>Enabling user-centred and open innovation initiatives to enhance soil health in Ukraine</t>
+          <t>Energy efficient urban and sub-urban public transport, complemented by shared mobility</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-03</t>
+          <t>HORIZON-MISS-2026-04-CIT-01</t>
         </is>
       </c>
       <c r="C390" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D390" s="3" t="n">
-        <v>46288</v>
+        <v>46303</v>
       </c>
       <c r="E390" s="4" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="inlineStr">
         <is>
-          <t>Introducing circular economy models in the construction sector, from buildings to city scale</t>
+          <t>Enabling user-centred and open innovation initiatives to enhance soil health in Ukraine</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-NEB-B4P-CCRI-03</t>
+          <t>HORIZON-MISS-2026-05-SOIL-03</t>
         </is>
       </c>
       <c r="C391" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D391" s="3" t="n">
-        <v>46303</v>
+        <v>46288</v>
       </c>
       <c r="E391" s="4" t="n">
-        <v>9500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="inlineStr">
         <is>
-          <t>Antimicrobial resistance and antibiotic biosynthesis in soils: developing key understanding and counteractive strategies using a One-Health approach</t>
+          <t>Introducing circular economy models in the construction sector, from buildings to city scale</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-05-SOIL-02</t>
+          <t>HORIZON-MISS-2026-04-CIT-NEB-B4P-CCRI-03</t>
         </is>
       </c>
       <c r="C392" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D392" s="3" t="n">
-        <v>46288</v>
+        <v>46303</v>
       </c>
       <c r="E392" s="4" t="n">
-        <v>7000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="inlineStr">
         <is>
-          <t>Energy efficient urban and sub-urban public transport, complemented by shared mobility</t>
+          <t>Antimicrobial resistance and antibiotic biosynthesis in soils: developing key understanding and counteractive strategies using a One-Health approach</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2026-04-CIT-01</t>
+          <t>HORIZON-MISS-2026-05-SOIL-02</t>
         </is>
       </c>
       <c r="C393" s="3" t="n">
         <v>46057</v>
       </c>
       <c r="D393" s="3" t="n">
-        <v>46303</v>
+        <v>46288</v>
       </c>
       <c r="E393" s="4" t="n">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="394">
@@ -10540,12 +10122,12 @@
     <row r="398">
       <c r="A398" s="2" t="inlineStr">
         <is>
-          <t>Collection, Generation and Validation of Datasets  suitable for training AI Models for 6G Networks and for AIaaS</t>
+          <t>6G Devices</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-B-01</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-CSA-02</t>
         </is>
       </c>
       <c r="C398" s="3" t="n">
@@ -10555,18 +10137,18 @@
         <v>46141</v>
       </c>
       <c r="E398" s="4" t="n">
-        <v>8000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="inlineStr">
         <is>
-          <t>SNS Operations and Output optimisation</t>
+          <t>SNS experimental infrastructure</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-01</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-C-01</t>
         </is>
       </c>
       <c r="C399" s="3" t="n">
@@ -10576,18 +10158,18 @@
         <v>46141</v>
       </c>
       <c r="E399" s="4" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="inlineStr">
         <is>
-          <t>EU-India International Collaboration</t>
+          <t>Collection, Generation and Validation of Datasets  suitable for training AI Models for 6G Networks and for AIaaS</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-03</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-B-01</t>
         </is>
       </c>
       <c r="C400" s="3" t="n">
@@ -10597,18 +10179,18 @@
         <v>46141</v>
       </c>
       <c r="E400" s="4" t="n">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="inlineStr">
         <is>
-          <t>6G Devices</t>
+          <t>SNS Operations and Output optimisation</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>HORIZON-JU-SNS-2026-STREAM-CSA-02</t>
+          <t>HORIZON-JU-SNS-2026-STREAM-CSA-01</t>
         </is>
       </c>
       <c r="C401" s="3" t="n">
@@ -10618,7 +10200,7 @@
         <v>46141</v>
       </c>
       <c r="E401" s="4" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="402">
@@ -11716,12 +11298,12 @@
     <row r="454">
       <c r="A454" s="2" t="inlineStr">
         <is>
-          <t>Mapping and service finder for Technology Infrastructures (CSA)</t>
+          <t>Cooperation on innovative advanced materials with Japan (CSA)</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-46</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-24</t>
         </is>
       </c>
       <c r="C454" s="3" t="n">
@@ -11731,18 +11313,18 @@
         <v>46133</v>
       </c>
       <c r="E454" s="4" t="n">
-        <v>2000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="inlineStr">
         <is>
-          <t>Advanced manufacturing for key products (IA) (Made in Europe partnership)</t>
+          <t>Pilot access schemes to Technology Infrastructures for European startups, scaleups and innovative SMEs (CSA)</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-01</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-45</t>
         </is>
       </c>
       <c r="C455" s="3" t="n">
@@ -11752,18 +11334,18 @@
         <v>46133</v>
       </c>
       <c r="E455" s="4" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="inlineStr">
         <is>
-          <t>Monitoring of secondary raw materials (CSA)</t>
+          <t>Mapping and service finder for Technology Infrastructures (CSA)</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-13</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-46</t>
         </is>
       </c>
       <c r="C456" s="3" t="n">
@@ -11773,18 +11355,18 @@
         <v>46133</v>
       </c>
       <c r="E456" s="4" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="inlineStr">
         <is>
-          <t>Cooperation on innovative advanced materials with Japan (CSA)</t>
+          <t>Advanced manufacturing for key products (IA) (Made in Europe partnership)</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-24</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-01</t>
         </is>
       </c>
       <c r="C457" s="3" t="n">
@@ -11794,18 +11376,18 @@
         <v>46133</v>
       </c>
       <c r="E457" s="4" t="n">
-        <v>800000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="inlineStr">
         <is>
-          <t>Pilot access schemes to Technology Infrastructures for European startups, scaleups and innovative SMEs (CSA)</t>
+          <t>Monitoring of secondary raw materials (CSA)</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-45</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-13</t>
         </is>
       </c>
       <c r="C458" s="3" t="n">
@@ -11815,7 +11397,7 @@
         <v>46133</v>
       </c>
       <c r="E458" s="4" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="459">
@@ -11863,12 +11445,12 @@
     <row r="461">
       <c r="A461" s="2" t="inlineStr">
         <is>
-          <t>Attracting management talent for capacity building for Technology Infrastructures staff members (CSA)</t>
+          <t>Technologies for innovative extraction of critical raw materials (RIA)</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-44</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-12</t>
         </is>
       </c>
       <c r="C461" s="3" t="n">
@@ -11878,7 +11460,7 @@
         <v>46133</v>
       </c>
       <c r="E461" s="4" t="n">
-        <v>2500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="462">
@@ -11905,12 +11487,12 @@
     <row r="463">
       <c r="A463" s="2" t="inlineStr">
         <is>
-          <t>Technologies for innovative extraction of critical raw materials (RIA)</t>
+          <t>Efficient capture / purification / utilisation of CO2 for the production of competitive products (RIA) (Processes4Planet partnership)</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-12</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-31</t>
         </is>
       </c>
       <c r="C463" s="3" t="n">
@@ -11926,12 +11508,12 @@
     <row r="464">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>Efficient capture / purification / utilisation of CO2 for the production of competitive products (RIA) (Processes4Planet partnership)</t>
+          <t>Attracting management talent for capacity building for Technology Infrastructures staff members (CSA)</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-01-MAT-PROD-31</t>
+          <t>HORIZON-CL4-2026-01-MAT-PROD-44</t>
         </is>
       </c>
       <c r="C464" s="3" t="n">
@@ -11941,7 +11523,7 @@
         <v>46133</v>
       </c>
       <c r="E464" s="4" t="n">
-        <v>5000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="465">
@@ -12094,54 +11676,54 @@
     <row r="472">
       <c r="A472" s="2" t="inlineStr">
         <is>
-          <t>Economics of climate change and cost of inaction</t>
+          <t>R&amp;I in Support of the Clean Industrial Deal: Decarbonisation of energy intensive industries (IA) (Processes4Planet and Clean Steel partnerships)</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-07-D1-03</t>
+          <t>HORIZON-CID-2026-01-01</t>
         </is>
       </c>
       <c r="C472" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D472" s="3" t="n">
-        <v>46127</v>
+        <v>46280</v>
       </c>
       <c r="E472" s="4" t="n">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="inlineStr">
         <is>
-          <t>R&amp;I in Support of the Clean Industrial Deal: Clean Technologies for Climate Action</t>
+          <t>Non-exhaust emissions in road and railway transport</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>HORIZON-CID-2026-01-02</t>
+          <t>HORIZON-CL5-2026-06-Two-Stage-D5-19</t>
         </is>
       </c>
       <c r="C473" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D473" s="3" t="n">
-        <v>46280</v>
+        <v>46303</v>
       </c>
       <c r="E473" s="4" t="n">
-        <v>15000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="inlineStr">
         <is>
-          <t>R&amp;I in Support of the Clean Industrial Deal: Decarbonisation of energy intensive industries (IA) (Processes4Planet and Clean Steel partnerships)</t>
+          <t>R&amp;I in Support of the Clean Industrial Deal: Clean Technologies for Climate Action</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>HORIZON-CID-2026-01-01</t>
+          <t>HORIZON-CID-2026-01-02</t>
         </is>
       </c>
       <c r="C474" s="3" t="n">
@@ -12199,12 +11781,12 @@
     <row r="477">
       <c r="A477" s="2" t="inlineStr">
         <is>
-          <t>Non-exhaust emissions in road and railway transport</t>
+          <t>Closing knowledge gaps on Earth system science in support of global and regional assessments and climate policy</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-06-Two-Stage-D5-19</t>
+          <t>HORIZON-CL5-2026-08-Two-Stage-D1-06</t>
         </is>
       </c>
       <c r="C477" s="3" t="n">
@@ -12214,49 +11796,49 @@
         <v>46303</v>
       </c>
       <c r="E477" s="4" t="n">
-        <v>3500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="inlineStr">
         <is>
-          <t>Closing knowledge gaps on Earth system science in support of global and regional assessments and climate policy</t>
+          <t>Economics of climate change and cost of inaction</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-08-Two-Stage-D1-06</t>
+          <t>HORIZON-CL5-2026-07-D1-03</t>
         </is>
       </c>
       <c r="C478" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D478" s="3" t="n">
-        <v>46303</v>
+        <v>46127</v>
       </c>
       <c r="E478" s="4" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="inlineStr">
         <is>
-          <t>Fighting disinformation and effectively communicating on climate change</t>
+          <t>7th REINFORCING Open Call (Booster Call) on “Responsible Security”</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-07-D1-04</t>
+          <t>HORIZON-WIDERA-2022-ERA-01-40</t>
         </is>
       </c>
       <c r="C479" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D479" s="3" t="n">
-        <v>46127</v>
+        <v>46085.70833333334</v>
       </c>
       <c r="E479" s="4" t="n">
-        <v>4000000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="480">
@@ -12283,12 +11865,12 @@
     <row r="481">
       <c r="A481" s="2" t="inlineStr">
         <is>
-          <t>Ports of the future (ZEWT Partnership)</t>
+          <t>AI-assisted digital aircraft design, manufacturing and MRO, towards a competitive aviation</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-11</t>
+          <t>HORIZON-CL5-2026-05-D5-07</t>
         </is>
       </c>
       <c r="C481" s="3" t="n">
@@ -12298,81 +11880,81 @@
         <v>46126</v>
       </c>
       <c r="E481" s="4" t="n">
-        <v>10500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="inlineStr">
         <is>
-          <t>Large-scale demonstration of Heavy-Duty Battery Electric Vehicles (HD BEV) towards long-haul logistics operations (2ZERO Partnership)</t>
+          <t>Improving climate and weather models for Africa</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-01</t>
+          <t>HORIZON-CL5-2026-07-D1-05</t>
         </is>
       </c>
       <c r="C482" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D482" s="3" t="n">
-        <v>46126</v>
+        <v>46127</v>
       </c>
       <c r="E482" s="4" t="n">
-        <v>34000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="inlineStr">
         <is>
-          <t>Safety of renewable low and zero-carbon waterborne fuels in port areas: risk assessment, regulatory framework, and guidelines for safe bunkering, handling and storage (ZEWT partnership)</t>
+          <t>Next generation climate monitoring and related capabilities</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-13</t>
+          <t>HORIZON-CL5-2026-07-D1-01</t>
         </is>
       </c>
       <c r="C483" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D483" s="3" t="n">
-        <v>46126</v>
+        <v>46127</v>
       </c>
       <c r="E483" s="4" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="inlineStr">
         <is>
-          <t>Shipyards of the future (ZEWT Partnership)</t>
+          <t>Fighting disinformation and effectively communicating on climate change</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-12</t>
+          <t>HORIZON-CL5-2026-07-D1-04</t>
         </is>
       </c>
       <c r="C484" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D484" s="3" t="n">
-        <v>46126</v>
+        <v>46127</v>
       </c>
       <c r="E484" s="4" t="n">
-        <v>10500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="inlineStr">
         <is>
-          <t>Energy-efficient software-defined EVs (2ZERO Partnership)</t>
+          <t>Ports of the future (ZEWT Partnership)</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-02</t>
+          <t>HORIZON-CL5-2026-05-D5-11</t>
         </is>
       </c>
       <c r="C485" s="3" t="n">
@@ -12382,18 +11964,18 @@
         <v>46126</v>
       </c>
       <c r="E485" s="4" t="n">
-        <v>16000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="inlineStr">
         <is>
-          <t>AI-assisted digital aircraft design, manufacturing and MRO, towards a competitive aviation</t>
+          <t>Large-scale demonstration of Heavy-Duty Battery Electric Vehicles (HD BEV) towards long-haul logistics operations (2ZERO Partnership)</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-05-D5-07</t>
+          <t>HORIZON-CL5-2026-05-D5-01</t>
         </is>
       </c>
       <c r="C486" s="3" t="n">
@@ -12403,81 +11985,81 @@
         <v>46126</v>
       </c>
       <c r="E486" s="4" t="n">
-        <v>5000000</v>
+        <v>34000000</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="inlineStr">
         <is>
-          <t>Improving climate and weather models for Africa</t>
+          <t>Shipyards of the future (ZEWT Partnership)</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-07-D1-05</t>
+          <t>HORIZON-CL5-2026-05-D5-12</t>
         </is>
       </c>
       <c r="C487" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D487" s="3" t="n">
-        <v>46127</v>
+        <v>46126</v>
       </c>
       <c r="E487" s="4" t="n">
-        <v>7000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="inlineStr">
         <is>
-          <t>Next generation climate monitoring and related capabilities</t>
+          <t>Energy-efficient software-defined EVs (2ZERO Partnership)</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-07-D1-01</t>
+          <t>HORIZON-CL5-2026-05-D5-02</t>
         </is>
       </c>
       <c r="C488" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D488" s="3" t="n">
-        <v>46127</v>
+        <v>46126</v>
       </c>
       <c r="E488" s="4" t="n">
-        <v>5000000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="inlineStr">
         <is>
-          <t>7th REINFORCING Open Call (Booster Call) on “Responsible Security”</t>
+          <t>Safety of renewable low and zero-carbon waterborne fuels in port areas: risk assessment, regulatory framework, and guidelines for safe bunkering, handling and storage (ZEWT partnership)</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>HORIZON-WIDERA-2022-ERA-01-40</t>
+          <t>HORIZON-CL5-2026-05-D5-13</t>
         </is>
       </c>
       <c r="C489" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D489" s="3" t="n">
-        <v>46085.70833333334</v>
+        <v>46126</v>
       </c>
       <c r="E489" s="4" t="n">
-        <v>120000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="inlineStr">
         <is>
-          <t>Novel solutions for off-grid storage of renewable energy for critical infrastructures</t>
+          <t>Industrial scale up and circularity pathway for IPV technologies (EUPI-PV Partnership)</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-21</t>
+          <t>HORIZON-CL5-2026-03-D3-13</t>
         </is>
       </c>
       <c r="C490" s="3" t="n">
@@ -12487,18 +12069,18 @@
         <v>46112</v>
       </c>
       <c r="E490" s="4" t="n">
-        <v>4000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="inlineStr">
         <is>
-          <t>Industrial scale up and circularity pathway for IPV technologies (EUPI-PV Partnership)</t>
+          <t>Pre-commercial appraisal for CO2 aquifer storage</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-13</t>
+          <t>HORIZON-CL5-2026-03-D3-29</t>
         </is>
       </c>
       <c r="C491" s="3" t="n">
@@ -12508,18 +12090,18 @@
         <v>46112</v>
       </c>
       <c r="E491" s="4" t="n">
-        <v>10500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="inlineStr">
         <is>
-          <t>Pre-commercial appraisal for CO2 aquifer storage</t>
+          <t>AI-driven forecasting algorithms for Grid and Consumer friendly Energy Sharing – Societal Readiness pilot</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-29</t>
+          <t>HORIZON-CL5-2026-03-D3-22</t>
         </is>
       </c>
       <c r="C492" s="3" t="n">
@@ -12529,18 +12111,18 @@
         <v>46112</v>
       </c>
       <c r="E492" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="inlineStr">
         <is>
-          <t>AI-driven forecasting algorithms for Grid and Consumer friendly Energy Sharing – Societal Readiness pilot</t>
+          <t>Long-lifetime and optimised use of materials in recyclable Ag and In-free Si PV modules (EUPI-PV Partnership)</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-22</t>
+          <t>HORIZON-CL5-2026-03-D3-12</t>
         </is>
       </c>
       <c r="C493" s="3" t="n">
@@ -12550,18 +12132,18 @@
         <v>46112</v>
       </c>
       <c r="E493" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="inlineStr">
         <is>
-          <t>Long-lifetime and optimised use of materials in recyclable Ag and In-free Si PV modules (EUPI-PV Partnership)</t>
+          <t>Hybrid AI-Control Framework for a next-generation grid-scale energy storage and system integration</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-12</t>
+          <t>HORIZON-CL5-2026-03-D3-20</t>
         </is>
       </c>
       <c r="C494" s="3" t="n">
@@ -12571,18 +12153,18 @@
         <v>46112</v>
       </c>
       <c r="E494" s="4" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="inlineStr">
         <is>
-          <t>Hybrid AI-Control Framework for a next-generation grid-scale energy storage and system integration</t>
+          <t>Targeting key value chain components for increasing the competitiveness of renewable energy technologies in Europe</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-20</t>
+          <t>HORIZON-CL5-2026-03-D3-01</t>
         </is>
       </c>
       <c r="C495" s="3" t="n">
@@ -12592,18 +12174,18 @@
         <v>46112</v>
       </c>
       <c r="E495" s="4" t="n">
-        <v>7000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="inlineStr">
         <is>
-          <t>Targeting key value chain components for increasing the competitiveness of renewable energy technologies in Europe</t>
+          <t>Affordable and sustainable primary equipment for Future-Ready multi-terminal HVDC Systems</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-01</t>
+          <t>HORIZON-CL5-2026-03-D3-19</t>
         </is>
       </c>
       <c r="C496" s="3" t="n">
@@ -12613,18 +12195,18 @@
         <v>46112</v>
       </c>
       <c r="E496" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="inlineStr">
         <is>
-          <t>Grid-forming capabilities for more resilient and RES-based electricity grids</t>
+          <t>Novel solutions for off-grid storage of renewable energy for critical infrastructures</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-18</t>
+          <t>HORIZON-CL5-2026-03-D3-21</t>
         </is>
       </c>
       <c r="C497" s="3" t="n">
@@ -12634,18 +12216,18 @@
         <v>46112</v>
       </c>
       <c r="E497" s="4" t="n">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="inlineStr">
         <is>
-          <t>Development of direct recycling processes (BATT4EU Partnership)</t>
+          <t>Grid-forming capabilities for more resilient and RES-based electricity grids</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D2-02</t>
+          <t>HORIZON-CL5-2026-03-D3-18</t>
         </is>
       </c>
       <c r="C498" s="3" t="n">
@@ -12655,49 +12237,49 @@
         <v>46112</v>
       </c>
       <c r="E498" s="4" t="n">
-        <v>4700000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="inlineStr">
         <is>
-          <t>SUNDANSE – Open Call #1 (Sediment Matters – The Danube Call)</t>
+          <t>Development of direct recycling processes (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
+          <t>HORIZON-CL5-2026-03-D2-02</t>
         </is>
       </c>
       <c r="C499" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D499" s="3" t="n">
-        <v>46071.70833333334</v>
+        <v>46112</v>
       </c>
       <c r="E499" s="4" t="n">
-        <v>300000</v>
+        <v>4700000</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="inlineStr">
         <is>
-          <t>Affordable and sustainable primary equipment for Future-Ready multi-terminal HVDC Systems</t>
+          <t>SUNDANSE – Open Call #1 (Sediment Matters – The Danube Call)</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-03-D3-19</t>
+          <t>HORIZON-MISS-2023-OCEAN-01-02</t>
         </is>
       </c>
       <c r="C500" s="3" t="n">
         <v>46009</v>
       </c>
       <c r="D500" s="3" t="n">
-        <v>46112</v>
+        <v>46071.70833333334</v>
       </c>
       <c r="E500" s="4" t="n">
-        <v>4000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="501">
@@ -13790,64 +13372,64 @@
     <row r="553">
       <c r="A553" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">FORTIS Open Call #1: Boosting Development of the FORTIS Solution. </t>
+          <t>Open Call 1 - Short Term and Long Term Funding to support ICT standardisation</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2023-DIGITAL-EMERGING-01-02</t>
+          <t>HORIZON-CL4-2024-HUMAN-03-04</t>
         </is>
       </c>
       <c r="C553" s="3" t="n">
         <v>45978</v>
       </c>
       <c r="D553" s="3" t="n">
-        <v>46043.66666666666</v>
+        <v>46038.70833333334</v>
       </c>
       <c r="E553" s="4" t="n">
-        <v>2000000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="inlineStr">
         <is>
-          <t>PhotonQBoost Open Call for Solutions, Missions, Trainings and Services</t>
+          <t xml:space="preserve">FORTIS Open Call #1: Boosting Development of the FORTIS Solution. </t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2024-RESILIENCE-01-41</t>
+          <t>HORIZON-CL4-2023-DIGITAL-EMERGING-01-02</t>
         </is>
       </c>
       <c r="C554" s="3" t="n">
         <v>45978</v>
       </c>
       <c r="D554" s="3" t="n">
-        <v>46041.70833333334</v>
+        <v>46043.66666666666</v>
       </c>
       <c r="E554" s="4" t="n">
-        <v>728800</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="inlineStr">
         <is>
-          <t>Open Call 1 - Short Term and Long Term Funding to support ICT standardisation</t>
+          <t>PhotonQBoost Open Call for Solutions, Missions, Trainings and Services</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2024-HUMAN-03-04</t>
+          <t>HORIZON-CL4-2024-RESILIENCE-01-41</t>
         </is>
       </c>
       <c r="C555" s="3" t="n">
         <v>45978</v>
       </c>
       <c r="D555" s="3" t="n">
-        <v>46038.70833333334</v>
+        <v>46041.70833333334</v>
       </c>
       <c r="E555" s="4" t="n">
-        <v>650000</v>
+        <v>728800</v>
       </c>
     </row>
     <row r="556">
@@ -14057,12 +13639,12 @@
     <row r="566">
       <c r="A566" s="2" t="inlineStr">
         <is>
-          <t>NETWORK MANAGEMENT PLANNING AND CONTROL &amp; MOBILITY MANAGEMENT IN A MULTIMODAL ENVIRONMENT AND DIGITAL ENABLERS</t>
+          <t>DIGITAL &amp; AUTOMATIC UP TO AUTOMATED TRAIN OPERATIONS</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>HORIZON-JU-ER-2025-FA1-TT-01</t>
+          <t>HORIZON-JU-ER-2025-FA2-01</t>
         </is>
       </c>
       <c r="C566" s="3" t="n">
@@ -14072,18 +13654,18 @@
         <v>46064</v>
       </c>
       <c r="E566" s="4" t="n">
-        <v>22400000</v>
+        <v>33100000</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="inlineStr">
         <is>
-          <t>INTELLIGENT &amp; INTEGRATED ASSET MANAGEMENT</t>
+          <t>SUSTAINABLE COMPETITIVE DIGITAL GREEN RAIL FREIGHT SERVICES</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>HORIZON-JU-ER-2025-FA3-01</t>
+          <t>HORIZON-JU-ER-2025-FA5-01</t>
         </is>
       </c>
       <c r="C567" s="3" t="n">
@@ -14093,18 +13675,18 @@
         <v>46064</v>
       </c>
       <c r="E567" s="4" t="n">
-        <v>32800000</v>
+        <v>20400000</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="inlineStr">
         <is>
-          <t>DIGITAL &amp; AUTOMATIC UP TO AUTOMATED TRAIN OPERATIONS</t>
+          <t>STUDIES ON RAIL INDUSTRY 5.0</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>HORIZON-JU-ER-2025-FA2-01</t>
+          <t>HORIZON-JU-ER-2025-EXPLR-01</t>
         </is>
       </c>
       <c r="C568" s="3" t="n">
@@ -14114,18 +13696,18 @@
         <v>46064</v>
       </c>
       <c r="E568" s="4" t="n">
-        <v>33100000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="inlineStr">
         <is>
-          <t>SUSTAINABLE COMPETITIVE DIGITAL GREEN RAIL FREIGHT SERVICES</t>
+          <t>NETWORK MANAGEMENT PLANNING AND CONTROL &amp; MOBILITY MANAGEMENT IN A MULTIMODAL ENVIRONMENT AND DIGITAL ENABLERS</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>HORIZON-JU-ER-2025-FA5-01</t>
+          <t>HORIZON-JU-ER-2025-FA1-TT-01</t>
         </is>
       </c>
       <c r="C569" s="3" t="n">
@@ -14135,18 +13717,18 @@
         <v>46064</v>
       </c>
       <c r="E569" s="4" t="n">
-        <v>20400000</v>
+        <v>22400000</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="inlineStr">
         <is>
-          <t>STUDIES ON RAIL INDUSTRY 5.0</t>
+          <t>A SUSTAINABLE AND GREEN RAIL SYSTEM</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>HORIZON-JU-ER-2025-EXPLR-01</t>
+          <t>HORIZON-JU-ER-2025-FA4-01</t>
         </is>
       </c>
       <c r="C570" s="3" t="n">
@@ -14156,18 +13738,18 @@
         <v>46064</v>
       </c>
       <c r="E570" s="4" t="n">
-        <v>600000</v>
+        <v>26600000</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="inlineStr">
         <is>
-          <t>A SUSTAINABLE AND GREEN RAIL SYSTEM</t>
+          <t>INTELLIGENT &amp; INTEGRATED ASSET MANAGEMENT</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>HORIZON-JU-ER-2025-FA4-01</t>
+          <t>HORIZON-JU-ER-2025-FA3-01</t>
         </is>
       </c>
       <c r="C571" s="3" t="n">
@@ -14177,7 +13759,7 @@
         <v>46064</v>
       </c>
       <c r="E571" s="4" t="n">
-        <v>26600000</v>
+        <v>32800000</v>
       </c>
     </row>
     <row r="572">
@@ -15587,12 +15169,12 @@
     <row r="639">
       <c r="A639" s="2" t="inlineStr">
         <is>
-          <t>European network of national competence centers for innovation procurement</t>
+          <t>Scaling up deep tech ecosystems</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>HORIZON-EIE-2026-01-CONNECT-01</t>
+          <t>HORIZON-EIE-2026-01-CONNECT-03</t>
         </is>
       </c>
       <c r="C639" s="3" t="n">
@@ -15602,18 +15184,18 @@
         <v>46042</v>
       </c>
       <c r="E639" s="4" t="n">
-        <v>4500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="inlineStr">
         <is>
-          <t>Expanding Investment Ecosystems</t>
+          <t>European network of national competence centers for innovation procurement</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>HORIZON-EIE-2026-01-CONNECT-02</t>
+          <t>HORIZON-EIE-2026-01-CONNECT-01</t>
         </is>
       </c>
       <c r="C640" s="3" t="n">
@@ -15623,18 +15205,18 @@
         <v>46042</v>
       </c>
       <c r="E640" s="4" t="n">
-        <v>1000000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="inlineStr">
         <is>
-          <t>Scaling up deep tech ecosystems</t>
+          <t>Expanding Investment Ecosystems</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>HORIZON-EIE-2026-01-CONNECT-03</t>
+          <t>HORIZON-EIE-2026-01-CONNECT-02</t>
         </is>
       </c>
       <c r="C641" s="3" t="n">
@@ -15644,7 +15226,7 @@
         <v>46042</v>
       </c>
       <c r="E641" s="4" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="642">

--- a/horizon-reports/horizon_rapor_latest.xlsx
+++ b/horizon-reports/horizon_rapor_latest.xlsx
@@ -12,7 +12,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tüm Açık Çağrılar" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Yeni Açılan Çağrılar'!$A$1:$E$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tüm Misyon Çağrıları'!$A$1:$E$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tüm Açık Çağrılar'!$A$1:$E$742</definedName>
   </definedNames>
@@ -441,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,867 +483,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Testing and optimising models of co-creation of advanced research infrastructure technologies</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-TECH-01-01</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Strengthening the potential of the EOSC for knowledge valorisation and industry-academia collaboration (EOSC Partnership)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-01-EOSC-02</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Preparatory phase of new ESFRI research infrastructure projects</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-DEV-01-01</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Expanding and deepening the EOSC Federation (EOSC Partnership)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-01-EOSC-01</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Access to research infrastructure services to enable R&amp;I addressing EU priorities and emerging challenges</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-SERV-01-02</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Access to research infrastructures, their resources and services: large-scale pilots for more integrated scheme across (sub)domains</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-SERV-01-01</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>35000000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Connecting research infrastructures and a wider user community across the European Research Area through access to advanced research infrastructure services</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-SERV-01-03</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Pioneering Destination Earth for a Sustainable Future: Large-Scale Pilots and Demonstrators</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-TECH-01-02</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Consolidation of the research infrastructure landscape – individual support for evolution, long-term sustainability and emerging needs of pan-European research infrastructures</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HORIZON-INFRA-2027-DEV-01-03</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>46455</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>46553</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Pillar I: Facilitating development of institutional open access policies through the retention of intellectual property rights</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HORIZON-WIDERA-2027-05-ERA-01</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>46364</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>46457</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Pillar IV: Upgrading the EU’s independent knowledge on China's Science, Technology and Innovation system</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>HORIZON-WIDERA-2027-05-ERA-05</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>46364</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>46457</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Pillar III: Science comes to town 2029</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>HORIZON-WIDERA-2027-05-ERA-03</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>46364</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>46457</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Pillar III: Promoting public engagement in R&amp;I and scientific literacy</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HORIZON-WIDERA-2027-05-ERA-04</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>46364</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>46457</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Pillar II: Talent ecosystems for attractive early research careers</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HORIZON-WIDERA-2027-05-ERA-02</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>46364</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>46457</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Demonstrating solutions to protect and preserve cultural heritage from the impacts of climate change</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-01-CLIMA-05</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Standardising and supporting climate services for  climate adaptation</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-01-CLIMA-03</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D17" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>9000000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Improving climate resilience of navigable inland waterways, their surroundings and related water infrastructure</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-01-CLIMA-06</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D18" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Addressing aquatic pollution and biodiversity loss through nature positive solutions from source to sea</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-03-OCEAN-02</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D19" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Large-scale demonstration for mapping the distribution and condition of marine habitats to implement the Nature Restoration Regulation</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-03-OCEAN-01</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D20" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Supporting financing of local adaptation actions with combination of public funding and private financing</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-01-CLIMA-07</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Regional  (sea-basins) components of the EU Digital Twin Ocean</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-03-OCEAN-05</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Towards a European network of ocean technology testing sites</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-03-OCEAN-04</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>National Adaptation Hubs - Bringing together the national level with the engaged regional and local levels (multi-level governance)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-01-CLIMA-01</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Facilitating implementation of actionable solutions for climate adaptation of regions and local authorities</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-01-CLIMA-02</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Bridging the gap between disaster risk management and climate adaptation</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-01-CLIMA-04</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D26" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>By fishers, for fishers: co-management of marine and freshwaters ecosystems and resources</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2026-03-OCEAN-03</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>46057</v>
-      </c>
-      <c r="D27" s="3" t="n">
-        <v>46288</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>RAPTOR 2026 Open Call</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>HORIZON-EIT-2025-KIC-IBA-UM</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>46038</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>46093.70833333334</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Call 1 – “Collection &amp; Valorisation”</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>HORIZON-MISS-2022-OCEAN-01-04</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D29" s="3" t="n">
-        <v>46097.70833333334</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Boosting innovation through better integration of fragmented health R&amp;I efforts</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-IHI-2026-12-SINGLE-STAGE-02</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D30" s="3" t="n">
-        <v>46133</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Boosting innovation for a better understanding of the determinants of health</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-IHI-2026-12-SINGLE-STAGE-01</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D31" s="3" t="n">
-        <v>46133</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Boosting innovation for people-centred integrated healthcare solutions</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-IHI-2026-12-SINGLE-STAGE-03</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D32" s="3" t="n">
-        <v>46133</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Boosting innovation through exploitation of digitalisation and data exchange in healthcare</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-IHI-2026-12-SINGLE-STAGE-04</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D33" s="3" t="n">
-        <v>46133</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>Boosting innovation for better assessment of the added value of innovative integrated healthcare solutions</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-IHI-2026-12-SINGLE-STAGE-05</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>46037</v>
-      </c>
-      <c r="D34" s="3" t="n">
-        <v>46133</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Global collaboration action for prevention and treatment of Lower Respiratory Tract Infections (LRTIs) in sub-Saharan Africa</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-GH-EDCTP3-2026-01-LRTI-02-two-stage</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="D35" s="3" t="n">
-        <v>46282</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>8475000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Global collaboration action towards better prevention, treatment and clinical management of HIV co-infections or co-morbidities in sub-Saharan Africa</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-GH-EDCTP3-2026-01-HIV-03-two-stage</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="D36" s="3" t="n">
-        <v>46282</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Global collaboration action on climate and health in sub-Saharan Africa</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-GH-EDCTP3-2026-02-CH-01-two-stage</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="D37" s="3" t="n">
-        <v>46282</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Training and innovation networks for sustained capacity development related to ethics, regulatory, pharmacovigilance, and related digital regulatory platforms</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-GH-EDCTP3-2026-03-SERP-01</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="D38" s="3" t="n">
-        <v>46267</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>Enhancing integrated research and healthcare in sub-Saharan Africa through digital innovation and Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-GH-EDCTP3-2026-03-DIGIT-02</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="D39" s="3" t="n">
-        <v>46267</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>2250000</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Global collaboration action for the development of TB drugs for therapy and chemoprophylaxis in adults and children in sub-Saharan Africa</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>HORIZON-JU-GH-EDCTP3-2026-01-TB-01-two-stage</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>46036</v>
-      </c>
-      <c r="D40" s="3" t="n">
-        <v>46282</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>10000000</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bu hafta yeni açılan çağrı bulunmamaktadır.</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E40"/>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A22" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId39"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7165,12 +6310,12 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>Production technologies for solar photovoltaics beyond the state-of-the-art (EUPI-PV Partnership)</t>
+          <t>Large scale operational validation and upscaling of state-of-the-art (Generative) AI tools and models powering a next generation digital energy system</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-15</t>
+          <t>HORIZON-CL5-2027-02-D3-24</t>
         </is>
       </c>
       <c r="C202" s="3" t="n">
@@ -7180,18 +6325,18 @@
         <v>46477</v>
       </c>
       <c r="E202" s="4" t="n">
-        <v>12000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="inlineStr">
         <is>
-          <t>Support to the implementation of an EU policy framework for CO2 transport and storage infrastructure</t>
+          <t>Production technologies for solar photovoltaics beyond the state-of-the-art (EUPI-PV Partnership)</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-31</t>
+          <t>HORIZON-CL5-2027-02-D3-15</t>
         </is>
       </c>
       <c r="C203" s="3" t="n">
@@ -7201,18 +6346,18 @@
         <v>46477</v>
       </c>
       <c r="E203" s="4" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="inlineStr">
         <is>
-          <t>Large scale operational validation and upscaling of state-of-the-art (Generative) AI tools and models powering a next generation digital energy system</t>
+          <t>Advancements in Direct Air Capture</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-24</t>
+          <t>HORIZON-CL5-2027-02-D3-30</t>
         </is>
       </c>
       <c r="C204" s="3" t="n">
@@ -7222,18 +6367,18 @@
         <v>46477</v>
       </c>
       <c r="E204" s="4" t="n">
-        <v>10000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>Advancements in Direct Air Capture</t>
+          <t>Sustainable and Competitive Cell Production Techniques for Lithium-ion And Sodium-ion Batteries (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2027-02-D3-30</t>
+          <t>HORIZON-CL5-2027-02-D2-06</t>
         </is>
       </c>
       <c r="C205" s="3" t="n">
@@ -7243,7 +6388,7 @@
         <v>46477</v>
       </c>
       <c r="E205" s="4" t="n">
-        <v>8000000</v>
+        <v>18900000</v>
       </c>
     </row>
     <row r="206">
@@ -7333,12 +6478,12 @@
     <row r="210">
       <c r="A210" s="2" t="inlineStr">
         <is>
-          <t>Demand-side 3C pilot demonstrators on converged Telco Edge Cloud Infrastructure (IA)</t>
+          <t>Apply AI: AI-Driven Robotics for Industry: Enabling System Integration and Adoption (IA) (Partnership in AI, Data and Robotics)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-DATA-08</t>
+          <t>HORIZON-CL4-2027-04-DIGITAL-EMERGING-05</t>
         </is>
       </c>
       <c r="C210" s="3" t="n">
@@ -7348,18 +6493,18 @@
         <v>46464</v>
       </c>
       <c r="E210" s="4" t="n">
-        <v>19000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>Facilitate the engagement of European stakeholders in international digital standardisation (CSA)</t>
+          <t>Demand-side 3C pilot demonstrators on converged Telco Edge Cloud Infrastructure (IA)</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-HUMAN-07</t>
+          <t>HORIZON-CL4-2027-04-DATA-08</t>
         </is>
       </c>
       <c r="C211" s="3" t="n">
@@ -7369,18 +6514,18 @@
         <v>46464</v>
       </c>
       <c r="E211" s="4" t="n">
-        <v>7000000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>Energy efficiency and sustainability of AI data processing in Data Centres (IA)</t>
+          <t>New approaches for decentralized, federated and sustainable AI data processing (RIA)</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-DATA-09</t>
+          <t>HORIZON-CL4-2027-04-DATA-03</t>
         </is>
       </c>
       <c r="C212" s="3" t="n">
@@ -7390,18 +6535,18 @@
         <v>46464</v>
       </c>
       <c r="E212" s="4" t="n">
-        <v>10000000</v>
+        <v>17500000</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>Advanced and Innovative hardware components for Virtual Worlds (RIA) (Virtual Worlds Partnership)</t>
+          <t>Facilitate the engagement of European stakeholders in international digital standardisation (CSA)</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-HUMAN-01</t>
+          <t>HORIZON-CL4-2027-04-HUMAN-07</t>
         </is>
       </c>
       <c r="C213" s="3" t="n">
@@ -7411,18 +6556,18 @@
         <v>46464</v>
       </c>
       <c r="E213" s="4" t="n">
-        <v>4800000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>Create a thriving and competitive Virtual Worlds and Web 4.0 ecosystem (CSA) (Virtual Worlds Partnership)</t>
+          <t>Energy efficiency and sustainability of AI data processing in Data Centres (IA)</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-HUMAN-02</t>
+          <t>HORIZON-CL4-2027-04-DATA-09</t>
         </is>
       </c>
       <c r="C214" s="3" t="n">
@@ -7432,18 +6577,18 @@
         <v>46464</v>
       </c>
       <c r="E214" s="4" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>EU Frontier AI Initiative:  Developing frontier AI solutions that are safe and computationally efficient within Apply AI (RIA)</t>
+          <t>International cooperation in AI (IA)</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-DIGITAL-EMERGING-11</t>
+          <t>HORIZON-CL4-2027-04-DIGITAL-EMERGING-06</t>
         </is>
       </c>
       <c r="C215" s="3" t="n">
@@ -7453,18 +6598,18 @@
         <v>46464</v>
       </c>
       <c r="E215" s="4" t="n">
-        <v>44000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>Horizon scanning and foresight in future enabling digital technologies (CSA)</t>
+          <t>Advanced and Innovative hardware components for Virtual Worlds (RIA) (Virtual Worlds Partnership)</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-DIGITAL-EMERGING-10</t>
+          <t>HORIZON-CL4-2027-04-HUMAN-01</t>
         </is>
       </c>
       <c r="C216" s="3" t="n">
@@ -7474,18 +6619,18 @@
         <v>46464</v>
       </c>
       <c r="E216" s="4" t="n">
-        <v>4000000</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>Apply AI: AI-Driven Robotics for Industry: Enabling System Integration and Adoption (IA) (Partnership in AI, Data and Robotics)</t>
+          <t>Create a thriving and competitive Virtual Worlds and Web 4.0 ecosystem (CSA) (Virtual Worlds Partnership)</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-DIGITAL-EMERGING-05</t>
+          <t>HORIZON-CL4-2027-04-HUMAN-02</t>
         </is>
       </c>
       <c r="C217" s="3" t="n">
@@ -7495,18 +6640,18 @@
         <v>46464</v>
       </c>
       <c r="E217" s="4" t="n">
-        <v>18000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>New approaches for decentralized, federated and sustainable AI data processing (RIA)</t>
+          <t>EU Frontier AI Initiative:  Developing frontier AI solutions that are safe and computationally efficient within Apply AI (RIA)</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-DATA-03</t>
+          <t>HORIZON-CL4-2027-04-DIGITAL-EMERGING-11</t>
         </is>
       </c>
       <c r="C218" s="3" t="n">
@@ -7516,18 +6661,18 @@
         <v>46464</v>
       </c>
       <c r="E218" s="4" t="n">
-        <v>17500000</v>
+        <v>44000000</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="inlineStr">
         <is>
-          <t>International cooperation in AI (IA)</t>
+          <t>Horizon scanning and foresight in future enabling digital technologies (CSA)</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-04-DIGITAL-EMERGING-06</t>
+          <t>HORIZON-CL4-2027-04-DIGITAL-EMERGING-10</t>
         </is>
       </c>
       <c r="C219" s="3" t="n">
@@ -7537,7 +6682,7 @@
         <v>46464</v>
       </c>
       <c r="E219" s="4" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="220">
@@ -7564,12 +6709,12 @@
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
         <is>
-          <t>Fast Track to Innovation for breakthroughs in the Chemical Industry Action Plan  (Research and Innovation Action)</t>
+          <t>Unlocking the potential of academic intellectual assets for industry, SMEs and startups (CSA)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-62</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-42</t>
         </is>
       </c>
       <c r="C221" s="3" t="n">
@@ -7578,6 +6723,9 @@
       <c r="D221" s="3" t="n">
         <v>46420</v>
       </c>
+      <c r="E221" s="4" t="n">
+        <v>1000000</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="inlineStr">
@@ -7603,12 +6751,12 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>Unlocking the potential of academic intellectual assets for industry, SMEs and startups (CSA)</t>
+          <t>Fast Track to Research and Innovation for breakthroughs in industrial technologies (Research and Innovation Action)</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-42</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-61</t>
         </is>
       </c>
       <c r="C223" s="3" t="n">
@@ -7617,19 +6765,16 @@
       <c r="D223" s="3" t="n">
         <v>46420</v>
       </c>
-      <c r="E223" s="4" t="n">
-        <v>1000000</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>Fast Track to Research and Innovation for breakthroughs in industrial technologies (Research and Innovation Action)</t>
+          <t>Fast Track to Innovation for breakthroughs in the Chemical Industry Action Plan  (Research and Innovation Action)</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-61</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-62</t>
         </is>
       </c>
       <c r="C224" s="3" t="n">
@@ -7642,33 +6787,33 @@
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>Expert network on Critical raw materials (CSA)</t>
+          <t>Efficient energy input from renewable sources and energy management in the process industries (IA) (Processes4Planet and Innovative Advanced Materials for the EU partnerships)</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-17</t>
+          <t>HORIZON-CL4-2027-02-MAT-PROD-32-two-stage</t>
         </is>
       </c>
       <c r="C225" s="3" t="n">
         <v>46287</v>
       </c>
       <c r="D225" s="3" t="n">
-        <v>46420</v>
+        <v>46632</v>
       </c>
       <c r="E225" s="4" t="n">
-        <v>3000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>Circular innovative advanced materials: facilitating the transition from design to markets (RIA) (Innovative Advanced Materials for the EU and Made in Europe partnerships)</t>
+          <t>Automated Scientific Discovery (RAISE pilot) (RIA)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-06</t>
+          <t>HORIZON-RAISE-2027-01-01</t>
         </is>
       </c>
       <c r="C226" s="3" t="n">
@@ -7678,18 +6823,18 @@
         <v>46420</v>
       </c>
       <c r="E226" s="4" t="n">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>Innovative advanced materials and new production processes – reducing dependencies on Critical and Strategic Raw Materials (IA) (Innovative Advanced Materials for the EU and Processes4Planet partnerships)</t>
+          <t>Pilot access schemes to Technology Infrastructures for European startups, scaleups and innovative SMEs (CSA)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-22</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-47</t>
         </is>
       </c>
       <c r="C227" s="3" t="n">
@@ -7699,7 +6844,7 @@
         <v>46420</v>
       </c>
       <c r="E227" s="4" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="228">
@@ -7747,12 +6892,12 @@
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>Automated Scientific Discovery (RAISE pilot) (RIA)</t>
+          <t>‘Proof of market’ to improve valorisation and commercialisation of Horizon generated R&amp;I results (IA)</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>HORIZON-RAISE-2027-01-01</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-49</t>
         </is>
       </c>
       <c r="C230" s="3" t="n">
@@ -7762,18 +6907,18 @@
         <v>46420</v>
       </c>
       <c r="E230" s="4" t="n">
-        <v>10000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>Automated Scientific Discovery – Food (RAISE pilot)</t>
+          <t>Technologies for innovative processing of raw materials (IA)</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>HORIZON-RAISE-2027-01-02</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-16</t>
         </is>
       </c>
       <c r="C231" s="3" t="n">
@@ -7783,39 +6928,39 @@
         <v>46420</v>
       </c>
       <c r="E231" s="4" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
         <is>
-          <t>Efficient energy input from renewable sources and energy management in the process industries (IA) (Processes4Planet and Innovative Advanced Materials for the EU partnerships)</t>
+          <t>Automated Scientific Discovery – Food (RAISE pilot)</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-02-MAT-PROD-32-two-stage</t>
+          <t>HORIZON-RAISE-2027-01-02</t>
         </is>
       </c>
       <c r="C232" s="3" t="n">
         <v>46287</v>
       </c>
       <c r="D232" s="3" t="n">
-        <v>46632</v>
+        <v>46420</v>
       </c>
       <c r="E232" s="4" t="n">
-        <v>7000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>Technologies for innovative processing of raw materials (IA)</t>
+          <t>Expert network on Critical raw materials (CSA)</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-16</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-17</t>
         </is>
       </c>
       <c r="C233" s="3" t="n">
@@ -7825,18 +6970,18 @@
         <v>46420</v>
       </c>
       <c r="E233" s="4" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>‘Proof of market’ to improve valorisation and commercialisation of Horizon generated R&amp;I results (IA)</t>
+          <t>Innovative advanced materials and new production processes – reducing dependencies on Critical and Strategic Raw Materials (IA) (Innovative Advanced Materials for the EU and Processes4Planet partnerships)</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-49</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-22</t>
         </is>
       </c>
       <c r="C234" s="3" t="n">
@@ -7846,18 +6991,18 @@
         <v>46420</v>
       </c>
       <c r="E234" s="4" t="n">
-        <v>200000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="inlineStr">
         <is>
-          <t>Pilot access schemes to Technology Infrastructures for European startups, scaleups and innovative SMEs (CSA)</t>
+          <t>Circular innovative advanced materials: facilitating the transition from design to markets (RIA) (Innovative Advanced Materials for the EU and Made in Europe partnerships)</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2027-01-MAT-PROD-47</t>
+          <t>HORIZON-CL4-2027-01-MAT-PROD-06</t>
         </is>
       </c>
       <c r="C235" s="3" t="n">
@@ -7867,7 +7012,7 @@
         <v>46420</v>
       </c>
       <c r="E235" s="4" t="n">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="236">
@@ -8041,12 +7186,12 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>Increasing competitiveness and resilience of multimodal freight transport and logistics for competitive supply chains</t>
+          <t>Flagship-pilot: large-scale demonstrations of CCAM (CCAM Partnership)</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-10-D6-06</t>
+          <t>HORIZON-CL5-2026-10-D6-01</t>
         </is>
       </c>
       <c r="C244" s="3" t="n">
@@ -8056,7 +7201,7 @@
         <v>46303</v>
       </c>
       <c r="E244" s="4" t="n">
-        <v>6500000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="245">
@@ -8125,12 +7270,12 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>Supporting sustainable and smart urban mobility in Europe (CIVITAS)</t>
+          <t>Generative AI for smarter CCAM: enhancing perception, decision-making, and validation (CCAM Partnership)</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-10-D6-07</t>
+          <t>HORIZON-CL5-2026-10-D6-03</t>
         </is>
       </c>
       <c r="C248" s="3" t="n">
@@ -8140,18 +7285,18 @@
         <v>46303</v>
       </c>
       <c r="E248" s="4" t="n">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>Flagship-pilot: large-scale demonstrations of CCAM (CCAM Partnership)</t>
+          <t>Increasing competitiveness and resilience of multimodal freight transport and logistics for competitive supply chains</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-10-D6-01</t>
+          <t>HORIZON-CL5-2026-10-D6-06</t>
         </is>
       </c>
       <c r="C249" s="3" t="n">
@@ -8161,18 +7306,18 @@
         <v>46303</v>
       </c>
       <c r="E249" s="4" t="n">
-        <v>100000000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="inlineStr">
         <is>
-          <t>Generative AI for smarter CCAM: enhancing perception, decision-making, and validation (CCAM Partnership)</t>
+          <t>Supporting sustainable and smart urban mobility in Europe (CIVITAS)</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-10-D6-03</t>
+          <t>HORIZON-CL5-2026-10-D6-07</t>
         </is>
       </c>
       <c r="C250" s="3" t="n">
@@ -8182,7 +7327,7 @@
         <v>46303</v>
       </c>
       <c r="E250" s="4" t="n">
-        <v>6500000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="251">
@@ -9253,12 +8398,12 @@
     <row r="302">
       <c r="A302" s="2" t="inlineStr">
         <is>
-          <t>Producing battery-grade materials for electrodes through sustainable processing and refining of raw materials or developing bio-based materials (BATT4EU Partnership)</t>
+          <t>Innovative technologies and solutions to improve wind energy systems supporting the Strategic Energy Technology (SET) Plan on wind</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D2-01</t>
+          <t>HORIZON-CL5-2026-09-D3-03</t>
         </is>
       </c>
       <c r="C302" s="3" t="n">
@@ -9268,18 +8413,18 @@
         <v>46280</v>
       </c>
       <c r="E302" s="4" t="n">
-        <v>7100000</v>
+        <v>93000000</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="inlineStr">
         <is>
-          <t>Innovative approaches for the spatial design of neighbourhoods</t>
+          <t>Sustainable, inclusive, affordable and beautiful solutions for thermal comfort in buildings</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-02</t>
+          <t>HORIZON-NEB-2026-01-REGEN-01</t>
         </is>
       </c>
       <c r="C303" s="3" t="n">
@@ -9289,18 +8434,18 @@
         <v>46357</v>
       </c>
       <c r="E303" s="4" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="inlineStr">
         <is>
-          <t>Understanding inhabitant’s experiences of neighbourhoods to support their health and well-being</t>
+          <t>Advancing sustainable maintenance and repair measures for existing buildings</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-PARTICIPATION-03</t>
+          <t>HORIZON-NEB-2026-01-REGEN-02</t>
         </is>
       </c>
       <c r="C304" s="3" t="n">
@@ -9316,12 +8461,12 @@
     <row r="305">
       <c r="A305" s="2" t="inlineStr">
         <is>
-          <t>Understanding capital market dynamics for increased investment in New European Bauhaus projects in neighbourhoods</t>
+          <t>Innovative solutions for the sustainable and beautiful use of vertical space</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-BUSINESS-02</t>
+          <t>HORIZON-NEB-2026-01-REGEN-03</t>
         </is>
       </c>
       <c r="C305" s="3" t="n">
@@ -9331,18 +8476,18 @@
         <v>46357</v>
       </c>
       <c r="E305" s="4" t="n">
-        <v>3500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="inlineStr">
         <is>
-          <t>Innovative solutions for the sustainable and beautiful use of vertical space</t>
+          <t>Innovative approaches for the spatial design of neighbourhoods</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-REGEN-03</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-02</t>
         </is>
       </c>
       <c r="C306" s="3" t="n">
@@ -9358,12 +8503,12 @@
     <row r="307">
       <c r="A307" s="2" t="inlineStr">
         <is>
-          <t>Approaches to reuse vacant, obsolete or underutilised spaces</t>
+          <t>Understanding inhabitant’s experiences of neighbourhoods to support their health and well-being</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-BUSINESS-03</t>
+          <t>HORIZON-NEB-2026-01-PARTICIPATION-03</t>
         </is>
       </c>
       <c r="C307" s="3" t="n">
@@ -9373,39 +8518,39 @@
         <v>46357</v>
       </c>
       <c r="E307" s="4" t="n">
-        <v>4500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="inlineStr">
         <is>
-          <t>Sustainable, inclusive, affordable and beautiful solutions for thermal comfort in buildings</t>
+          <t>Advanced data platforms to integrate whole life carbon in building information tools, assessments, and certification (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-REGEN-01</t>
+          <t>HORIZON-CL5-2026-09-D4-03</t>
         </is>
       </c>
       <c r="C308" s="3" t="n">
         <v>46147</v>
       </c>
       <c r="D308" s="3" t="n">
-        <v>46357</v>
+        <v>46280</v>
       </c>
       <c r="E308" s="4" t="n">
-        <v>4000000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="inlineStr">
         <is>
-          <t>Advancing sustainable maintenance and repair measures for existing buildings</t>
+          <t>Understanding capital market dynamics for increased investment in New European Bauhaus projects in neighbourhoods</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-REGEN-02</t>
+          <t>HORIZON-NEB-2026-01-BUSINESS-02</t>
         </is>
       </c>
       <c r="C309" s="3" t="n">
@@ -9415,49 +8560,49 @@
         <v>46357</v>
       </c>
       <c r="E309" s="4" t="n">
-        <v>5000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="inlineStr">
         <is>
-          <t>Advanced data platforms to integrate whole life carbon in building information tools, assessments, and certification (Built4People Partnership)</t>
+          <t>Structurally addressing homelessness through coordinated social infrastructure and services in neighbourhoods</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-03</t>
+          <t>HORIZON-NEB-2026-01-BUSINESS-01</t>
         </is>
       </c>
       <c r="C310" s="3" t="n">
         <v>46147</v>
       </c>
       <c r="D310" s="3" t="n">
-        <v>46280</v>
+        <v>46357</v>
       </c>
       <c r="E310" s="4" t="n">
-        <v>5250000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="inlineStr">
         <is>
-          <t>Structurally addressing homelessness through coordinated social infrastructure and services in neighbourhoods</t>
+          <t>Researching the technical, social &amp; economic factors impacting the energy performance of Smart Buildings (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>HORIZON-NEB-2026-01-BUSINESS-01</t>
+          <t>HORIZON-CL5-2026-09-D4-01</t>
         </is>
       </c>
       <c r="C311" s="3" t="n">
         <v>46147</v>
       </c>
       <c r="D311" s="3" t="n">
-        <v>46357</v>
+        <v>46280</v>
       </c>
       <c r="E311" s="4" t="n">
-        <v>3500000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="312">
@@ -9484,12 +8629,12 @@
     <row r="313">
       <c r="A313" s="2" t="inlineStr">
         <is>
-          <t>Researching the technical, social &amp; economic factors impacting the energy performance of Smart Buildings (Built4People Partnership)</t>
+          <t>Low disturbance prefabrication approaches for deep renovation of multi-storey buildings (Built4People Partnership)</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-01</t>
+          <t>HORIZON-CL5-2026-09-D4-02</t>
         </is>
       </c>
       <c r="C313" s="3" t="n">
@@ -9499,18 +8644,18 @@
         <v>46280</v>
       </c>
       <c r="E313" s="4" t="n">
-        <v>5250000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="inlineStr">
         <is>
-          <t>Low disturbance prefabrication approaches for deep renovation of multi-storey buildings (Built4People Partnership)</t>
+          <t>Full-scale demonstration of heat upgrade solutions in industrial processes</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-02</t>
+          <t>HORIZON-CL5-2026-09-D4-08</t>
         </is>
       </c>
       <c r="C314" s="3" t="n">
@@ -9520,18 +8665,18 @@
         <v>46280</v>
       </c>
       <c r="E314" s="4" t="n">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="inlineStr">
         <is>
-          <t>Full-scale demonstration of heat upgrade solutions in industrial processes</t>
+          <t>Coordinated topic with India on recycling of EV batteries</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D4-08</t>
+          <t>HORIZON-CL5-2026-09-D2-04</t>
         </is>
       </c>
       <c r="C315" s="3" t="n">
@@ -9541,18 +8686,18 @@
         <v>46280</v>
       </c>
       <c r="E315" s="4" t="n">
-        <v>9000000</v>
+        <v>9400000</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="inlineStr">
         <is>
-          <t>Innovative technologies and solutions to improve wind energy systems supporting the Strategic Energy Technology (SET) Plan on wind</t>
+          <t>Producing battery-grade materials for electrodes through sustainable processing and refining of raw materials or developing bio-based materials (BATT4EU Partnership)</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>HORIZON-CL5-2026-09-D3-03</t>
+          <t>HORIZON-CL5-2026-09-D2-01</t>
         </is>
       </c>
       <c r="C316" s="3" t="n">
@@ -9562,7 +8707,7 @@
         <v>46280</v>
       </c>
       <c r="E316" s="4" t="n">
-        <v>93000000</v>
+        <v>7100000</v>
       </c>
     </row>
     <row r="317">
@@ -9589,12 +8734,12 @@
     <row r="318">
       <c r="A318" s="2" t="inlineStr">
         <is>
-          <t>Teaming Synergies</t>
+          <t>Research Management Facility</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>HORIZON-WIDERA-2026-01-WIDENING-01</t>
+          <t>HORIZON-WIDERA-2026-04-WIDENING-01</t>
         </is>
       </c>
       <c r="C318" s="3" t="n">
@@ -9610,12 +8755,12 @@
     <row r="319">
       <c r="A319" s="2" t="inlineStr">
         <is>
-          <t>Research Management Facility</t>
+          <t>Teaming Synergies</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>HORIZON-WIDERA-2026-04-WIDENING-01</t>
+          <t>HORIZON-WIDERA-2026-01-WIDENING-01</t>
         </is>
       </c>
       <c r="C319" s="3" t="n">
@@ -9631,12 +8776,12 @@
     <row r="320">
       <c r="A320" s="2" t="inlineStr">
         <is>
-          <t>Advancing the European bio-based innovation enabled by biotechnology and biomanufacturing concepts</t>
+          <t>Pushing the frontier of knowledge and conservation action for deep sea ecosystems</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-07</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-03</t>
         </is>
       </c>
       <c r="C320" s="3" t="n">
@@ -9646,18 +8791,18 @@
         <v>46282</v>
       </c>
       <c r="E320" s="4" t="n">
-        <v>4000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="inlineStr">
         <is>
-          <t>Understanding and tackling the decline of insects</t>
+          <t>Advancing integrated scenarios and prediction models for informing transition to a nature positive society</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-01</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-05</t>
         </is>
       </c>
       <c r="C321" s="3" t="n">
@@ -9667,18 +8812,18 @@
         <v>46282</v>
       </c>
       <c r="E321" s="4" t="n">
-        <v>6500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="inlineStr">
         <is>
-          <t>Supporting pre-normative research for standardization of the bio-based products</t>
+          <t>Ensuring continuous effectiveness of protected areas in conserving habitats and species while facing intensifying drivers of biodiversity loss</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-08</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-04</t>
         </is>
       </c>
       <c r="C322" s="3" t="n">
@@ -9688,7 +8833,7 @@
         <v>46282</v>
       </c>
       <c r="E322" s="4" t="n">
-        <v>4000000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="323">
@@ -9715,12 +8860,12 @@
     <row r="324">
       <c r="A324" s="2" t="inlineStr">
         <is>
-          <t>Bio-based innovation in society: supporting the sustainable way of living</t>
+          <t>Improving circularity of multilayer flexible plastic food contact packaging</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-10</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-01</t>
         </is>
       </c>
       <c r="C324" s="3" t="n">
@@ -9730,18 +8875,18 @@
         <v>46282</v>
       </c>
       <c r="E324" s="4" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="inlineStr">
         <is>
-          <t>Ensuring continuous effectiveness of protected areas in conserving habitats and species while facing intensifying drivers of biodiversity loss</t>
+          <t>Understanding biomass flows in Europe</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-04</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-05</t>
         </is>
       </c>
       <c r="C325" s="3" t="n">
@@ -9751,18 +8896,18 @@
         <v>46282</v>
       </c>
       <c r="E325" s="4" t="n">
-        <v>6500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="inlineStr">
         <is>
-          <t>Improving circularity of multilayer flexible plastic food contact packaging</t>
+          <t>Bioeconomy policy support hub for Member States, regions and sectors</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-01</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-06</t>
         </is>
       </c>
       <c r="C326" s="3" t="n">
@@ -9772,18 +8917,18 @@
         <v>46282</v>
       </c>
       <c r="E326" s="4" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="inlineStr">
         <is>
-          <t>Developing methods to assess the presence, functions and sensitivity of groundwater ecosystems</t>
+          <t>Advanced recovery of critical raw materials from Waste from Electrical and Electronic Equipment (WEEE)</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-02</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-03</t>
         </is>
       </c>
       <c r="C327" s="3" t="n">
@@ -9799,12 +8944,12 @@
     <row r="328">
       <c r="A328" s="2" t="inlineStr">
         <is>
-          <t>Demonstrating and deploying innovative collection, sorting-for-reuse and repair systems for textiles at city/region level (Circular Cities and Regions Initiative topic)</t>
+          <t>Developing managed aquifer recharge techniques (MAR) in a rural context</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-04</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-03</t>
         </is>
       </c>
       <c r="C328" s="3" t="n">
@@ -9814,18 +8959,18 @@
         <v>46282</v>
       </c>
       <c r="E328" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="inlineStr">
         <is>
-          <t>Pushing the frontier of knowledge and conservation action for deep sea ecosystems</t>
+          <t>Harnessing the unique properties of marine organisms to deliver sustainable blue bio-based products</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-03</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-11</t>
         </is>
       </c>
       <c r="C329" s="3" t="n">
@@ -9835,18 +8980,18 @@
         <v>46282</v>
       </c>
       <c r="E329" s="4" t="n">
-        <v>9000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="inlineStr">
         <is>
-          <t>Boosting agrobiodiversity for food security and sustainable competitiveness</t>
+          <t>Balancing food security, bioeconomy, climate and biodiversity objectives to unlock sustainable value chains</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-06</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-09</t>
         </is>
       </c>
       <c r="C330" s="3" t="n">
@@ -9862,12 +9007,12 @@
     <row r="331">
       <c r="A331" s="2" t="inlineStr">
         <is>
-          <t>Advancing integrated scenarios and prediction models for informing transition to a nature positive society</t>
+          <t>Developing methods to assess the presence, functions and sensitivity of groundwater ecosystems</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-BIODIV-05</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-02</t>
         </is>
       </c>
       <c r="C331" s="3" t="n">
@@ -9883,12 +9028,12 @@
     <row r="332">
       <c r="A332" s="2" t="inlineStr">
         <is>
-          <t>Understanding biomass flows in Europe</t>
+          <t>Demonstrating and deploying innovative collection, sorting-for-reuse and repair systems for textiles at city/region level (Circular Cities and Regions Initiative topic)</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-05</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-04</t>
         </is>
       </c>
       <c r="C332" s="3" t="n">
@@ -9898,18 +9043,18 @@
         <v>46282</v>
       </c>
       <c r="E332" s="4" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="inlineStr">
         <is>
-          <t>Developing managed aquifer recharge techniques (MAR) in a rural context</t>
+          <t>Bioremediation of Ukraine’s ecosystems contaminated by conflicts</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-03</t>
+          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
         </is>
       </c>
       <c r="C333" s="3" t="n">
@@ -9919,18 +9064,18 @@
         <v>46282</v>
       </c>
       <c r="E333" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="inlineStr">
         <is>
-          <t>Harnessing the unique properties of marine organisms to deliver sustainable blue bio-based products</t>
+          <t>Advancing the European bio-based innovation enabled by biotechnology and biomanufacturing concepts</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-11</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-07</t>
         </is>
       </c>
       <c r="C334" s="3" t="n">
@@ -9940,18 +9085,18 @@
         <v>46282</v>
       </c>
       <c r="E334" s="4" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="inlineStr">
         <is>
-          <t>Advancing recycling technologies for mixed post-consumer textiles waste from blended products</t>
+          <t>Understanding and tackling the decline of insects</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-02</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-01</t>
         </is>
       </c>
       <c r="C335" s="3" t="n">
@@ -9961,18 +9106,18 @@
         <v>46282</v>
       </c>
       <c r="E335" s="4" t="n">
-        <v>5000000</v>
+        <v>6500000</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="inlineStr">
         <is>
-          <t>Bioeconomy policy support hub for Member States, regions and sectors</t>
+          <t>Bio-based innovation in society: supporting the sustainable way of living</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-06</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-10</t>
         </is>
       </c>
       <c r="C336" s="3" t="n">
@@ -9982,18 +9127,18 @@
         <v>46282</v>
       </c>
       <c r="E336" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="inlineStr">
         <is>
-          <t>Advanced recovery of critical raw materials from Waste from Electrical and Electronic Equipment (WEEE)</t>
+          <t>Supporting pre-normative research for standardization of the bio-based products</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-03</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-08</t>
         </is>
       </c>
       <c r="C337" s="3" t="n">
@@ -10003,18 +9148,18 @@
         <v>46282</v>
       </c>
       <c r="E337" s="4" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="inlineStr">
         <is>
-          <t>Balancing food security, bioeconomy, climate and biodiversity objectives to unlock sustainable value chains</t>
+          <t>Advancing recycling technologies for mixed post-consumer textiles waste from blended products</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-CIRCBIO-09</t>
+          <t>HORIZON-CL6-2026-01-CIRCBIO-02</t>
         </is>
       </c>
       <c r="C338" s="3" t="n">
@@ -10024,18 +9169,18 @@
         <v>46282</v>
       </c>
       <c r="E338" s="4" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="inlineStr">
         <is>
-          <t>Bioremediation of Ukraine’s ecosystems contaminated by conflicts</t>
+          <t>Boosting agrobiodiversity for food security and sustainable competitiveness</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>HORIZON-CL6-2026-01-ZEROPOLLUTION-02</t>
+          <t>HORIZON-CL6-2026-01-BIODIV-06</t>
         </is>
       </c>
       <c r="C339" s="3" t="n">
@@ -10045,18 +9190,18 @@
         <v>46282</v>
       </c>
       <c r="E339" s="4" t="n">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="inlineStr">
         <is>
-          <t>MSCA Postdoctoral Fellowships 2026</t>
+          <t>ERA Fellowships</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>HORIZON-MSCA-2026-PF-01-01</t>
+          <t>HORIZON-WIDERA-2026-05-WIDENING-01</t>
         </is>
       </c>
       <c r="C340" s="3" t="n">
@@ -10065,16 +9210,19 @@
       <c r="D340" s="3" t="n">
         <v>46274</v>
       </c>
+      <c r="E340" s="4" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="inlineStr">
         <is>
-          <t>ERA Fellowships</t>
+          <t>MSCA Postdoctoral Fellowships 2026</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>HORIZON-WIDERA-2026-05-WIDENING-01</t>
+          <t>HORIZON-MSCA-2026-PF-01-01</t>
         </is>
       </c>
       <c r="C341" s="3" t="n">
@@ -10083,40 +9231,37 @@
       <c r="D341" s="3" t="n">
         <v>46274</v>
       </c>
-      <c r="E341" s="4" t="n">
-        <v>100000</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="inlineStr">
         <is>
-          <t>Implementing digital services to empower neuroscience research for health and brain inspired technology via EBRAINS</t>
+          <t>Reinforcing EU autonomous access to space through EU-based spaceports</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-SERV-01-01</t>
+          <t>HORIZON-CL4-2026-SPACE-03-11</t>
         </is>
       </c>
       <c r="C342" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D342" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E342" s="4" t="n">
-        <v>32000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="inlineStr">
         <is>
-          <t>Strengthening the human capital managing research infrastructures, including in international context</t>
+          <t>Research infrastructure concept development including major upgrades or extensions of existing infrastructures</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-04</t>
+          <t>HORIZON-INFRA-2026-DEV-01-01</t>
         </is>
       </c>
       <c r="C343" s="3" t="n">
@@ -10132,12 +9277,12 @@
     <row r="344">
       <c r="A344" s="2" t="inlineStr">
         <is>
-          <t>Trusted frameworks for secure and efficient data sharing in EOSC (EOSC Partnership)</t>
+          <t>Digital twins and/or their major components for environment, climate and security</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-01-EOSC-02</t>
+          <t>HORIZON-INFRA-2026-TECH-01-02</t>
         </is>
       </c>
       <c r="C344" s="3" t="n">
@@ -10147,18 +9292,18 @@
         <v>46189</v>
       </c>
       <c r="E344" s="4" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="inlineStr">
         <is>
-          <t>Consolidation of the research infrastructure landscape – individual support for evolution, long-term sustainability and emerging needs of pan-European research infrastructures</t>
+          <t>Consolidation of the research infrastructure landscape – pilots for strategic coordination, synergies and simplified access pathways, by large thematic clusters of pan-European research infrastructures</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-03</t>
+          <t>HORIZON-INFRA-2026-DEV-01-02</t>
         </is>
       </c>
       <c r="C345" s="3" t="n">
@@ -10168,60 +9313,60 @@
         <v>46189</v>
       </c>
       <c r="E345" s="4" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="inlineStr">
         <is>
-          <t>Consolidation of the research infrastructure landscape – pilots for strategic coordination, synergies and simplified access pathways, by large thematic clusters of pan-European research infrastructures</t>
+          <t>Scientific analysis and exploitation of space data</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-DEV-01-02</t>
+          <t>HORIZON-CL4-2026-SPACE-03-61</t>
         </is>
       </c>
       <c r="C346" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D346" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E346" s="4" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="inlineStr">
         <is>
-          <t>Digital twins and/or their major components for environment, climate and security</t>
+          <t>Digital enablers and building-blocks for Earth Observation and Satellite telecommunication for Space solutions (Space Partnership)</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>HORIZON-INFRA-2026-TECH-01-02</t>
+          <t>HORIZON-CL4-2026-SPACE-03-31</t>
         </is>
       </c>
       <c r="C347" s="3" t="n">
         <v>46091</v>
       </c>
       <c r="D347" s="3" t="n">
-        <v>46189</v>
+        <v>46268</v>
       </c>
       <c r="E347" s="4" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="inlineStr">
         <is>
-          <t>Scientific analysis and exploitation of space data</t>
+          <t>Space critical EEE components for EU non-dependence – GaN MMICs mm-Wave Foundations (Phase A): Development and Industrialization of Semi-insulating SiC Substrate Capabilities</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-61</t>
+          <t>HORIZON-CL4-2026-SPACE-03-82</t>
         </is>
       </c>
       <c r="C348" s="3" t="n">
@@ -10231,18 +9376,18 @@
         <v>46268</v>
       </c>
       <c r="E348" s="4" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="inlineStr">
         <is>
-          <t>Reinforcing EU autonomous access to space through EU-based spaceports</t>
+          <t>Space critical Equipment for EU non-dependence – Space Refuelling Interface</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-11</t>
+          <t>HORIZON-CL4-2026-SPACE-03-86</t>
         </is>
       </c>
       <c r="C349" s="3" t="n">
@@ -10252,18 +9397,18 @@
         <v>46268</v>
       </c>
       <c r="E349" s="4" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="inlineStr">
         <is>
-          <t>Digital enablers and building-blocks for Earth Observation and Satellite telecommunication for Space solutions (Space Partnership)</t>
+          <t>Space critical EEE components for EU non-dependence – Radiation Hard FPGA on 7nm</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-31</t>
+          <t>HORIZON-CL4-2026-SPACE-03-81</t>
         </is>
       </c>
       <c r="C350" s="3" t="n">
@@ -10273,18 +9418,18 @@
         <v>46268</v>
       </c>
       <c r="E350" s="4" t="n">
-        <v>3000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="inlineStr">
         <is>
-          <t>Space critical Equipment for EU non-dependence – Space Refuelling Interface</t>
+          <t>Critical Facilities Serving Space EEE components for EU non-dependence – High and Very High Energy Irradiation Test Facility Market Deployment</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>HORIZON-CL4-2026-SPACE-03-86</t>
+          <t>HORIZON-CL4-2026-SPACE-03-85</t>
         </is>
       </c>
       <c r="C351" s="3" t="n">
@@ -10294,7 +9439,7 @@
         <v>46268</v>
       </c>
       <c r="E351" s="4" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="352">
